--- a/fslogix-storage-calculator.xlsx
+++ b/fslogix-storage-calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{698D90C4-07A9-4087-88F2-90DE57BBFA1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21BF92EC-7DEB-4BCC-B56D-D4CD969DE9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="24000" windowHeight="10200" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
   <sheets>
     <sheet name="FSLogix Calcuator" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
   <si>
     <t>seconds in an hour</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Calculated: Required IOPS Per Volume</t>
   </si>
   <si>
-    <t>Calculated: Required Bandwidth Per Volume (MiB/s)</t>
-  </si>
-  <si>
     <t>High Level Environmental Needs</t>
   </si>
   <si>
@@ -149,15 +146,6 @@
     <t>Minimum Capacity Pool Size GiB</t>
   </si>
   <si>
-    <t>Standard: Capacity (GiB) Needed Per User To Satisfy Bandwidth Needs</t>
-  </si>
-  <si>
-    <t>Premium: Capacity (GiB) Needed Per User To Satisfy Bandwidth Needs</t>
-  </si>
-  <si>
-    <t>Ultra: Capacity (GiB) Needed Per User To Satisfy Bandwidth Needs</t>
-  </si>
-  <si>
     <t>Standard: Minimum Users Required To Justify Minimum Capacity Pool Size</t>
   </si>
   <si>
@@ -233,9 +221,6 @@
     <t>Etc(3)</t>
   </si>
   <si>
-    <t>Drop Down: Percentage of Users Logged in Concurrently</t>
-  </si>
-  <si>
     <t>Concurrent Users</t>
   </si>
   <si>
@@ -245,24 +230,6 @@
     <t>Capacity Required By Input (GiB)</t>
   </si>
   <si>
-    <t>Standard: Select Capacity Based On Bandwidth Needs Or Capacity Needs</t>
-  </si>
-  <si>
-    <t>Premium: Select Capacity Based On Bandwidth Needs Or Capacity Needs</t>
-  </si>
-  <si>
-    <t>Ultra: Select Capacity Based On Bandwidth Needs Or Capacity Needs</t>
-  </si>
-  <si>
-    <t>Standard: Select Capacity/Bandwidth/Capacity Pool Minimum</t>
-  </si>
-  <si>
-    <t>Premium:  Select Capacity/Bandwidth/Capacity Pool Minimum</t>
-  </si>
-  <si>
-    <t>Ultra:  Select Capacity/Bandwidth/Capacity Pool Minimum</t>
-  </si>
-  <si>
     <t>Drop Down: Avg I/O Size To Storage</t>
   </si>
   <si>
@@ -275,21 +242,9 @@
     <t>ANF: Max Volume Size GiB</t>
   </si>
   <si>
-    <t>Standard: Select Capacity/Bandwidth/Capacity Pool Minimum, Or Define as too Large</t>
-  </si>
-  <si>
-    <t>Premium:  Select Capacity/Bandwidth/Capacity Pool Minimum,Or Define as too Large</t>
-  </si>
-  <si>
-    <t>Ultra:  Select Capacity/Bandwidth/Capacity Pool Minimum,Or Define as too Large</t>
-  </si>
-  <si>
     <t>Required Capacity Exceeds documented 100TiB Upper Limit</t>
   </si>
   <si>
-    <t>Required Capacity (GiB)</t>
-  </si>
-  <si>
     <t>Reccomended Service Level</t>
   </si>
   <si>
@@ -332,33 +287,18 @@
     <t>Azure Premium Files Price Break Down</t>
   </si>
   <si>
-    <t>Supports Required I/O Needs?</t>
-  </si>
-  <si>
     <t>Capacity (GiB)</t>
   </si>
   <si>
     <t>Capacity defined By</t>
   </si>
   <si>
-    <t>Supports Required User Count?</t>
-  </si>
-  <si>
     <t>Azure Premium Files Additional Information</t>
   </si>
   <si>
     <t>Azure Standard Files Additional Information</t>
   </si>
   <si>
-    <t>Maximum Total Supported User Count (Based on Concurrent  I/O Rate)</t>
-  </si>
-  <si>
-    <t>Maximum Total Supported User Count (Based on Concurrent MiB/s)</t>
-  </si>
-  <si>
-    <t>Maximum Total Supported User Count (Based on Concurrenct I/O Rate)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Output</t>
   </si>
   <si>
@@ -380,7 +320,79 @@
     <t>FSLogix Storage Calculator</t>
   </si>
   <si>
-    <t>Users needed to justify pool if minimum size</t>
+    <t>Standard: Select Capacity/Bandwidth/Capacity Pool Minimum (English)</t>
+  </si>
+  <si>
+    <t>Premium:  Select Capacity/Bandwidth/Capacity Pool Minimum (English)</t>
+  </si>
+  <si>
+    <t>Ultra:  Select Capacity/Bandwidth/Capacity Pool Minimum (English)</t>
+  </si>
+  <si>
+    <t>Standard: Select Capacity/Bandwidth/Capacity Pool Minimum (#)</t>
+  </si>
+  <si>
+    <t>Premium:  Select Capacity/Bandwidth/Capacity Pool Minimum (#)</t>
+  </si>
+  <si>
+    <t>Ultra:  Select Capacity/Bandwidth/Capacity Pool Minimum (#)</t>
+  </si>
+  <si>
+    <t>Standard: Select Capacity Based On Bandwidth Needs Or Capacity Needs (English)</t>
+  </si>
+  <si>
+    <t>Premium: Select Capacity Based On Bandwidth Needs Or Capacity Needs (English)</t>
+  </si>
+  <si>
+    <t>Ultra: Select Capacity Based On Bandwidth Needs Or Capacity Needs (English)</t>
+  </si>
+  <si>
+    <t>Standard: Select Capacity Based On Bandwidth Needs Or Capacity Needs (#)</t>
+  </si>
+  <si>
+    <t>Premium: Select Capacity Based On Bandwidth Needs Or Capacity Needs (#)</t>
+  </si>
+  <si>
+    <t>Ultra: Select Capacity Based On Bandwidth Needs Or Capacity Needs (#)</t>
+  </si>
+  <si>
+    <t>Standard: Capacity (GiB) Required Per User To Satisfy Bandwidth Needs</t>
+  </si>
+  <si>
+    <t>Premium: Capacity (GiB) Required Per User To Satisfy Bandwidth Needs</t>
+  </si>
+  <si>
+    <t>Ultra: Capacity (GiB) Required Per User To Satisfy Bandwidth Needs</t>
+  </si>
+  <si>
+    <t>Capacity (GiB) Required Per User To Satisfy Capacity Needs</t>
+  </si>
+  <si>
+    <t>Does calculated capacity Fit Within Maximum Volume Size? (English)</t>
+  </si>
+  <si>
+    <t>Drop Down: Concurrenct Users</t>
+  </si>
+  <si>
+    <t>Calculated: Required Bandwidth Per Vol (MiB/s)</t>
+  </si>
+  <si>
+    <t>Max Total Supported User Count (Based on Concurrent  I/O Rate)</t>
+  </si>
+  <si>
+    <t>Max Total Supported User Count (Based on Concurrent MiB/s)</t>
+  </si>
+  <si>
+    <t>Max Total Supported User Count (Based on Concurrenct I/O Rate)</t>
+  </si>
+  <si>
+    <t>Azure Files Max Capacity (GiB)</t>
+  </si>
+  <si>
+    <t>Azure Premium Files Max (GiB)</t>
+  </si>
+  <si>
+    <t>Calculated: Azure Premium Files: Required Capacity?</t>
   </si>
 </sst>
 </file>
@@ -440,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +469,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -538,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -643,7 +661,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -695,18 +712,6 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,11 +719,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="94">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -732,170 +754,517 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -935,11 +1304,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -960,10 +1324,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
@@ -1029,12 +1389,6 @@
     <dxf>
       <font>
         <b/>
-      </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1050,25 +1404,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1124,18 +1459,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1223,238 +1546,6 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1469,19 +1560,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92" tableBorderDxfId="91">
   <autoFilter ref="A2:B8" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="90"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B40" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A22:B40" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B42" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A22:B42" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="0"/>
@@ -1491,57 +1582,57 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A25:B29" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A25:B29" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" tableBorderDxfId="86">
   <autoFilter ref="A25:B29" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A10:B15" totalsRowShown="0" headerRowDxfId="49" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A10:B15" totalsRowShown="0" headerRowDxfId="83" tableBorderDxfId="82">
   <autoFilter ref="A10:B15" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A32:B34" totalsRowShown="0" dataDxfId="45" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A32:B34" totalsRowShown="0" dataDxfId="81" tableBorderDxfId="80">
   <autoFilter ref="A32:B34" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A17:B21" totalsRowShown="0" dataDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A17:B21" totalsRowShown="0" dataDxfId="77" tableBorderDxfId="76">
   <autoFilter ref="A17:B21" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="54" totalsRowDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D17:F23" totalsRowShown="0" dataDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D17:F23" totalsRowShown="0" dataDxfId="74" tableBorderDxfId="73">
   <autoFilter ref="D17:F23" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="31">
-      <calculatedColumnFormula>IF(E20=definitions!$A$23,definitions!$A$23,"Yes")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="59">
+      <calculatedColumnFormula>IF(E19&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1549,18 +1640,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D25:H30" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D25:H30" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="D25:H30" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="27">
+    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="67">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="26">
+    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="66">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="65">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1569,15 +1660,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D32:G37" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D32:G37" totalsRowShown="0" headerRowDxfId="64" tableBorderDxfId="63">
   <autoFilter ref="D32:G37" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="53">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="61">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1592,7 +1683,7 @@
     <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
     <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
     <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
-    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1897,16 +1988,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594F1148-3B87-4101-8535-9F7FDD18F1E9}">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
@@ -1914,10 +2005,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="68"/>
+      <c r="A1" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="63"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
@@ -1929,50 +2020,52 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="32">
-        <v>20</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D3" s="70"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="B4" s="32">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B5" s="32">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B6" s="32">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="32">
-        <v>40</v>
-      </c>
+      <c r="A7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="51">
+        <v>1</v>
+      </c>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="52">
-        <v>1</v>
+      <c r="A8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="32">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1981,417 +2074,421 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>67</v>
+      <c r="A11" s="66" t="s">
+        <v>62</v>
       </c>
       <c r="B11" s="18">
-        <f>B$6*B$8</f>
-        <v>200</v>
+        <f>B$3*B$7</f>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>18</v>
+      <c r="A12" s="67" t="s">
+        <v>112</v>
       </c>
       <c r="B12" s="18">
-        <f>(B$3*B$4*B$6*B$8)/1024</f>
-        <v>62.5</v>
+        <f>(B$4*B$5*B$3*B$7)/1024</f>
+        <v>64.0625</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="67" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="18">
-        <f>(B$3*B$4)</f>
-        <v>320</v>
+        <f>(B$4*B$5)</f>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="68" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="18">
-        <f>B$3*B$6*B8</f>
-        <v>4000</v>
+        <f>B$4*B$3*B7</f>
+        <v>2050</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>20</v>
+      <c r="A15" s="68" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="18">
-        <f>B5*B6</f>
-        <v>8000</v>
+        <f>B6*B3</f>
+        <v>3280</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="A16" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="57" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="56">
-        <f>IF(E26="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!C$44:C$46,'Azure NetApp Files Calcuations'!B$44:B$46),"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>1.404494382022472</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="56" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="60">
+        <f>IF(E18="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!C$35:C$37,'Azure NetApp Files Calcuations'!B$35:B$37,definitions!A$23),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
+        <v>615</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="53" t="str">
-        <f>IF(E20="Required Capacity Exceeds Documented 100TiB Upper Limit","No","Yes")</f>
+        <v>74</v>
+      </c>
+      <c r="E18" s="52" t="str">
+        <f>IF('Azure NetApp Files Calcuations'!B33="No","No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F18" s="58" t="str">
-        <f>IF(E20=definitions!$A$23,definitions!$A$23,"Yes")</f>
+      <c r="F18" s="57" t="str">
+        <f>IF('Azure NetApp Files Calcuations'!B33="Yes","Yes",definitions!$A$23)</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="56">
-        <f>IF(E33="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!C$48:C$50,'Azure NetApp Files Calcuations'!B$48:B$50),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>0.6</v>
+    <row r="19" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="54">
+        <f>IF(E18="Yes",IF($E$20=definitions!A$23,B$18,B$18/B$3),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
+        <v>7.5</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="59">
-        <f>_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$28:$C$30,'Azure NetApp Files Calcuations'!$B$28:$B$30,definitions!$A$23)</f>
-        <v>8000</v>
-      </c>
-      <c r="F19" s="60"/>
-    </row>
-    <row r="20" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="61">
-        <f>_xlfn.XLOOKUP(Table91119[[#This Row],[ Output]],'Azure NetApp Files Calcuations'!C$36:C$38,'Azure NetApp Files Calcuations'!B$36:B$38,definitions!A$23)</f>
-        <v>1200</v>
+      <c r="E19" s="58">
+        <f>IF('Azure NetApp Files Calcuations'!B33="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$29:$C$31,'Azure NetApp Files Calcuations'!$B$29:$B$31),"No")</f>
+        <v>4100</v>
+      </c>
+      <c r="F19" s="59"/>
+    </row>
+    <row r="20" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="55">
+        <f>IF(E26="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!C$43:C$45,'Azure NetApp Files Calcuations'!B$43:B$45),"N/A: User Count Exceeds Capability Of Azure Files")</f>
+        <v>1.490312965722802</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="59" t="str">
-        <f>_xlfn.XLOOKUP(MIN('Azure NetApp Files Calcuations'!$B$36:$B$38),'Azure NetApp Files Calcuations'!$B$36:$B$38,'Azure NetApp Files Calcuations'!$C$36:$C$38,definitions!$A$23)</f>
+        <v>69</v>
+      </c>
+      <c r="E20" s="58" t="str">
+        <f>IF('Azure NetApp Files Calcuations'!B33="Yes",(_xlfn.XLOOKUP(MIN('Azure NetApp Files Calcuations'!$B$35:$B$37),'Azure NetApp Files Calcuations'!$B$35:$B$37,'Azure NetApp Files Calcuations'!$C$35:$C$37)),"No")</f>
         <v>Standard</v>
       </c>
-      <c r="F20" s="60"/>
-    </row>
-    <row r="21" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>92</v>
+      <c r="F20" s="59"/>
+    </row>
+    <row r="21" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="s">
+        <v>73</v>
       </c>
       <c r="B21" s="55">
-        <f>IF(E20=definitions!A$23,B$20,B$20/B$6)</f>
-        <v>6</v>
+        <f>IF(E33="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!C$47:C$49,'Azure NetApp Files Calcuations'!B$47:B$49),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
+        <v>0.75</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="59" t="str">
-        <f>_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$24:$C$26,'Azure NetApp Files Calcuations'!$B$24:$B$26,definitions!$A$23)</f>
-        <v>Capacity</v>
-      </c>
-      <c r="F21" s="60"/>
-    </row>
-    <row r="22" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="E21" s="58" t="str">
+        <f>IF(E18="No","No",(_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$25:$C$27,'Azure NetApp Files Calcuations'!$B$25:$B$27)))</f>
+        <v>Bandwidth</v>
+      </c>
+      <c r="F21" s="59"/>
+    </row>
+    <row r="22" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
-      <c r="B22" s="55"/>
+      <c r="B22" s="54"/>
       <c r="D22" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="63">
-        <f>_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$40:$C$42,'Azure NetApp Files Calcuations'!$B$40:$B$42,definitions!A$23)</f>
-        <v>40</v>
-      </c>
-      <c r="F22" s="60"/>
-    </row>
-    <row r="23" spans="1:8" s="57" customFormat="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="E22" s="58">
+        <f>IF(E18="Yes",(_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$39:$C$41,'Azure NetApp Files Calcuations'!$B$39:$B$41,definitions!A$23)),"No")</f>
+        <v>50</v>
+      </c>
+      <c r="F22" s="59"/>
+    </row>
+    <row r="23" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="55"/>
+      <c r="B23" s="54"/>
       <c r="D23" s="64" t="str">
-        <f>IF(E21="Capacity Pool Minimum Size","Calculated: Minimum Number of Total Users Required To Justify Expense Of Min Capacity Pool","Temporarily Empty Field")</f>
+        <f>IF(E21="Capacity Pool Minimum Size","# Of Users At Min Capacity Pool Size ","Temporarily Empty Field")</f>
         <v>Temporarily Empty Field</v>
       </c>
       <c r="E23" s="65" t="str">
-        <f>IF(E21="Capacity Pool Minimum Size",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$32:$C$34,'Azure NetApp Files Calcuations'!$B$32:$B$34),"Temporarily Empty Field")</f>
+        <f>IF(E21="Capacity Pool Minimum Size",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$13:$C$15,'Azure NetApp Files Calcuations'!$B$13:$B$15),"Temporarily Empty Field")</f>
         <v>Temporarily Empty Field</v>
       </c>
-      <c r="F23" s="62"/>
+      <c r="F23" s="59" t="str">
+        <f>IF(E24&gt;definitions!B29,definitions!$A$23,"Yes")</f>
+        <v>Yes</v>
+      </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
+      <c r="A24" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="50" t="s">
-        <v>64</v>
+        <v>88</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="55">
-        <f>IF(E26="Yes",((B3*B6*B8*definitions!B$32*B$7*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>374.4</v>
+        <v>78</v>
+      </c>
+      <c r="B26" s="54">
+        <f>IF(E26="Yes",B$29+B$28,"N/A: User Count Exceeds Capability Of Azure Files")</f>
+        <v>412.66499999999996</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E26" s="35" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$2:$C$4,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F26" s="44" t="str">
+      <c r="F26" s="43" t="str">
         <f>'Azure Files Calculations'!$B$4</f>
         <v>Yes</v>
       </c>
-      <c r="G26" s="45" t="str">
+      <c r="G26" s="44" t="str">
         <f>'Azure Files Calculations'!$B$2</f>
         <v>Yes</v>
       </c>
-      <c r="H26" s="45" t="str">
+      <c r="H26" s="44" t="str">
         <f>'Azure Files Calculations'!$B$3</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="55">
-        <f>IF(E26="Yes",B$5*B$6*B8*definitions!B$35,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>480</v>
+        <v>77</v>
+      </c>
+      <c r="B27" s="54">
+        <f>IF(E26="Yes",B$26/B$3,"N/A: User Count Exceeds Capability Of Azure Files")</f>
+        <v>5.0324999999999998</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E27" s="18">
-        <f>$B$5*$B$6</f>
-        <v>8000</v>
-      </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
+        <f>IF(E26="Yes",$B$6*$B$3,"No")</f>
+        <v>3280</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="55">
-        <f>IF(E26="Yes",B$27+B$26,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>854.4</v>
+        <v>75</v>
+      </c>
+      <c r="B28" s="54">
+        <f>IF(E26="Yes",((B4*B3*B7*definitions!B$32*B$8*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of Azure Files")</f>
+        <v>215.86499999999998</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E28" s="18">
-        <f>FLOOR(   (definitions!$B$38/$B$3)*(1/$B$8),1)</f>
-        <v>500</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+        <f>IF(E26="Yes",E27/$B$3,"No")</f>
+        <v>40</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="55">
-        <f>IF(E26="Yes",B$28/B$6,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>4.2720000000000002</v>
+        <v>76</v>
+      </c>
+      <c r="B29" s="54">
+        <f>IF(E26="Yes",B$6*B$3*B7*definitions!B$35,"N/A: User Count Exceeds Capability Of Azure Files")</f>
+        <v>196.79999999999998</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E29" s="18">
-        <f>FLOOR(    (   (1024*definitions!$B$39)   /   ('FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$4)  ) * (1/$B$8   ),1)</f>
-        <v>960</v>
-      </c>
-      <c r="F29" s="41"/>
+        <f>IF('Azure Files Calculations'!C4="Yes",FLOOR(   (definitions!$B$38/$B$4)*(1/$B$7),1),"No")</f>
+        <v>400</v>
+      </c>
+      <c r="F29" s="40"/>
       <c r="G29" s="40"/>
-      <c r="H29" s="41"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D30" s="27" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E30" s="18">
-        <f>E27/$B$6</f>
-        <v>40</v>
-      </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
+        <f>IF('Azure Files Calculations'!C4="Yes",FLOOR((   (1024*definitions!$B$39)   /   ('FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$5)  ) * (1/$B$7   ),1),"No")</f>
+        <v>384</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
+      <c r="A31" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="54" t="s">
-        <v>97</v>
+      <c r="A32" s="53" t="s">
+        <v>82</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="55">
-        <f>IF(E33="Yes",IF(E35="I/O Need",definitions!B37*'FSLogix Calcuator'!B6*'FSLogix Calcuator'!B3,definitions!B37*'FSLogix Calcuator'!B5*'FSLogix Calcuator'!B6),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>2000</v>
+        <v>78</v>
+      </c>
+      <c r="B33" s="54">
+        <f>IF(E33="Yes",IF(E36="I/O Need",definitions!B37*'FSLogix Calcuator'!B3*'FSLogix Calcuator'!B4,definitions!B37*'FSLogix Calcuator'!B6*'FSLogix Calcuator'!B3),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
+        <v>820</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E33" s="35" t="str">
-        <f>IF(($B$3*$B$6)&gt;definitions!$B$40,"No","Yes")</f>
+        <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$5:$C$6,'Azure Files Calculations'!$C$5:$C$6,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F33" s="49" t="str">
+      <c r="F33" s="48" t="str">
         <f>'Azure Files Calculations'!$B$6</f>
         <v>Yes</v>
       </c>
-      <c r="G33" s="49" t="str">
+      <c r="G33" s="48" t="str">
         <f>'Azure Files Calculations'!$B$5</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B34" s="23">
-        <f>IF(E33="Yes",B$33/B$6,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
+        <f>IF(E33="Yes",B$33/B$3,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
         <v>10</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E34" s="18">
-        <f>IF(($B$3*$B$6*$B$8)&gt;($B$5*$B$6),$B$3*$B$6*$B$8,$B$5*$B$6)</f>
-        <v>8000</v>
-      </c>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
+        <f>IF('Azure Files Calculations'!C6="Yes",IF(($B$4*$B$3*$B$7)&gt;($B$6*$B$3),$B$4*$B$3*$B$7,$B$6*$B$3),"No")</f>
+        <v>3280</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="22" t="str">
-        <f>IF(($B$3*$B$6*$B$8)&gt;($B$5*$B$6),"I/O Need","VHD Size")</f>
-        <v>VHD Size</v>
-      </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="40"/>
+      <c r="D35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="17">
+        <f>IF('Azure Files Calculations'!$C$6="Yes",E$34/$B$3,"No")</f>
+        <v>40</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="41"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="39"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="18">
-        <f>FLOOR(( definitions!$B$40/$B$3) * (1/$B$8),1)</f>
-        <v>5000</v>
-      </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="48"/>
+        <v>84</v>
+      </c>
+      <c r="E36" s="22" t="str">
+        <f>IF(($B$4*$B$3*$B$7)&gt;($B$6*$B$3),"I/O Need","VHD Size")</f>
+        <v>VHD Size</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="39"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="17">
-        <f>E34/$B$6</f>
-        <v>40</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="42"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="18">
+        <f>FLOOR(( definitions!$B$40/$B$4) * (1/$B$7),1)</f>
+        <v>4000</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="47"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
@@ -2633,115 +2730,142 @@
       <c r="E107" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oU3P9dj5MPxHKX7C5o+ZXWggs+52LVemq2gjvu9NcdkNbLKmOSmSHKsGBaursu+gAvIY1/i3OgRz2eQNcdx2QA==" saltValue="SE/xrdkTfEQhw+Y9r238Sw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="4">
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A31:F31"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/NCVa31ENbCuL75LyV1gIuyadAhVCDxkCrsElcJnwckp/2+rrZ6TGg7uLjf+kOp/Sjh1pT1KgkT3Kv9zinuILg==" saltValue="KL/y/4jxRotGEw7+vo0lSA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A25:B30 A32:B35">
-    <cfRule type="cellIs" dxfId="84" priority="76" operator="equal">
+  <conditionalFormatting sqref="A32:B35 A25:B30">
+    <cfRule type="cellIs" dxfId="52" priority="87" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:H27">
-    <cfRule type="containsText" dxfId="83" priority="6" operator="containsText" text="Yes">
+  <conditionalFormatting sqref="F26:H28">
+    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="50" priority="18" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="cellIs" dxfId="81" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="80" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="34" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="79" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="78" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="25" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="26" operator="equal">
       <formula>"""Yes"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="75" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
       <formula>"Required Capacity Exceeds documented 100TiB Upper Limit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="28" operator="equal">
       <formula>"""Required Capacity Exceeds documented 100TiB Upper Limit"""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="18" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="41" priority="29" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="19" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="40" priority="30" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="70" priority="12" operator="equal">
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="38" priority="23" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="24" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="68" priority="11" operator="equal">
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="36" priority="22" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="67" priority="10" operator="equal">
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E27">
-    <cfRule type="cellIs" dxfId="66" priority="8" operator="equal">
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="34" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E35">
-    <cfRule type="cellIs" dxfId="64" priority="4" operator="equal">
+  <conditionalFormatting sqref="E33 E36">
+    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:G35">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="Required">
+  <conditionalFormatting sqref="F33:G34 F36:G36">
+    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="29" priority="14" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E35">
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
+  <conditionalFormatting sqref="E33 E36">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E22 E28:E30">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
@@ -2749,22 +2873,25 @@
       <formula1>1</formula1>
       <formula2>1024</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 95,000" promptTitle="Number Of User" prompt="Enter the number of users (100% Concurrency is assumed).  Valid values are between 1 and 95,000." sqref="B6" xr:uid="{838F7E3E-819B-4995-B75E-80FB4581AA29}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 95,000" promptTitle="Number Of User" prompt="Enter the number of users (100% Concurrency is assumed).  Valid values are between 1 and 95,000." sqref="B3" xr:uid="{838F7E3E-819B-4995-B75E-80FB4581AA29}">
       <formula1>1</formula1>
       <formula2>95000</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 168" promptTitle="Enter Integer Value" prompt="Enter a value between 40 and 168 representing the working hours in a week.  Call centers for example that have 24X7 operations work 168 hours every week." sqref="B7" xr:uid="{83D3B009-08C9-4277-BCBC-7A1B2CBFC57A}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 168" promptTitle="Enter Integer Value" prompt="Enter a value between 40 and 168 representing the working hours in a week.  Call centers for example that have 24X7 operations work 168 hours every week." sqref="B8" xr:uid="{83D3B009-08C9-4277-BCBC-7A1B2CBFC57A}">
       <formula1>40</formula1>
       <formula2>168</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 30  in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B7" xr:uid="{4AE96117-04AC-420D-AD6D-903EA3285EB4}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 30  in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B8" xr:uid="{4AE96117-04AC-420D-AD6D-903EA3285EB4}">
       <formula1>36</formula1>
       <formula2>168</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" sqref="B7" xr:uid="{A1CCD0B8-6B2D-42A1-89B6-7ABA9C370E18}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" sqref="B8" xr:uid="{A1CCD0B8-6B2D-42A1-89B6-7ABA9C370E18}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F18" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="8">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -2782,49 +2909,49 @@
           <x14:formula1>
             <xm:f>definitions!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
+          <xm:sqref>B5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Storage IOPS Per User" prompt="The average IOPS per user is environment dependant. " xr:uid="{E2E3AE84-252F-4455-AC8B-A92442F4F96A}">
           <x14:formula1>
             <xm:f>definitions!$B$2:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D52C3E3B-D7C9-4CAB-B3CD-9E815BA071AA}">
           <x14:formula1>
             <xm:f>definitions!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B4</xm:sqref>
+          <xm:sqref>B4:B5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 30  in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" xr:uid="{F0468C29-122F-45A3-9E06-3D1D980A2EF8}">
           <x14:formula1>
             <xm:f>definitions!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
+          <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FACD4DE7-9021-4B74-81BF-F5019EF7DF83}">
           <x14:formula1>
             <xm:f>definitions!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
+          <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" xr:uid="{F9F9F9EE-077A-4B49-876B-20EE9C7EA975}">
           <x14:formula1>
             <xm:f>definitions!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
+          <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{FF3B58C7-0EEE-4B9C-AA0D-36F4BBCFA8FD}">
           <x14:formula1>
             <xm:f>definitions!$D$2:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B8</xm:sqref>
+          <xm:sqref>B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="VHD(X) Size" prompt="Select the desired VHD(X) Size, 40GiB has been idenitifed as the average Profile Size Industry wide" xr:uid="{97763830-AAD4-4BCB-B82D-4588199C19CD}">
           <x14:formula1>
             <xm:f>definitions!$C$2:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
+          <xm:sqref>B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2834,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E156B8-3DAB-4F24-8D0A-36FBCF57BCBD}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2848,568 +2975,553 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B2" s="15">
         <f>'FSLogix Calcuator'!B$15</f>
-        <v>8000</v>
+        <v>3280</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="15">
+        <f>'FSLogix Calcuator'!B$6</f>
+        <v>40</v>
+      </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="15">
-        <f>('FSLogix Calcuator'!B$12*1024)/definitions!B30</f>
-        <v>4000</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="15">
-        <f>('FSLogix Calcuator'!B$12*1024)/definitions!B28</f>
-        <v>1000</v>
+        <f>('FSLogix Calcuator'!B$12*1024)/definitions!B30</f>
+        <v>4100</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="15">
+        <f>('FSLogix Calcuator'!B$12*1024)/definitions!B28</f>
+        <v>1025</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="15">
         <f>('FSLogix Calcuator'!B$12*1024)/definitions!B26</f>
-        <v>500</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="2">
-        <f>'FSLogix Calcuator'!B$13/definitions!B30</f>
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>512.5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2">
-        <f>'FSLogix Calcuator'!B$13/definitions!B28</f>
-        <v>5</v>
+        <f>('FSLogix Calcuator'!B$13*'FSLogix Calcuator'!B$7)/definitions!B$30</f>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2">
-        <f>'FSLogix Calcuator'!B$13/definitions!B26</f>
-        <v>2.5</v>
+        <f>('FSLogix Calcuator'!B$13*'FSLogix Calcuator'!B$7)/definitions!B28</f>
+        <v>12.5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="2">
+        <f>('FSLogix Calcuator'!B$13*'FSLogix Calcuator'!B$7)/definitions!B26</f>
+        <v>6.25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2">
-        <f>CEILING(definitions!B$31/'Azure NetApp Files Calcuations'!B8,1)</f>
-        <v>205</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2">
-        <f>CEILING(definitions!B$31/'Azure NetApp Files Calcuations'!B9,1)</f>
-        <v>820</v>
+        <f>CEILING(IF(B9&gt;B$3,definitions!B$31/B9,definitions!B$31/B$3),1)</f>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2">
-        <f>CEILING(definitions!B$31/'Azure NetApp Files Calcuations'!B10,1)</f>
-        <v>1639</v>
+        <f>CEILING(IF(B10&gt;B$3,definitions!B$31/B10,definitions!B$31/B$3),1)</f>
+        <v>103</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2">
+        <f>CEILING(IF(B11&gt;B$3,definitions!B$31/B11,definitions!B$31/B$3),1)</f>
+        <v>103</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="15" t="str">
-        <f>IF(B$2&gt;B4,"Capacity","Bandwidth")</f>
-        <v>Capacity</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B17" s="15" t="str">
         <f>IF(B$2&gt;B5,"Capacity","Bandwidth")</f>
-        <v>Capacity</v>
+        <v>Bandwidth</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B18" s="15" t="str">
         <f>IF(B$2&gt;B6,"Capacity","Bandwidth")</f>
         <v>Capacity</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="15">
-        <f>IF(B$2&gt;B4,B$2,B4)</f>
-        <v>8000</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="15" t="str">
+        <f>IF(B$2&gt;B7,"Capacity","Bandwidth")</f>
+        <v>Capacity</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B21" s="15">
         <f>IF(B$2&gt;B5,B$2,B5)</f>
-        <v>8000</v>
+        <v>4100</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B22" s="15">
         <f>IF(B$2&gt;B6,B$2,B6)</f>
-        <v>8000</v>
+        <v>3280</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="15" t="str">
-        <f>IF(B20&gt;definitions!B$31,B16,"Capacity Pool Minimum Size")</f>
-        <v>Capacity</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="15">
+        <f>IF(B$2&gt;B7,B$2,B7)</f>
+        <v>3280</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B25" s="15" t="str">
         <f>IF(B21&gt;definitions!B$31,B17,"Capacity Pool Minimum Size")</f>
-        <v>Capacity</v>
+        <v>Bandwidth</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B26" s="15" t="str">
         <f>IF(B22&gt;definitions!B$31,B18,"Capacity Pool Minimum Size")</f>
-        <v>Capacity</v>
+        <v>Capacity Pool Minimum Size</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="15">
-        <f>IF(B20&gt;definitions!B$31,B20,definitions!B$31)</f>
-        <v>8000</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="15" t="str">
+        <f>IF(B23&gt;definitions!B$31,B19,"Capacity Pool Minimum Size")</f>
+        <v>Capacity Pool Minimum Size</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B29" s="15">
         <f>IF(B21&gt;definitions!B$31,B21,definitions!B$31)</f>
-        <v>8000</v>
+        <v>4100</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B30" s="15">
         <f>IF(B22&gt;definitions!B$31,B22,definitions!B$31)</f>
-        <v>8000</v>
+        <v>4096</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="15">
-        <f>IF(B28&gt;definitions!B$24,definitions!A$23,B28)</f>
-        <v>8000</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="15">
+        <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
+        <v>4096</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="15">
-        <f>IF(B29&gt;definitions!B$24,definitions!A$23,B29)</f>
-        <v>8000</v>
+        <v>110</v>
+      </c>
+      <c r="B33" s="15" t="str">
+        <f>IF(MIN(B29:B31)&gt;definitions!B24,"No","Yes")</f>
+        <v>Yes</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="15">
-        <f>IF(B30&gt;definitions!B$24,definitions!A$23,B30)</f>
-        <v>8000</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="24">
+        <f>IF((B29&gt;definitions!B24),99999,B29*definitions!B$29)</f>
+        <v>615</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" s="16">
-        <f>IF(B32=definitions!A$23,B32,B32*definitions!B$29)</f>
-        <v>1200</v>
+        <f>IF((B30&gt;definitions!B24),99999,B30*definitions!B$27)</f>
+        <v>1228.8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B37" s="16">
-        <f>IF(B33=definitions!A$23,B33,B33*definitions!B$27)</f>
-        <v>2400</v>
+        <f>IF((B31&gt;definitions!B24),99999,(B31*definitions!B$25))</f>
+        <v>1638.4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="16">
-        <f>IF(B34=definitions!A$23,B34,B34*definitions!B$25)</f>
-        <v>3200</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="15">
+        <f>B29/'FSLogix Calcuator'!B$3</f>
+        <v>50</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B40" s="15">
-        <f>B28/'FSLogix Calcuator'!B$6</f>
-        <v>40</v>
+        <f>B30/'FSLogix Calcuator'!B$3</f>
+        <v>49.951219512195124</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B41" s="15">
-        <f>B29/'FSLogix Calcuator'!B$6</f>
+        <f>B31/'FSLogix Calcuator'!B$3</f>
+        <v>49.951219512195124</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="15">
-        <f>B30/'FSLogix Calcuator'!B$6</f>
-        <v>40</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>44</v>
-      </c>
+    <row r="42" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="3"/>
+    <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="26">
+        <f>IF(B35=definitions!A$23,B35, B35/'FSLogix Calcuator'!B$26)</f>
+        <v>1.490312965722802</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="26">
+        <f>IF(B36=definitions!A$23,B36, B36/'FSLogix Calcuator'!B$26)</f>
+        <v>2.9777180037076079</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B44" s="26">
-        <f>IF(B36=definitions!A$23,B36, B36/'FSLogix Calcuator'!B$28)</f>
-        <v>1.404494382022472</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="26">
+        <f>IF(B37=definitions!A$23,B37, B37/'FSLogix Calcuator'!B$26)</f>
+        <v>3.9702906716101443</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="26">
-        <f>IF(B37=definitions!A$23,B37, B37/'FSLogix Calcuator'!B$28)</f>
-        <v>2.808988764044944</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="26">
-        <f>IF(B38=definitions!A$23,B38, B38/'FSLogix Calcuator'!B$28)</f>
-        <v>3.7453183520599254</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="3"/>
+      <c r="B47" s="26">
+        <f>IF(B35=definitions!A23,B35,B35/'FSLogix Calcuator'!B$33)</f>
+        <v>0.75</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B48" s="26">
         <f>IF(B36=definitions!A23,B36,B36/'FSLogix Calcuator'!B$33)</f>
-        <v>0.6</v>
+        <v>1.4985365853658537</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B49" s="26">
         <f>IF(B37=definitions!A23,B37,B37/'FSLogix Calcuator'!B$33)</f>
-        <v>1.2</v>
+        <v>1.9980487804878051</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="26">
-        <f>IF(B38=definitions!A23,B38,B38/'FSLogix Calcuator'!B$33)</f>
-        <v>1.6</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="3"/>
-    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="7YICRouNavjLxxbclE8SY8a8qu+4etaGwETbBEcsJKTc3hkIaeMpFlx1l5+tW74etaI7zpgXxE91s0LLlqzNug==" saltValue="3DEjIcs2sAXrsFDw2iJbwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E85F820-7E22-48AB-88D3-5118FCDA0E46}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.85546875" customWidth="1"/>
     <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="36" t="str">
         <f>IF('FSLogix Calcuator'!B14&gt;definitions!B$38,"Required I/O Rate Exceeds documented 10,000 IOP Upper Limit","Yes")</f>
@@ -3422,7 +3534,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="38" t="str">
         <f>IF(('FSLogix Calcuator'!B12)&gt;definitions!B$39,"Required Bandwidth Exceeds documented 300MiB/s  Upper Limit","Yes")</f>
@@ -3435,7 +3547,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" s="36" t="str">
         <f>IF('FSLogix Calcuator'!B15&gt;102400,"Required Capacity Exceeds documented 100TiB Upper Limit","Yes")</f>
@@ -3448,101 +3560,106 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="37" t="str">
-        <f>IF(('FSLogix Calcuator'!B$3*'FSLogix Calcuator'!B$6)&gt;definitions!B$40,"Required I/O Rate Exceeds documented 100,000 IOP Upper Limit ","Yes")</f>
+        <f>IF(('FSLogix Calcuator'!B$4*'FSLogix Calcuator'!B$3*'FSLogix Calcuator'!B$7)&gt;definitions!B$40,"Required I/O Rate Exceeds documented 100,000 IOP Upper Limit ","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C5" s="37" t="str">
-        <f>IF(('FSLogix Calcuator'!B$3*'FSLogix Calcuator'!B$6)&gt;definitions!B$40,"No ","Yes")</f>
+        <f>IF(('FSLogix Calcuator'!B$4*'FSLogix Calcuator'!B$3*'FSLogix Calcuator'!B$7)&gt;definitions!B$40,"No ","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="B6" s="37" t="str">
-        <f>IF('FSLogix Calcuator'!E34&gt;102400,"Required Capacity Exceeds documented 100TiB Upper Limit","Yes")</f>
+        <f>IF(IF(('FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$7)&gt;('FSLogix Calcuator'!$B$6*'FSLogix Calcuator'!$B$3),'FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$7,'FSLogix Calcuator'!$B$6*'FSLogix Calcuator'!$B$3)&gt;definitions!B42,"Required Capacity Exceeds documented 100TiB Upper Limit","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C6" s="37" t="str">
-        <f>IF('FSLogix Calcuator'!E34&gt;102400,"No","Yes")</f>
+        <f>IF(IF(('FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$7)&gt;('FSLogix Calcuator'!$B$6*'FSLogix Calcuator'!$B$3),'FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$7,'FSLogix Calcuator'!$B$6*'FSLogix Calcuator'!$B$3)&gt;definitions!B42,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="3"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="M1T6JPnVoYgqRX7/7058BSDi2JgqgjN+mFu/E4iyStzLLiNC/D6QsKctY4gOHs3bWKEbsY0+Nqnf4OtAqYD0eA==" saltValue="SyORRDF3fbJR7GTIvzSjnA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="tpMcrJH5ZpzdIyPP6lXidbBnuy6VBgo1b0b69k7RB86jc7HRwu2GiJYBWUJLZwUWgMbZESIs4ssear+RF5PMqw==" saltValue="gk+iS6tdYFZxlUDNXUc2eA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="No: Required ">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="No: Required ">
       <formula>NOT(ISERROR(SEARCH("No: Required ",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No:  Required ">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="No:  Required ">
       <formula>NOT(ISERROR(SEARCH("No:  Required ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="No:">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="No:">
       <formula>NOT(ISERROR(SEARCH("No:",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3552,10 +3669,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8274658-AC29-4B53-B5B1-54B6D412C541}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3574,10 +3691,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3590,7 +3707,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="50">
         <v>0.25</v>
       </c>
     </row>
@@ -3604,7 +3721,7 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="50">
         <v>0.33</v>
       </c>
     </row>
@@ -3618,7 +3735,7 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="50">
         <v>0.5</v>
       </c>
     </row>
@@ -3629,7 +3746,7 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="50">
         <v>0.66</v>
       </c>
     </row>
@@ -3640,7 +3757,7 @@
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="50">
         <v>0.75</v>
       </c>
     </row>
@@ -3651,7 +3768,7 @@
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="50">
         <v>1</v>
       </c>
     </row>
@@ -3662,149 +3779,152 @@
       <c r="C8">
         <v>25</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>30</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="50"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>35</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>40</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>45</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>50</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="50"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="51"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="51"/>
+      <c r="D15" s="50"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="51"/>
+      <c r="D16" s="50"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="51"/>
+      <c r="D17" s="50"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="51"/>
+      <c r="D18" s="50"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="51"/>
+      <c r="D19" s="50"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="51"/>
+      <c r="D20" s="50"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="51"/>
+      <c r="D21" s="50"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="50"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="D23" s="51"/>
+      <c r="D23" s="50"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2">
         <v>102400</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="50"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="24">
         <v>0.4</v>
       </c>
-      <c r="D25" s="51"/>
+      <c r="D25" s="50"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="15">
         <v>128</v>
       </c>
-      <c r="D26" s="51"/>
+      <c r="D26" s="50"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="24">
         <v>0.3</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="50"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="15">
         <v>64</v>
       </c>
-      <c r="D28" s="51"/>
+      <c r="D28" s="50"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="24">
         <v>0.15</v>
       </c>
-      <c r="D29" s="51"/>
+      <c r="D29" s="50"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="15">
         <v>16</v>
       </c>
-      <c r="D30" s="51"/>
+      <c r="D30" s="50"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="15">
         <v>4096</v>
       </c>
-      <c r="D31" s="51"/>
+      <c r="C31">
+        <v>4906</v>
+      </c>
+      <c r="D31" s="50"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
@@ -3813,7 +3933,7 @@
       <c r="B32" s="15">
         <v>3600</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="50"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
@@ -3822,7 +3942,7 @@
       <c r="B33" s="15">
         <v>12</v>
       </c>
-      <c r="D33" s="51"/>
+      <c r="D33" s="50"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
@@ -3882,7 +4002,24 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="15">
+        <v>102400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="15">
+        <v>102400</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="HW5JblHk3yTFhN46OJdIqHvhZwjcfCB/IV8vkTfAPgwazNLaoCd5n/3aX8UCI6U2hQNxZ5Oyj8srIeTfjtS0bQ==" saltValue="gPnlJIRo9hZjT1Q//WzWWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
@@ -3892,21 +4029,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100050FBA8A9F0AFB4BB2D0148D6A234C38" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74183e733b66e5e9a3cd5553bd4bd9ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4a052287-e6d5-446a-afc6-58987b850d5f" xmlns:ns4="943a090e-7b96-4eb7-abc0-264fa36c6c5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b903754823e47922d1d3c75b6236d24" ns3:_="" ns4:_="">
     <xsd:import namespace="4a052287-e6d5-446a-afc6-58987b850d5f"/>
@@ -4129,10 +4251,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097D0541-97F4-46BE-8711-51CFA8DE5931}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4a052287-e6d5-446a-afc6-58987b850d5f"/>
+    <ds:schemaRef ds:uri="943a090e-7b96-4eb7-abc0-264fa36c6c5d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4155,20 +4303,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097D0541-97F4-46BE-8711-51CFA8DE5931}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4a052287-e6d5-446a-afc6-58987b850d5f"/>
-    <ds:schemaRef ds:uri="943a090e-7b96-4eb7-abc0-264fa36c6c5d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/fslogix-storage-calculator.xlsx
+++ b/fslogix-storage-calculator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21BF92EC-7DEB-4BCC-B56D-D4CD969DE9F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{8B793CA2-87F6-4A18-B711-311CB868FD5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{829609A6-CCB4-46B3-91CF-74B6D6DD79A9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
@@ -245,9 +245,6 @@
     <t>Required Capacity Exceeds documented 100TiB Upper Limit</t>
   </si>
   <si>
-    <t>Reccomended Service Level</t>
-  </si>
-  <si>
     <t>Capacity Defined By</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
     <t>Does calculated capacity Fit Within Maximum Volume Size? (English)</t>
   </si>
   <si>
-    <t>Drop Down: Concurrenct Users</t>
-  </si>
-  <si>
     <t>Calculated: Required Bandwidth Per Vol (MiB/s)</t>
   </si>
   <si>
@@ -393,6 +387,12 @@
   </si>
   <si>
     <t>Calculated: Azure Premium Files: Required Capacity?</t>
+  </si>
+  <si>
+    <t>Drop Down: Concurrent Users</t>
+  </si>
+  <si>
+    <t>Recommended Service Level</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00000000_);[Red]\(&quot;$&quot;#,##0.00000000\)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +446,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -556,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -665,20 +672,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -700,9 +698,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -712,13 +707,6 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -736,11 +724,1512 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="225">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -754,6 +2243,9 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -914,308 +2406,161 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color theme="1"/>
+        </left>
+        <right style="medium">
+          <color theme="1"/>
+        </right>
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1237,42 +2582,36 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color theme="1"/>
+        </left>
+        <right style="medium">
+          <color theme="1"/>
+        </right>
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1291,17 +2630,21 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <font>
+        <b val="0"/>
+      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1327,115 +2670,14 @@
       <font>
         <b/>
       </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <top style="medium">
-          <color theme="1"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <top style="medium">
-          <color theme="1"/>
-        </top>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1454,9 +2696,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1475,72 +2729,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1560,78 +2748,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92" tableBorderDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="224" dataDxfId="223" tableBorderDxfId="222">
   <autoFilter ref="A2:B8" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="90"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="89"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="221"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="220"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B42" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B42" totalsRowShown="0" dataDxfId="167">
   <autoFilter ref="A22:B42" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="166"/>
+    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="165"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A25:B29" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" tableBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A25:B29" totalsRowShown="0" headerRowDxfId="219" dataDxfId="218" tableBorderDxfId="217">
   <autoFilter ref="A25:B29" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="216"/>
+    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="215"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A10:B15" totalsRowShown="0" headerRowDxfId="83" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A10:B15" totalsRowShown="0" headerRowDxfId="214" tableBorderDxfId="213">
   <autoFilter ref="A10:B15" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="212"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="211"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A32:B34" totalsRowShown="0" dataDxfId="81" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A32:B34" totalsRowShown="0" dataDxfId="210" tableBorderDxfId="209">
   <autoFilter ref="A32:B34" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="208"/>
+    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="207"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A17:B21" totalsRowShown="0" dataDxfId="77" tableBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A17:B21" totalsRowShown="0" dataDxfId="206" tableBorderDxfId="205">
   <autoFilter ref="A17:B21" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="54" totalsRowDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="204" totalsRowDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="202"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D17:F23" totalsRowShown="0" dataDxfId="74" tableBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D17:F23" totalsRowShown="0" dataDxfId="201" tableBorderDxfId="200">
   <autoFilter ref="D17:F23" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="199" totalsRowDxfId="198"/>
+    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="197"/>
+    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="196">
       <calculatedColumnFormula>IF(E19&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1640,18 +2828,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D25:H30" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D25:H30" totalsRowShown="0" headerRowDxfId="195" tableBorderDxfId="194">
   <autoFilter ref="D25:H30" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="67">
+    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="193"/>
+    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="192">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="66">
+    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="191">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="65">
+    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="190">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1660,15 +2848,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D32:G37" totalsRowShown="0" headerRowDxfId="64" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D32:G37" totalsRowShown="0" headerRowDxfId="189" tableBorderDxfId="188">
   <autoFilter ref="D32:G37" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="53">
+    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="187"/>
+    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="186">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="61">
+    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="185">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1683,7 +2871,7 @@
     <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
     <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
     <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
-    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1986,31 +3174,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594F1148-3B87-4101-8535-9F7FDD18F1E9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="4" max="4" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="63"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="70"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -2018,24 +3209,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="32">
-        <v>82</v>
-      </c>
-      <c r="D3" s="70"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="D3" s="63"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>64</v>
       </c>
@@ -2043,36 +3234,36 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="51">
+        <v>117</v>
+      </c>
+      <c r="B7" s="48">
         <v>1</v>
       </c>
-      <c r="D7" s="50"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="47"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="32">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="17"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
@@ -2080,290 +3271,294 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="59" t="s">
         <v>62</v>
       </c>
       <c r="B11" s="18">
         <f>B$3*B$7</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>112</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>110</v>
       </c>
       <c r="B12" s="18">
         <f>(B$4*B$5*B$3*B$7)/1024</f>
-        <v>64.0625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+        <v>55.3125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="18">
         <f>(B$4*B$5)</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="18">
         <f>B$4*B$3*B7</f>
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="18">
         <f>B6*B3</f>
-        <v>3280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="56" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="60">
+    <row r="18" spans="1:8" s="53" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="56">
         <f>IF(E18="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!C$35:C$37,'Azure NetApp Files Calcuations'!B$35:B$37,definitions!A$23),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>615</v>
+        <v>619.5</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="52" t="str">
+        <v>73</v>
+      </c>
+      <c r="E18" s="49" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B33="No","No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F18" s="57" t="str">
+      <c r="F18" s="67" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B33="Yes","Yes",definitions!$A$23)</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="54">
+    <row r="19" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="51">
         <f>IF(E18="Yes",IF($E$20=definitions!A$23,B$18,B$18/B$3),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="58">
+        <v>82</v>
+      </c>
+      <c r="E19" s="54">
         <f>IF('Azure NetApp Files Calcuations'!B33="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$29:$C$31,'Azure NetApp Files Calcuations'!$B$29:$B$31),"No")</f>
-        <v>4100</v>
-      </c>
-      <c r="F19" s="59"/>
-    </row>
-    <row r="20" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="55">
+        <v>4130</v>
+      </c>
+      <c r="F19" s="55"/>
+    </row>
+    <row r="20" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="52">
         <f>IF(E26="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!C$43:C$45,'Azure NetApp Files Calcuations'!B$43:B$45),"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>1.490312965722802</v>
+        <v>1.4982876712328768</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="58" t="str">
+        <v>118</v>
+      </c>
+      <c r="E20" s="54" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B33="Yes",(_xlfn.XLOOKUP(MIN('Azure NetApp Files Calcuations'!$B$35:$B$37),'Azure NetApp Files Calcuations'!$B$35:$B$37,'Azure NetApp Files Calcuations'!$C$35:$C$37)),"No")</f>
         <v>Standard</v>
       </c>
-      <c r="F20" s="59"/>
-    </row>
-    <row r="21" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="55">
+      <c r="F20" s="55"/>
+    </row>
+    <row r="21" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="52">
         <f>IF(E33="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!C$47:C$49,'Azure NetApp Files Calcuations'!B$47:B$49),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D21" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="54" t="str">
+        <f>IF(E18="No","No",(_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$25:$C$27,'Azure NetApp Files Calcuations'!$B$25:$B$27)))</f>
+        <v>Capacity</v>
+      </c>
+      <c r="F21" s="55"/>
+    </row>
+    <row r="22" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="51"/>
+      <c r="D22" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="58" t="str">
-        <f>IF(E18="No","No",(_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$25:$C$27,'Azure NetApp Files Calcuations'!$B$25:$B$27)))</f>
-        <v>Bandwidth</v>
-      </c>
-      <c r="F21" s="59"/>
-    </row>
-    <row r="22" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="54"/>
-      <c r="D22" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="58">
+      <c r="E22" s="54">
         <f>IF(E18="Yes",(_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$39:$C$41,'Azure NetApp Files Calcuations'!$B$39:$B$41,definitions!A$23)),"No")</f>
-        <v>50</v>
-      </c>
-      <c r="F22" s="59"/>
-    </row>
-    <row r="23" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F22" s="55"/>
+    </row>
+    <row r="23" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="54"/>
-      <c r="D23" s="64" t="str">
+      <c r="B23" s="51"/>
+      <c r="D23" s="57" t="str">
         <f>IF(E21="Capacity Pool Minimum Size","# Of Users At Min Capacity Pool Size ","Temporarily Empty Field")</f>
         <v>Temporarily Empty Field</v>
       </c>
-      <c r="E23" s="65" t="str">
+      <c r="E23" s="58" t="str">
         <f>IF(E21="Capacity Pool Minimum Size",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$13:$C$15,'Azure NetApp Files Calcuations'!$B$13:$B$15),"Temporarily Empty Field")</f>
         <v>Temporarily Empty Field</v>
       </c>
-      <c r="F23" s="59" t="str">
+      <c r="F23" s="55" t="str">
         <f>IF(E24&gt;definitions!B29,definitions!$A$23,"Yes")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="A24" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="64" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="54">
+        <v>77</v>
+      </c>
+      <c r="B26" s="51">
         <f>IF(E26="Yes",B$29+B$28,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>412.66499999999996</v>
+        <v>413.47199999999998</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="35" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$2:$C$4,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F26" s="43" t="str">
+      <c r="F26" s="66" t="str">
         <f>'Azure Files Calculations'!$B$4</f>
         <v>Yes</v>
       </c>
-      <c r="G26" s="44" t="str">
+      <c r="G26" s="65" t="str">
         <f>'Azure Files Calculations'!$B$2</f>
         <v>Yes</v>
       </c>
-      <c r="H26" s="44" t="str">
+      <c r="H26" s="65" t="str">
         <f>'Azure Files Calculations'!$B$3</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="54">
+      <c r="A27" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="51">
         <f>IF(E26="Yes",B$26/B$3,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>5.0324999999999998</v>
+        <v>3.504</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="18">
         <f>IF(E26="Yes",$B$6*$B$3,"No")</f>
-        <v>3280</v>
+        <v>4130</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="39"/>
       <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="54">
+      <c r="A28" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="51">
         <f>IF(E26="Yes",((B4*B3*B7*definitions!B$32*B$8*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>215.86499999999998</v>
+        <v>165.672</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="18">
         <f>IF(E26="Yes",E27/$B$3,"No")</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F28" s="40"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="46"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="54">
+      <c r="A29" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="51">
         <f>IF(E26="Yes",B$6*B$3*B7*definitions!B$35,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>196.79999999999998</v>
+        <v>247.79999999999998</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E29" s="18">
         <f>IF('Azure Files Calculations'!C4="Yes",FLOOR(   (definitions!$B$38/$B$4)*(1/$B$7),1),"No")</f>
-        <v>400</v>
+        <v>666</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="40"/>
@@ -2371,38 +3566,39 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D30" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E30" s="18">
         <f>IF('Azure Files Calculations'!C4="Yes",FLOOR((   (1024*definitions!$B$39)   /   ('FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$5)  ) * (1/$B$7   ),1),"No")</f>
-        <v>384</v>
+        <v>640</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="39"/>
       <c r="H30" s="40"/>
     </row>
     <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="A31" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
-        <v>82</v>
+      <c r="A32" s="50" t="s">
+        <v>81</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
         <v>58</v>
@@ -2411,55 +3607,55 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="54">
+        <v>77</v>
+      </c>
+      <c r="B33" s="51">
         <f>IF(E33="Yes",IF(E36="I/O Need",definitions!B37*'FSLogix Calcuator'!B3*'FSLogix Calcuator'!B4,definitions!B37*'FSLogix Calcuator'!B6*'FSLogix Calcuator'!B3),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>820</v>
+        <v>1032.5</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="35" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$5:$C$6,'Azure Files Calculations'!$C$5:$C$6,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F33" s="48" t="str">
+      <c r="F33" s="68" t="str">
         <f>'Azure Files Calculations'!$B$6</f>
         <v>Yes</v>
       </c>
-      <c r="G33" s="48" t="str">
+      <c r="G33" s="46" t="str">
         <f>'Azure Files Calculations'!$B$5</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>77</v>
+      <c r="A34" s="60" t="s">
+        <v>76</v>
       </c>
       <c r="B34" s="23">
         <f>IF(E33="Yes",B$33/B$3,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="18">
         <f>IF('Azure Files Calculations'!C6="Yes",IF(($B$4*$B$3*$B$7)&gt;($B$6*$B$3),$B$4*$B$3*$B$7,$B$6*$B$3),"No")</f>
-        <v>3280</v>
+        <v>4130</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E35" s="17">
         <f>IF('Azure Files Calculations'!$C$6="Yes",E$34/$B$3,"No")</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="41"/>
@@ -2469,7 +3665,7 @@
       <c r="B36" s="17"/>
       <c r="C36" s="8"/>
       <c r="D36" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="22" t="str">
         <f>IF(($B$4*$B$3*$B$7)&gt;($B$6*$B$3),"I/O Need","VHD Size")</f>
@@ -2481,14 +3677,14 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" s="8"/>
       <c r="D37" s="27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E37" s="18">
         <f>FLOOR(( definitions!$B$40/$B$4) * (1/$B$7),1)</f>
-        <v>4000</v>
+        <v>6666</v>
       </c>
       <c r="F37" s="40"/>
-      <c r="G37" s="47"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
@@ -2730,142 +3926,164 @@
       <c r="E107" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/NCVa31ENbCuL75LyV1gIuyadAhVCDxkCrsElcJnwckp/2+rrZ6TGg7uLjf+kOp/Sjh1pT1KgkT3Kv9zinuILg==" saltValue="KL/y/4jxRotGEw7+vo0lSA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A16:H16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A32:B35 A25:B30">
-    <cfRule type="cellIs" dxfId="52" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="91" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:H28">
-    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="67" priority="21" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="18" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="66" priority="22" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="39" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="48" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="38" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="37" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="46" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="29" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="30" operator="equal">
       <formula>"""Yes"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="36" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="43" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="31" operator="equal">
       <formula>"Required Capacity Exceeds documented 100TiB Upper Limit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="32" operator="equal">
       <formula>"""Required Capacity Exceeds documented 100TiB Upper Limit"""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="29" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="57" priority="33" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="30" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="56" priority="34" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="35" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="38" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="28" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="36" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="34" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="23" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="24" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33 E36">
-    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="19" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="20" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:G34 F36:G36">
-    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="46" priority="16" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="14" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="45" priority="18" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33 E36">
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E22 E28:E30">
-    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="15" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="21" priority="2" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
@@ -2887,8 +4105,9 @@
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" sqref="B8" xr:uid="{A1CCD0B8-6B2D-42A1-89B6-7ABA9C370E18}"/>
   </dataValidations>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup scale="33" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="F18" calculatedColumn="1"/>
   </ignoredErrors>
@@ -2907,7 +4126,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="If known, select the average storage I/O size.  If unknown, leave the value at the default of 32." promptTitle="Storage I/O Size (Advanced)" prompt="If known, select the average storage I/O size.  If unknown, leave the value at the default of 32." xr:uid="{86AD3042-EFBE-4769-8F55-A620876D83EA}">
           <x14:formula1>
-            <xm:f>definitions!$A$2:$A$4</xm:f>
+            <xm:f>definitions!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B5</xm:sqref>
         </x14:dataValidation>
@@ -2963,7 +4182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E156B8-3DAB-4F24-8D0A-36FBCF57BCBD}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -2985,17 +4204,17 @@
       </c>
       <c r="B2" s="15">
         <f>'FSLogix Calcuator'!B$15</f>
-        <v>3280</v>
+        <v>4130</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="15">
         <f>'FSLogix Calcuator'!B$6</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -3010,7 +4229,7 @@
       </c>
       <c r="B5" s="15">
         <f>('FSLogix Calcuator'!B$12*1024)/definitions!B30</f>
-        <v>4100</v>
+        <v>3540</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>47</v>
@@ -3022,7 +4241,7 @@
       </c>
       <c r="B6" s="15">
         <f>('FSLogix Calcuator'!B$12*1024)/definitions!B28</f>
-        <v>1025</v>
+        <v>885</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>48</v>
@@ -3034,7 +4253,7 @@
       </c>
       <c r="B7" s="15">
         <f>('FSLogix Calcuator'!B$12*1024)/definitions!B26</f>
-        <v>512.5</v>
+        <v>442.5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>40</v>
@@ -3042,11 +4261,11 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2">
         <f>('FSLogix Calcuator'!B$13*'FSLogix Calcuator'!B$7)/definitions!B$30</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>47</v>
@@ -3054,11 +4273,11 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="2">
         <f>('FSLogix Calcuator'!B$13*'FSLogix Calcuator'!B$7)/definitions!B28</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>48</v>
@@ -3066,11 +4285,11 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2">
         <f>('FSLogix Calcuator'!B$13*'FSLogix Calcuator'!B$7)/definitions!B26</f>
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>40</v>
@@ -3087,7 +4306,7 @@
       </c>
       <c r="B13" s="2">
         <f>CEILING(IF(B9&gt;B$3,definitions!B$31/B9,definitions!B$31/B$3),1)</f>
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>47</v>
@@ -3099,7 +4318,7 @@
       </c>
       <c r="B14" s="2">
         <f>CEILING(IF(B10&gt;B$3,definitions!B$31/B10,definitions!B$31/B$3),1)</f>
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>48</v>
@@ -3111,7 +4330,7 @@
       </c>
       <c r="B15" s="2">
         <f>CEILING(IF(B11&gt;B$3,definitions!B$31/B11,definitions!B$31/B$3),1)</f>
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>40</v>
@@ -3124,11 +4343,11 @@
     </row>
     <row r="17" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="15" t="str">
         <f>IF(B$2&gt;B5,"Capacity","Bandwidth")</f>
-        <v>Bandwidth</v>
+        <v>Capacity</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>47</v>
@@ -3136,7 +4355,7 @@
     </row>
     <row r="18" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B18" s="15" t="str">
         <f>IF(B$2&gt;B6,"Capacity","Bandwidth")</f>
@@ -3148,7 +4367,7 @@
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="15" t="str">
         <f>IF(B$2&gt;B7,"Capacity","Bandwidth")</f>
@@ -3165,11 +4384,11 @@
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="15">
         <f>IF(B$2&gt;B5,B$2,B5)</f>
-        <v>4100</v>
+        <v>4130</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>47</v>
@@ -3177,11 +4396,11 @@
     </row>
     <row r="22" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="15">
         <f>IF(B$2&gt;B6,B$2,B6)</f>
-        <v>3280</v>
+        <v>4130</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>48</v>
@@ -3189,11 +4408,11 @@
     </row>
     <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="15">
         <f>IF(B$2&gt;B7,B$2,B7)</f>
-        <v>3280</v>
+        <v>4130</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>40</v>
@@ -3206,11 +4425,11 @@
     </row>
     <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="15" t="str">
         <f>IF(B21&gt;definitions!B$31,B17,"Capacity Pool Minimum Size")</f>
-        <v>Bandwidth</v>
+        <v>Capacity</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>47</v>
@@ -3218,11 +4437,11 @@
     </row>
     <row r="26" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="15" t="str">
         <f>IF(B22&gt;definitions!B$31,B18,"Capacity Pool Minimum Size")</f>
-        <v>Capacity Pool Minimum Size</v>
+        <v>Capacity</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>48</v>
@@ -3230,11 +4449,11 @@
     </row>
     <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="15" t="str">
         <f>IF(B23&gt;definitions!B$31,B19,"Capacity Pool Minimum Size")</f>
-        <v>Capacity Pool Minimum Size</v>
+        <v>Capacity</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>40</v>
@@ -3247,11 +4466,11 @@
     </row>
     <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="15">
         <f>IF(B21&gt;definitions!B$31,B21,definitions!B$31)</f>
-        <v>4100</v>
+        <v>4130</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>47</v>
@@ -3259,11 +4478,11 @@
     </row>
     <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="15">
         <f>IF(B22&gt;definitions!B$31,B22,definitions!B$31)</f>
-        <v>4096</v>
+        <v>4130</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>48</v>
@@ -3271,11 +4490,11 @@
     </row>
     <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="15">
         <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
-        <v>4096</v>
+        <v>4130</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>40</v>
@@ -3288,7 +4507,7 @@
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" s="15" t="str">
         <f>IF(MIN(B29:B31)&gt;definitions!B24,"No","Yes")</f>
@@ -3311,7 +4530,7 @@
       </c>
       <c r="B35" s="24">
         <f>IF((B29&gt;definitions!B24),99999,B29*definitions!B$29)</f>
-        <v>615</v>
+        <v>619.5</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>47</v>
@@ -3325,7 +4544,7 @@
       </c>
       <c r="B36" s="16">
         <f>IF((B30&gt;definitions!B24),99999,B30*definitions!B$27)</f>
-        <v>1228.8</v>
+        <v>1239</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>48</v>
@@ -3339,7 +4558,7 @@
       </c>
       <c r="B37" s="16">
         <f>IF((B31&gt;definitions!B24),99999,(B31*definitions!B$25))</f>
-        <v>1638.4</v>
+        <v>1652</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>40</v>
@@ -3360,7 +4579,7 @@
       </c>
       <c r="B39" s="15">
         <f>B29/'FSLogix Calcuator'!B$3</f>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>47</v>
@@ -3374,7 +4593,7 @@
       </c>
       <c r="B40" s="15">
         <f>B30/'FSLogix Calcuator'!B$3</f>
-        <v>49.951219512195124</v>
+        <v>35</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>48</v>
@@ -3388,7 +4607,7 @@
       </c>
       <c r="B41" s="15">
         <f>B31/'FSLogix Calcuator'!B$3</f>
-        <v>49.951219512195124</v>
+        <v>35</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>40</v>
@@ -3409,7 +4628,7 @@
       </c>
       <c r="B43" s="26">
         <f>IF(B35=definitions!A$23,B35, B35/'FSLogix Calcuator'!B$26)</f>
-        <v>1.490312965722802</v>
+        <v>1.4982876712328768</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>47</v>
@@ -3423,7 +4642,7 @@
       </c>
       <c r="B44" s="26">
         <f>IF(B36=definitions!A$23,B36, B36/'FSLogix Calcuator'!B$26)</f>
-        <v>2.9777180037076079</v>
+        <v>2.9965753424657535</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>48</v>
@@ -3437,7 +4656,7 @@
       </c>
       <c r="B45" s="26">
         <f>IF(B37=definitions!A$23,B37, B37/'FSLogix Calcuator'!B$26)</f>
-        <v>3.9702906716101443</v>
+        <v>3.9954337899543382</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>40</v>
@@ -3457,7 +4676,7 @@
       </c>
       <c r="B47" s="26">
         <f>IF(B35=definitions!A23,B35,B35/'FSLogix Calcuator'!B$33)</f>
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>47</v>
@@ -3470,7 +4689,7 @@
       </c>
       <c r="B48" s="26">
         <f>IF(B36=definitions!A23,B36,B36/'FSLogix Calcuator'!B$33)</f>
-        <v>1.4985365853658537</v>
+        <v>1.2</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>48</v>
@@ -3483,7 +4702,7 @@
       </c>
       <c r="B49" s="26">
         <f>IF(B37=definitions!A23,B37,B37/'FSLogix Calcuator'!B$33)</f>
-        <v>1.9980487804878051</v>
+        <v>1.6</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>40</v>
@@ -3573,7 +4792,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="37" t="str">
         <f>IF(IF(('FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$7)&gt;('FSLogix Calcuator'!$B$6*'FSLogix Calcuator'!$B$3),'FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$7,'FSLogix Calcuator'!$B$6*'FSLogix Calcuator'!$B$3)&gt;definitions!B42,"Required Capacity Exceeds documented 100TiB Upper Limit","Yes")</f>
@@ -3592,74 +4811,74 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tpMcrJH5ZpzdIyPP6lXidbBnuy6VBgo1b0b69k7RB86jc7HRwu2GiJYBWUJLZwUWgMbZESIs4ssear+RF5PMqw==" saltValue="gk+iS6tdYFZxlUDNXUc2eA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="16" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="182" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="181" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="180" priority="5" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="12" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="11" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="No: Required ">
+    <cfRule type="containsText" dxfId="174" priority="8" operator="containsText" text="No: Required ">
       <formula>NOT(ISERROR(SEARCH("No: Required ",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="No:  Required ">
+    <cfRule type="containsText" dxfId="173" priority="7" operator="containsText" text="No:  Required ">
       <formula>NOT(ISERROR(SEARCH("No:  Required ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="No:">
+    <cfRule type="containsText" dxfId="172" priority="6" operator="containsText" text="No:">
       <formula>NOT(ISERROR(SEARCH("No:",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3671,8 +4890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8274658-AC29-4B53-B5B1-54B6D412C541}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3707,7 +4926,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="47">
         <v>0.25</v>
       </c>
     </row>
@@ -3721,7 +4940,7 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="47">
         <v>0.33</v>
       </c>
     </row>
@@ -3735,7 +4954,7 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="47">
         <v>0.5</v>
       </c>
     </row>
@@ -3746,7 +4965,7 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="47">
         <v>0.66</v>
       </c>
     </row>
@@ -3757,7 +4976,7 @@
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="47">
         <v>0.75</v>
       </c>
     </row>
@@ -3768,7 +4987,7 @@
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="47">
         <v>1</v>
       </c>
     </row>
@@ -3779,61 +4998,61 @@
       <c r="C8">
         <v>25</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="47"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>30</v>
       </c>
-      <c r="D9" s="50"/>
+      <c r="D9" s="47"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>35</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>40</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="47"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>45</v>
       </c>
-      <c r="D12" s="50"/>
+      <c r="D12" s="47"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>50</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="47"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="50"/>
+      <c r="D14" s="47"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="50"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="50"/>
+      <c r="D16" s="47"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="50"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="50"/>
+      <c r="D18" s="47"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="50"/>
+      <c r="D19" s="47"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="50"/>
+      <c r="D20" s="47"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="50"/>
+      <c r="D21" s="47"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -3842,14 +5061,14 @@
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="47"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="D23" s="50"/>
+      <c r="D23" s="47"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
@@ -3858,7 +5077,7 @@
       <c r="B24" s="2">
         <v>102400</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="47"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -3867,7 +5086,7 @@
       <c r="B25" s="24">
         <v>0.4</v>
       </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="47"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
@@ -3876,7 +5095,7 @@
       <c r="B26" s="15">
         <v>128</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="47"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
@@ -3885,7 +5104,7 @@
       <c r="B27" s="24">
         <v>0.3</v>
       </c>
-      <c r="D27" s="50"/>
+      <c r="D27" s="47"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
@@ -3894,7 +5113,7 @@
       <c r="B28" s="15">
         <v>64</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="47"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
@@ -3903,7 +5122,7 @@
       <c r="B29" s="24">
         <v>0.15</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="47"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
@@ -3912,7 +5131,7 @@
       <c r="B30" s="15">
         <v>16</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="47"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
@@ -3924,7 +5143,7 @@
       <c r="C31">
         <v>4906</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="47"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
@@ -3933,7 +5152,7 @@
       <c r="B32" s="15">
         <v>3600</v>
       </c>
-      <c r="D32" s="50"/>
+      <c r="D32" s="47"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
@@ -3942,7 +5161,7 @@
       <c r="B33" s="15">
         <v>12</v>
       </c>
-      <c r="D33" s="50"/>
+      <c r="D33" s="47"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
@@ -4004,7 +5223,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B41" s="15">
         <v>102400</v>
@@ -4012,7 +5231,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B42" s="15">
         <v>102400</v>

--- a/fslogix-storage-calculator.xlsx
+++ b/fslogix-storage-calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="8_{8B793CA2-87F6-4A18-B711-311CB868FD5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{829609A6-CCB4-46B3-91CF-74B6D6DD79A9}"/>
+  <xr:revisionPtr revIDLastSave="313" documentId="8_{8B793CA2-87F6-4A18-B711-311CB868FD5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF428786-FDD2-4BDD-98C1-61F54F8C3C43}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Azure Files Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="definitions" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -753,1483 +753,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="225">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="95">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2734,6 +1258,317 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2748,78 +1583,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="224" dataDxfId="223" tableBorderDxfId="222">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
   <autoFilter ref="A2:B8" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="221"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="220"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B42" totalsRowShown="0" dataDxfId="167">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B42" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="A22:B42" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="166"/>
-    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="165"/>
+    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A25:B29" totalsRowShown="0" headerRowDxfId="219" dataDxfId="218" tableBorderDxfId="217">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A25:B29" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="A25:B29" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="216"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="215"/>
+    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A10:B15" totalsRowShown="0" headerRowDxfId="214" tableBorderDxfId="213">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A10:B15" totalsRowShown="0" headerRowDxfId="49" tableBorderDxfId="48">
   <autoFilter ref="A10:B15" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="212"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="211"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A32:B34" totalsRowShown="0" dataDxfId="210" tableBorderDxfId="209">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A32:B34" totalsRowShown="0" dataDxfId="45" tableBorderDxfId="44">
   <autoFilter ref="A32:B34" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="208"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="207"/>
+    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A17:B21" totalsRowShown="0" dataDxfId="206" tableBorderDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A17:B21" totalsRowShown="0" dataDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="A17:B21" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="204" totalsRowDxfId="203"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="202"/>
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D17:F23" totalsRowShown="0" dataDxfId="201" tableBorderDxfId="200">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D17:F23" totalsRowShown="0" dataDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="D17:F23" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="199" totalsRowDxfId="198"/>
-    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="197"/>
-    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="196">
+    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="31">
       <calculatedColumnFormula>IF(E19&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2828,18 +1663,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D25:H30" totalsRowShown="0" headerRowDxfId="195" tableBorderDxfId="194">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D25:H30" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
   <autoFilter ref="D25:H30" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="193"/>
-    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="192">
+    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="27">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="191">
+    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="26">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="190">
+    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="25">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2848,15 +1683,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D32:G37" totalsRowShown="0" headerRowDxfId="189" tableBorderDxfId="188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D32:G37" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="D32:G37" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="187"/>
-    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="186">
+    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="21">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="185">
+    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="20">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2871,7 +1706,7 @@
     <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
     <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
     <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
-    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="168"/>
+    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3180,7 +2015,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="32">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="D3" s="63"/>
     </row>
@@ -3239,7 +2074,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="32">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3277,7 +2112,7 @@
       </c>
       <c r="B11" s="18">
         <f>B$3*B$7</f>
-        <v>118</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3286,7 +2121,7 @@
       </c>
       <c r="B12" s="18">
         <f>(B$4*B$5*B$3*B$7)/1024</f>
-        <v>55.3125</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3304,7 +2139,7 @@
       </c>
       <c r="B14" s="18">
         <f>B$4*B$3*B7</f>
-        <v>1770</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3313,7 +2148,7 @@
       </c>
       <c r="B15" s="18">
         <f>B6*B3</f>
-        <v>4130</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -3351,7 +2186,7 @@
       </c>
       <c r="B18" s="56">
         <f>IF(E18="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!C$35:C$37,'Azure NetApp Files Calcuations'!B$35:B$37,definitions!A$23),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>619.5</v>
+        <v>900</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>73</v>
@@ -3371,14 +2206,14 @@
       </c>
       <c r="B19" s="51">
         <f>IF(E18="Yes",IF($E$20=definitions!A$23,B$18,B$18/B$3),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>82</v>
       </c>
       <c r="E19" s="54">
         <f>IF('Azure NetApp Files Calcuations'!B33="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$29:$C$31,'Azure NetApp Files Calcuations'!$B$29:$B$31),"No")</f>
-        <v>4130</v>
+        <v>6000</v>
       </c>
       <c r="F19" s="55"/>
     </row>
@@ -3388,7 +2223,7 @@
       </c>
       <c r="B20" s="52">
         <f>IF(E26="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!C$43:C$45,'Azure NetApp Files Calcuations'!B$43:B$45),"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>1.4982876712328768</v>
+        <v>1.404494382022472</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>118</v>
@@ -3412,7 +2247,7 @@
       </c>
       <c r="E21" s="54" t="str">
         <f>IF(E18="No","No",(_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$25:$C$27,'Azure NetApp Files Calcuations'!$B$25:$B$27)))</f>
-        <v>Capacity</v>
+        <v>Bandwidth</v>
       </c>
       <c r="F21" s="55"/>
     </row>
@@ -3424,7 +2259,7 @@
       </c>
       <c r="E22" s="54">
         <f>IF(E18="Yes",(_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$39:$C$41,'Azure NetApp Files Calcuations'!$B$39:$B$41,definitions!A$23)),"No")</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F22" s="55"/>
     </row>
@@ -3485,7 +2320,7 @@
       </c>
       <c r="B26" s="51">
         <f>IF(E26="Yes",B$29+B$28,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>413.47199999999998</v>
+        <v>640.79999999999995</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>73</v>
@@ -3513,14 +2348,14 @@
       </c>
       <c r="B27" s="51">
         <f>IF(E26="Yes",B$26/B$3,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>3.504</v>
+        <v>3.2039999999999997</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E27" s="18">
         <f>IF(E26="Yes",$B$6*$B$3,"No")</f>
-        <v>4130</v>
+        <v>6000</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="39"/>
@@ -3532,14 +2367,14 @@
       </c>
       <c r="B28" s="51">
         <f>IF(E26="Yes",((B4*B3*B7*definitions!B$32*B$8*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>165.672</v>
+        <v>280.8</v>
       </c>
       <c r="D28" s="27" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="18">
         <f>IF(E26="Yes",E27/$B$3,"No")</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="43"/>
@@ -3551,7 +2386,7 @@
       </c>
       <c r="B29" s="51">
         <f>IF(E26="Yes",B$6*B$3*B7*definitions!B$35,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>247.79999999999998</v>
+        <v>360</v>
       </c>
       <c r="D29" s="27" t="s">
         <v>111</v>
@@ -3613,13 +2448,13 @@
       </c>
       <c r="B33" s="51">
         <f>IF(E33="Yes",IF(E36="I/O Need",definitions!B37*'FSLogix Calcuator'!B3*'FSLogix Calcuator'!B4,definitions!B37*'FSLogix Calcuator'!B6*'FSLogix Calcuator'!B3),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>1032.5</v>
+        <v>1500</v>
       </c>
       <c r="D33" s="34" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="35" t="str">
-        <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$5:$C$6,'Azure Files Calculations'!$C$5:$C$6,"Yes")</f>
+        <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$5:$C$7,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
       <c r="F33" s="68" t="str">
@@ -3637,14 +2472,14 @@
       </c>
       <c r="B34" s="23">
         <f>IF(E33="Yes",B$33/B$3,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E34" s="18">
         <f>IF('Azure Files Calculations'!C6="Yes",IF(($B$4*$B$3*$B$7)&gt;($B$6*$B$3),$B$4*$B$3*$B$7,$B$6*$B$3),"No")</f>
-        <v>4130</v>
+        <v>6000</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
@@ -3655,7 +2490,7 @@
       </c>
       <c r="E35" s="17">
         <f>IF('Azure Files Calculations'!$C$6="Yes",E$34/$B$3,"No")</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="41"/>
@@ -3686,6 +2521,12 @@
       <c r="F37" s="40"/>
       <c r="G37" s="45"/>
     </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D39" t="str">
+        <f>'Azure Files Calculations'!C5</f>
+        <v>Yes</v>
+      </c>
+    </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="28"/>
@@ -3926,6 +2767,7 @@
       <c r="E107" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="cSrUbPjI0p+LBUjceeghFfZdmZEd1Ge9HnoO5zAdnlwzHZUer+Sw5LL9gpaKtsSElp67VcWBOqu6owcCHvPIdw==" saltValue="2zT+6GYSdQsZp1eHcvM3sQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A24:H24"/>
@@ -3934,155 +2776,155 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A32:B35 A25:B30">
-    <cfRule type="cellIs" dxfId="68" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="91" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:H28">
-    <cfRule type="containsText" dxfId="67" priority="21" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="93" priority="21" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="22" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="92" priority="22" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="cellIs" dxfId="65" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="39" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="64" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="38" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="63" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="37" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="62" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="29" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="30" operator="equal">
       <formula>"""Yes"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="36" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="59" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="31" operator="equal">
       <formula>"Required Capacity Exceeds documented 100TiB Upper Limit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="32" operator="equal">
       <formula>"""Required Capacity Exceeds documented 100TiB Upper Limit"""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="33" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="83" priority="33" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="34" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="82" priority="34" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="35" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="27" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="28" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="50" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="23" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="24" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33 E36">
-    <cfRule type="cellIs" dxfId="48" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="19" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="20" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:G34 F36:G36">
-    <cfRule type="containsText" dxfId="46" priority="16" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="72" priority="16" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="18" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="71" priority="18" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33 E36">
-    <cfRule type="cellIs" dxfId="44" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E22 E28:E30">
-    <cfRule type="cellIs" dxfId="43" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="41" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="39" priority="6" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="38" priority="5" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="63" priority="4" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="61" priority="2" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="60" priority="1" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4204,7 +3046,7 @@
       </c>
       <c r="B2" s="15">
         <f>'FSLogix Calcuator'!B$15</f>
-        <v>4130</v>
+        <v>6000</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -4214,7 +3056,7 @@
       </c>
       <c r="B3" s="15">
         <f>'FSLogix Calcuator'!B$6</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -4229,7 +3071,7 @@
       </c>
       <c r="B5" s="15">
         <f>('FSLogix Calcuator'!B$12*1024)/definitions!B30</f>
-        <v>3540</v>
+        <v>6000</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>47</v>
@@ -4241,7 +3083,7 @@
       </c>
       <c r="B6" s="15">
         <f>('FSLogix Calcuator'!B$12*1024)/definitions!B28</f>
-        <v>885</v>
+        <v>1500</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>48</v>
@@ -4253,7 +3095,7 @@
       </c>
       <c r="B7" s="15">
         <f>('FSLogix Calcuator'!B$12*1024)/definitions!B26</f>
-        <v>442.5</v>
+        <v>750</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>40</v>
@@ -4306,7 +3148,7 @@
       </c>
       <c r="B13" s="2">
         <f>CEILING(IF(B9&gt;B$3,definitions!B$31/B9,definitions!B$31/B$3),1)</f>
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>47</v>
@@ -4318,7 +3160,7 @@
       </c>
       <c r="B14" s="2">
         <f>CEILING(IF(B10&gt;B$3,definitions!B$31/B10,definitions!B$31/B$3),1)</f>
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>48</v>
@@ -4330,7 +3172,7 @@
       </c>
       <c r="B15" s="2">
         <f>CEILING(IF(B11&gt;B$3,definitions!B$31/B11,definitions!B$31/B$3),1)</f>
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>40</v>
@@ -4347,7 +3189,7 @@
       </c>
       <c r="B17" s="15" t="str">
         <f>IF(B$2&gt;B5,"Capacity","Bandwidth")</f>
-        <v>Capacity</v>
+        <v>Bandwidth</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>47</v>
@@ -4388,7 +3230,7 @@
       </c>
       <c r="B21" s="15">
         <f>IF(B$2&gt;B5,B$2,B5)</f>
-        <v>4130</v>
+        <v>6000</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>47</v>
@@ -4400,7 +3242,7 @@
       </c>
       <c r="B22" s="15">
         <f>IF(B$2&gt;B6,B$2,B6)</f>
-        <v>4130</v>
+        <v>6000</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>48</v>
@@ -4412,7 +3254,7 @@
       </c>
       <c r="B23" s="15">
         <f>IF(B$2&gt;B7,B$2,B7)</f>
-        <v>4130</v>
+        <v>6000</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>40</v>
@@ -4429,7 +3271,7 @@
       </c>
       <c r="B25" s="15" t="str">
         <f>IF(B21&gt;definitions!B$31,B17,"Capacity Pool Minimum Size")</f>
-        <v>Capacity</v>
+        <v>Bandwidth</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>47</v>
@@ -4470,7 +3312,7 @@
       </c>
       <c r="B29" s="15">
         <f>IF(B21&gt;definitions!B$31,B21,definitions!B$31)</f>
-        <v>4130</v>
+        <v>6000</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>47</v>
@@ -4482,7 +3324,7 @@
       </c>
       <c r="B30" s="15">
         <f>IF(B22&gt;definitions!B$31,B22,definitions!B$31)</f>
-        <v>4130</v>
+        <v>6000</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>48</v>
@@ -4494,7 +3336,7 @@
       </c>
       <c r="B31" s="15">
         <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
-        <v>4130</v>
+        <v>6000</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>40</v>
@@ -4530,7 +3372,7 @@
       </c>
       <c r="B35" s="24">
         <f>IF((B29&gt;definitions!B24),99999,B29*definitions!B$29)</f>
-        <v>619.5</v>
+        <v>900</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>47</v>
@@ -4544,7 +3386,7 @@
       </c>
       <c r="B36" s="16">
         <f>IF((B30&gt;definitions!B24),99999,B30*definitions!B$27)</f>
-        <v>1239</v>
+        <v>1800</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>48</v>
@@ -4558,7 +3400,7 @@
       </c>
       <c r="B37" s="16">
         <f>IF((B31&gt;definitions!B24),99999,(B31*definitions!B$25))</f>
-        <v>1652</v>
+        <v>2400</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>40</v>
@@ -4579,7 +3421,7 @@
       </c>
       <c r="B39" s="15">
         <f>B29/'FSLogix Calcuator'!B$3</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>47</v>
@@ -4593,7 +3435,7 @@
       </c>
       <c r="B40" s="15">
         <f>B30/'FSLogix Calcuator'!B$3</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>48</v>
@@ -4607,7 +3449,7 @@
       </c>
       <c r="B41" s="15">
         <f>B31/'FSLogix Calcuator'!B$3</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>40</v>
@@ -4628,7 +3470,7 @@
       </c>
       <c r="B43" s="26">
         <f>IF(B35=definitions!A$23,B35, B35/'FSLogix Calcuator'!B$26)</f>
-        <v>1.4982876712328768</v>
+        <v>1.404494382022472</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>47</v>
@@ -4642,7 +3484,7 @@
       </c>
       <c r="B44" s="26">
         <f>IF(B36=definitions!A$23,B36, B36/'FSLogix Calcuator'!B$26)</f>
-        <v>2.9965753424657535</v>
+        <v>2.808988764044944</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>48</v>
@@ -4656,7 +3498,7 @@
       </c>
       <c r="B45" s="26">
         <f>IF(B37=definitions!A$23,B37, B37/'FSLogix Calcuator'!B$26)</f>
-        <v>3.9954337899543382</v>
+        <v>3.7453183520599254</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>40</v>
@@ -4720,7 +3562,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4782,11 +3624,11 @@
         <v>20</v>
       </c>
       <c r="B5" s="37" t="str">
-        <f>IF(('FSLogix Calcuator'!B$4*'FSLogix Calcuator'!B$3*'FSLogix Calcuator'!B$7)&gt;definitions!B$40,"Required I/O Rate Exceeds documented 100,000 IOP Upper Limit ","Yes")</f>
+        <f>IF(('FSLogix Calcuator'!B$4*'FSLogix Calcuator'!B$3*'FSLogix Calcuator'!B$7)&gt;definitions!B$40,"Required I/O Rate Exceeds documented 100,000 IOP Upper Limit","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C5" s="37" t="str">
-        <f>IF(('FSLogix Calcuator'!B$4*'FSLogix Calcuator'!B$3*'FSLogix Calcuator'!B$7)&gt;definitions!B$40,"No ","Yes")</f>
+        <f>IF(('FSLogix Calcuator'!B$4*'FSLogix Calcuator'!B$3*'FSLogix Calcuator'!B$7)&gt;definitions!B$40,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -4809,76 +3651,76 @@
       <c r="C7" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="tpMcrJH5ZpzdIyPP6lXidbBnuy6VBgo1b0b69k7RB86jc7HRwu2GiJYBWUJLZwUWgMbZESIs4ssear+RF5PMqw==" saltValue="gk+iS6tdYFZxlUDNXUc2eA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DcUIiypqNaYpqHrgxBpOEL2s+OEfJc6N65n2I9KNa9IzINrg4PAAAF+2FzgsMGVwJq66amUixHr6FehNfW+1sQ==" saltValue="i3UzaEs/uGYeDUvOhF8zOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="184" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="182" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="containsText" dxfId="181" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="5" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="178" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="177" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="175" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsText" dxfId="174" priority="8" operator="containsText" text="No: Required ">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="No: Required ">
       <formula>NOT(ISERROR(SEARCH("No: Required ",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="173" priority="7" operator="containsText" text="No:  Required ">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No:  Required ">
       <formula>NOT(ISERROR(SEARCH("No:  Required ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="172" priority="6" operator="containsText" text="No:">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="No:">
       <formula>NOT(ISERROR(SEARCH("No:",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="171" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5471,18 +4313,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5505,6 +4347,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5519,12 +4369,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/fslogix-storage-calculator.xlsx
+++ b/fslogix-storage-calculator.xlsx
@@ -5,19 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="8_{8B793CA2-87F6-4A18-B711-311CB868FD5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF428786-FDD2-4BDD-98C1-61F54F8C3C43}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{529BD795-D1D2-419C-B2F6-71F57612F637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5JOt4G2pPuZ6Pg/PNIeNu/DJ1v1zuFrR5LfcDtvB358+TbjxY+K3eFLxiqxTUIUjAJQwjqkXrCLiIvq7DeMFzw==" workbookSaltValue="CK4S7b670GNQYpg1Ucb3aw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
   <sheets>
     <sheet name="FSLogix Calcuator" sheetId="1" r:id="rId1"/>
-    <sheet name="Azure NetApp Files Calcuations" sheetId="3" r:id="rId2"/>
-    <sheet name="Azure Files Calculations" sheetId="4" r:id="rId3"/>
-    <sheet name="definitions" sheetId="2" r:id="rId4"/>
+    <sheet name="Azure NetApp Files Calcuations" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Azure Files Calculations" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="definitions" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Throughput Test" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029" iterate="1" iterateCount="3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="169">
   <si>
     <t>seconds in an hour</t>
   </si>
@@ -230,9 +235,6 @@
     <t>Capacity Required By Input (GiB)</t>
   </si>
   <si>
-    <t>Drop Down: Avg I/O Size To Storage</t>
-  </si>
-  <si>
     <t>Drop Down: Storage Profile Size in GiB</t>
   </si>
   <si>
@@ -242,12 +244,6 @@
     <t>ANF: Max Volume Size GiB</t>
   </si>
   <si>
-    <t>Required Capacity Exceeds documented 100TiB Upper Limit</t>
-  </si>
-  <si>
-    <t>Capacity Defined By</t>
-  </si>
-  <si>
     <t>Capacity Per User (GiB)</t>
   </si>
   <si>
@@ -287,9 +283,6 @@
     <t>Capacity (GiB)</t>
   </si>
   <si>
-    <t>Capacity defined By</t>
-  </si>
-  <si>
     <t>Azure Premium Files Additional Information</t>
   </si>
   <si>
@@ -365,9 +358,6 @@
     <t>Capacity (GiB) Required Per User To Satisfy Capacity Needs</t>
   </si>
   <si>
-    <t>Does calculated capacity Fit Within Maximum Volume Size? (English)</t>
-  </si>
-  <si>
     <t>Calculated: Required Bandwidth Per Vol (MiB/s)</t>
   </si>
   <si>
@@ -377,9 +367,6 @@
     <t>Max Total Supported User Count (Based on Concurrent MiB/s)</t>
   </si>
   <si>
-    <t>Max Total Supported User Count (Based on Concurrenct I/O Rate)</t>
-  </si>
-  <si>
     <t>Azure Files Max Capacity (GiB)</t>
   </si>
   <si>
@@ -393,6 +380,174 @@
   </si>
   <si>
     <t>Recommended Service Level</t>
+  </si>
+  <si>
+    <t>Read Percentage</t>
+  </si>
+  <si>
+    <t>VMCount=4</t>
+  </si>
+  <si>
+    <t>Thread=1</t>
+  </si>
+  <si>
+    <t>Azure Files</t>
+  </si>
+  <si>
+    <t>Readpct=100</t>
+  </si>
+  <si>
+    <t>Readpct=90</t>
+  </si>
+  <si>
+    <t>Readpct=80</t>
+  </si>
+  <si>
+    <t>Readpct=70</t>
+  </si>
+  <si>
+    <t>Readpct=60</t>
+  </si>
+  <si>
+    <t>Readpct=50</t>
+  </si>
+  <si>
+    <t>Readpct=40</t>
+  </si>
+  <si>
+    <t>Readpct=30</t>
+  </si>
+  <si>
+    <t>Readpct=20</t>
+  </si>
+  <si>
+    <t>Readpct=10</t>
+  </si>
+  <si>
+    <t>Readpct=0</t>
+  </si>
+  <si>
+    <t>vms</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>io_rate</t>
+  </si>
+  <si>
+    <t>MiB/s</t>
+  </si>
+  <si>
+    <t>iosize</t>
+  </si>
+  <si>
+    <t>read_pct</t>
+  </si>
+  <si>
+    <t>resp_time</t>
+  </si>
+  <si>
+    <t>read_resp_time</t>
+  </si>
+  <si>
+    <t>write_resp_time</t>
+  </si>
+  <si>
+    <t>resp_max</t>
+  </si>
+  <si>
+    <t>resp_stddev</t>
+  </si>
+  <si>
+    <t>qdepth</t>
+  </si>
+  <si>
+    <t>Read Percenage</t>
+  </si>
+  <si>
+    <t>Drop Down: Read Percentage (Advanced)</t>
+  </si>
+  <si>
+    <t>Drop Down: Avg I/O Size To Storage (Advanced)</t>
+  </si>
+  <si>
+    <t>Read Bandwidth</t>
+  </si>
+  <si>
+    <t>Write Bandwidth</t>
+  </si>
+  <si>
+    <t>Maximum Tested Bandwidth (MiB/s) At Read %</t>
+  </si>
+  <si>
+    <t>Required capacity exceeds documented 100TiB upper limit</t>
+  </si>
+  <si>
+    <t>Does Calculated Capacity Fit Within Maximum Volume Size? (English)</t>
+  </si>
+  <si>
+    <t>Provisioned Capacity (GiB)</t>
+  </si>
+  <si>
+    <t>Is tested bandwidth sufficient for user count? (English)</t>
+  </si>
+  <si>
+    <t>Max Total Supported User Count (Based on Capacity)</t>
+  </si>
+  <si>
+    <t>Maximum Supported Users Based On Capacity</t>
+  </si>
+  <si>
+    <t>Max Total Supported User Count (Based on Requested Capacity)</t>
+  </si>
+  <si>
+    <t>Provisioned Capacity Per User (GiB)</t>
+  </si>
+  <si>
+    <t>Provisioned Capacity defined By</t>
+  </si>
+  <si>
+    <t>Provisioned Capacity Defined By</t>
+  </si>
+  <si>
+    <t>Azure Premium Files Read MiB/s base value MiB/s</t>
+  </si>
+  <si>
+    <t>Azure Premium Files Read MiB/s Per GiB of Capacity</t>
+  </si>
+  <si>
+    <t>Azure Premium Files Write MiB/s base value MiB/s</t>
+  </si>
+  <si>
+    <t>Azure Premium Files Write MiB/s Per GiB of Capacity</t>
+  </si>
+  <si>
+    <t>Calculated: Azure Premium Files: Capacity Required For Read MiB/s</t>
+  </si>
+  <si>
+    <t>Calculated: Azure Premium Files: Capacity Required For Write MiB/s</t>
+  </si>
+  <si>
+    <t>Calculated: Azure Premium Files: Capacity Required By Read or Write Bandwidth</t>
+  </si>
+  <si>
+    <t>Calculated: Azure Premium Files: Adjusted Capacity Required For Read MiB/s</t>
+  </si>
+  <si>
+    <t>Calculated: Azure Premium Files: Adjusted Capacity Required For Write MiB/s</t>
+  </si>
+  <si>
+    <t>Calculated: Azure Premium Files: Capacity Required By I/O, Bandwidth, Or Profile Size</t>
+  </si>
+  <si>
+    <t>Calculated: Azure Premium Files: Capacity Required By I/O or Bandwidth</t>
+  </si>
+  <si>
+    <t>Max Total Supported User Count (Based on Concurrent I/O Rate)</t>
   </si>
 </sst>
 </file>
@@ -445,14 +600,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -485,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -559,11 +715,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -675,9 +844,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -685,9 +851,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -713,31 +876,59 @@
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,29 +937,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
+  <dxfs count="98">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -928,6 +1101,349 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -993,6 +1509,20 @@
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1084,25 +1614,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1167,7 +1678,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
       </font>
     </dxf>
     <dxf>
@@ -1234,6 +1745,9 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1258,317 +1772,6 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1582,80 +1785,2210 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Four</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Instance 64K Sequential IO</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(1 Thread Per Job)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Azure Files MiB/s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$G$2:$G$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('[1]VDBENCH APF|AF|ANF'!$G$2:$G$3,'[1]VDBENCH APF|AF|ANF'!$G$5:$G$12)</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Readpct=100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Readpct=90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Readpct=70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Readpct=60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Readpct=50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Readpct=40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Readpct=30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Readpct=20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Readpct=10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Readpct=0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$E$145:$E$155</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('[1]VDBENCH APF|AF|ANF'!$E$145:$E$146,'[1]VDBENCH APF|AF|ANF'!$E$148:$E$155)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-129E-4021-A45E-DDBB4657CB37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Azure NetApp Files MiB/s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>Readpct=100</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Readpct=90</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Readpct=70</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Readpct=60</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Readpct=50</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Readpct=40</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Readpct=30</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Readpct=20</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>Readpct=10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>Readpct=0</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$P$145:$P$155</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('[1]VDBENCH APF|AF|ANF'!$P$145:$P$146,'[1]VDBENCH APF|AF|ANF'!$P$148:$P$155)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3582</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2940</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1842</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-129E-4021-A45E-DDBB4657CB37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Azure Premium Files MiB/s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>Readpct=100</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Readpct=90</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Readpct=70</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Readpct=60</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Readpct=50</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Readpct=40</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Readpct=30</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Readpct=20</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>Readpct=10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>Readpct=0</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$AA$145:$AA$155</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('[1]VDBENCH APF|AF|ANF'!$AA$145:$AA$146,'[1]VDBENCH APF|AF|ANF'!$AA$148:$AA$155)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-129E-4021-A45E-DDBB4657CB37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="700946472"/>
+        <c:axId val="700940240"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Azure Files Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$H$145:$H$155</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('[1]VDBENCH APF|AF|ANF'!$H$145:$H$146,'[1]VDBENCH APF|AF|ANF'!$H$148:$H$155)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13.820666666699999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.9073333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.195666666699999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.262666666699999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.063666666700001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.683999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.0756666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.279666666700001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.119666666700001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-129E-4021-A45E-DDBB4657CB37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Azure NetApp Files Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$S$145:$S$155</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('[1]VDBENCH APF|AF|ANF'!$S$145:$S$146,'[1]VDBENCH APF|AF|ANF'!$S$148:$S$155)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.1063333333299998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2126666666700001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4623333333300002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5903333333299998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6956666666700002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9540000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.26633333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.6153333333300002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.99633333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3016666666700001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-129E-4021-A45E-DDBB4657CB37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Azure Premium Files Latency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$AD$145:$AD$155</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('[1]VDBENCH APF|AF|ANF'!$AD$145:$AD$146,'[1]VDBENCH APF|AF|ANF'!$AD$148:$AD$155)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.4829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4393333333299996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4546666666699997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4283333333300003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7686666666699997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2423333333300004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8673333333300004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3573333333300006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9133333333299998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-129E-4021-A45E-DDBB4657CB37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="896667480"/>
+        <c:axId val="896669448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="700946472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700940240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="700940240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MiB/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="700946472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="896669448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="896667480"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="896667480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="896669448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8F854C-7638-408E-92F5-91B03ECC9DBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="(1)FirstLogin50usersAF(d32)"/>
+      <sheetName val="login script"/>
+      <sheetName val="(1)FirstLogin50usersANF(d16sv3)"/>
+      <sheetName val="(2)FirstLogin50usersANF(d16sv3)"/>
+      <sheetName val="(1)FirstLogin50usersANF(d32)"/>
+      <sheetName val="(1)FirstLogin50usersANFd1984GP"/>
+      <sheetName val="(1)2ndLogin50usersANF(d32)"/>
+      <sheetName val="(2)2ndLogin50usersANF(d32)"/>
+      <sheetName val="ANF|APF|AF Powerpoint"/>
+      <sheetName val="VDBENCH APF|AF|ANF"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="VDBENCH APF|ANF"/>
+      <sheetName val="VDBENCH ANF|ANF"/>
+      <sheetName val="VDBENCH APF|AF"/>
+      <sheetName val="VDBENCH APF|APF"/>
+      <sheetName val="VDBENCH AF|AF"/>
+      <sheetName val="Evidence of Object Storage AF"/>
+      <sheetName val="APF Cost Per MiBs"/>
+      <sheetName val="RogersRealWorld_vol_stats"/>
+      <sheetName val="RogersRealWorld_workload_stats"/>
+      <sheetName val="Sheet4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="G2" t="str">
+            <v>Readpct=100</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3" t="str">
+            <v>Readpct=90</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4" t="str">
+            <v>Readpct=80</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5" t="str">
+            <v>Readpct=70</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6" t="str">
+            <v>Readpct=60</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7" t="str">
+            <v>Readpct=50</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="G8" t="str">
+            <v>Readpct=40</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="G9" t="str">
+            <v>Readpct=30</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10" t="str">
+            <v>Readpct=20</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="G11" t="str">
+            <v>Readpct=10</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12" t="str">
+            <v>Readpct=0</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="E145">
+            <v>564</v>
+          </cell>
+          <cell r="H145">
+            <v>13.820666666699999</v>
+          </cell>
+          <cell r="P145">
+            <v>3766</v>
+          </cell>
+          <cell r="S145">
+            <v>2.1063333333299998</v>
+          </cell>
+          <cell r="AA145">
+            <v>1064</v>
+          </cell>
+          <cell r="AD145">
+            <v>7.4829999999999997</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="E146">
+            <v>562</v>
+          </cell>
+          <cell r="H146">
+            <v>13.823</v>
+          </cell>
+          <cell r="P146">
+            <v>3582</v>
+          </cell>
+          <cell r="S146">
+            <v>2.2126666666700001</v>
+          </cell>
+          <cell r="AA146">
+            <v>1155</v>
+          </cell>
+          <cell r="AD146">
+            <v>6.8860000000000001</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="E147">
+            <v>535</v>
+          </cell>
+          <cell r="H147">
+            <v>14.6566666667</v>
+          </cell>
+          <cell r="P147">
+            <v>3295</v>
+          </cell>
+          <cell r="S147">
+            <v>2.4056666666700002</v>
+          </cell>
+          <cell r="AA147">
+            <v>1197</v>
+          </cell>
+          <cell r="AD147">
+            <v>6.6449999999999996</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="E148">
+            <v>491</v>
+          </cell>
+          <cell r="H148">
+            <v>15.9073333333</v>
+          </cell>
+          <cell r="P148">
+            <v>3217</v>
+          </cell>
+          <cell r="S148">
+            <v>2.4623333333300002</v>
+          </cell>
+          <cell r="AA148">
+            <v>1235</v>
+          </cell>
+          <cell r="AD148">
+            <v>6.4393333333299996</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="E149">
+            <v>428</v>
+          </cell>
+          <cell r="H149">
+            <v>18.195666666699999</v>
+          </cell>
+          <cell r="P149">
+            <v>3062</v>
+          </cell>
+          <cell r="S149">
+            <v>2.5903333333299998</v>
+          </cell>
+          <cell r="AA149">
+            <v>1232</v>
+          </cell>
+          <cell r="AD149">
+            <v>6.4546666666699997</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="E150">
+            <v>581</v>
+          </cell>
+          <cell r="H150">
+            <v>13.262666666699999</v>
+          </cell>
+          <cell r="P150">
+            <v>2940</v>
+          </cell>
+          <cell r="S150">
+            <v>2.6956666666700002</v>
+          </cell>
+          <cell r="AA150">
+            <v>1236</v>
+          </cell>
+          <cell r="AD150">
+            <v>6.4283333333300003</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="E151">
+            <v>451</v>
+          </cell>
+          <cell r="H151">
+            <v>17.063666666700001</v>
+          </cell>
+          <cell r="P151">
+            <v>2683</v>
+          </cell>
+          <cell r="S151">
+            <v>2.9540000000000002</v>
+          </cell>
+          <cell r="AA151">
+            <v>1174</v>
+          </cell>
+          <cell r="AD151">
+            <v>6.7686666666699997</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="E152">
+            <v>540</v>
+          </cell>
+          <cell r="H152">
+            <v>14.683999999999999</v>
+          </cell>
+          <cell r="P152">
+            <v>2429</v>
+          </cell>
+          <cell r="S152">
+            <v>3.26633333333</v>
+          </cell>
+          <cell r="AA152">
+            <v>1097</v>
+          </cell>
+          <cell r="AD152">
+            <v>7.2423333333300004</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="E153">
+            <v>526</v>
+          </cell>
+          <cell r="H153">
+            <v>15.0756666667</v>
+          </cell>
+          <cell r="P153">
+            <v>2198</v>
+          </cell>
+          <cell r="S153">
+            <v>3.6153333333300002</v>
+          </cell>
+          <cell r="AA153">
+            <v>1010</v>
+          </cell>
+          <cell r="AD153">
+            <v>7.8673333333300004</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="E154">
+            <v>633</v>
+          </cell>
+          <cell r="H154">
+            <v>12.279666666700001</v>
+          </cell>
+          <cell r="P154">
+            <v>1990</v>
+          </cell>
+          <cell r="S154">
+            <v>3.99633333333</v>
+          </cell>
+          <cell r="AA154">
+            <v>950</v>
+          </cell>
+          <cell r="AD154">
+            <v>8.3573333333300006</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="E155">
+            <v>606</v>
+          </cell>
+          <cell r="H155">
+            <v>13.119666666700001</v>
+          </cell>
+          <cell r="P155">
+            <v>1842</v>
+          </cell>
+          <cell r="S155">
+            <v>4.3016666666700001</v>
+          </cell>
+          <cell r="AA155">
+            <v>891</v>
+          </cell>
+          <cell r="AD155">
+            <v>8.9133333333299998</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
-  <autoFilter ref="A2:B8" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96" tableBorderDxfId="95">
+  <autoFilter ref="A2:B9" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B42" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A22:B42" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="55">
+  <autoFilter ref="A22:B47" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A25:B29" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
-  <autoFilter ref="A25:B29" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91" tableBorderDxfId="90">
+  <autoFilter ref="A28:B32" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A10:B15" totalsRowShown="0" headerRowDxfId="49" tableBorderDxfId="48">
-  <autoFilter ref="A10:B15" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="87" tableBorderDxfId="86">
+  <autoFilter ref="A11:B16" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A32:B34" totalsRowShown="0" dataDxfId="45" tableBorderDxfId="44">
-  <autoFilter ref="A32:B34" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="83" tableBorderDxfId="82">
+  <autoFilter ref="A36:B38" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A17:B21" totalsRowShown="0" dataDxfId="41" tableBorderDxfId="40">
-  <autoFilter ref="A17:B21" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="79" tableBorderDxfId="78">
+  <autoFilter ref="A18:B22" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D17:F23" totalsRowShown="0" dataDxfId="36" tableBorderDxfId="35">
-  <autoFilter ref="D17:F23" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="31">
-      <calculatedColumnFormula>IF(E19&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="75" tableBorderDxfId="74">
+  <autoFilter ref="D18:H26" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="70">
+      <calculatedColumnFormula>IF(E20&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="69">
+      <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="68">
+      <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1663,18 +3996,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D25:H30" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
-  <autoFilter ref="D25:H30" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="67" tableBorderDxfId="66">
+  <autoFilter ref="D28:H34" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="27">
+    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="64">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="26">
+    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="63">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="62">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1683,15 +4016,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D32:G37" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="D32:G37" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="61" tableBorderDxfId="60">
+  <autoFilter ref="D36:G42" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="58">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="57">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1700,13 +4033,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D22AF52-430F-48A3-BC6A-EC30D412E5EE}" name="Table1" displayName="Table1" ref="A1:D21" totalsRowShown="0">
-  <autoFilter ref="A1:D21" xr:uid="{81B2E200-FC2F-4069-86C2-6671D699FE86}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D22AF52-430F-48A3-BC6A-EC30D412E5EE}" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+  <autoFilter ref="A1:E21" xr:uid="{81B2E200-FC2F-4069-86C2-6671D699FE86}"/>
+  <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
     <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
     <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
-    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{5EBEBC80-5940-4420-B7CB-91D5FC7DF075}" name="Read Percenage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2012,924 +4346,1027 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="4" width="85.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="70"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="79"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="32">
         <v>200</v>
       </c>
-      <c r="D3" s="63"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="D3" s="57"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="32">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="D4" s="63"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="46"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="32">
+        <v>40</v>
+      </c>
+      <c r="D7" s="76"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="32">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="48">
-        <v>1</v>
-      </c>
-      <c r="D7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="62">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="18">
-        <f>B$3*B$7</f>
+      <c r="B12" s="18">
+        <f>B$3*B$6</f>
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="18">
-        <f>(B$4*B$5*B$3*B$7)/1024</f>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="18">
+        <f>(B$4*B$8*B$3*B$6)/1024</f>
         <v>93.75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="18">
-        <f>(B$4*B$5)</f>
+      <c r="B14" s="18">
+        <f>(B$4*B$8)</f>
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="18">
-        <f>B$4*B$3*B7</f>
+      <c r="B15" s="18">
+        <f>B$4*B$3*B6</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="61" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="18">
-        <f>B6*B3</f>
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="B16" s="18">
+        <f>B5*B3</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="D18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="51" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="54">
+        <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
+        <v>1050</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="48" t="str">
+        <f>_xlfn.XLOOKUP("No",'Azure NetApp Files Calcuations'!B35:B36,'Azure NetApp Files Calcuations'!B35:B36,"Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="F19" s="59" t="str">
+        <f>IF('Azure NetApp Files Calcuations'!B35="Yes","Yes",definitions!$A$23)</f>
+        <v>Yes</v>
+      </c>
+      <c r="G19" s="67"/>
+      <c r="H19" s="66" t="str">
+        <f>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="49">
+        <f>IF(E19="Yes",IF($E$21=definitions!A$23,B$19,B$19/B$3),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
+        <v>5.25</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="52">
+        <f>IF('Azure NetApp Files Calcuations'!B35="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$31:$C$33,'Azure NetApp Files Calcuations'!$B$31:$B$33),"No")</f>
+        <v>7000</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+    </row>
+    <row r="21" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="50">
+        <f>IF(E29="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$46:C$48,'Azure NetApp Files Calcuations'!B$46:B$48),"N/A: User Count Exceeds Capability Of Azure Files")</f>
+        <v>1.4982876712328768</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="52" t="str">
+        <f>IF('Azure NetApp Files Calcuations'!B35="Yes",(_xlfn.XLOOKUP(MIN('Azure NetApp Files Calcuations'!$B$38:$B$40),'Azure NetApp Files Calcuations'!$B$38:$B$40,'Azure NetApp Files Calcuations'!$C$38:$C$40)),"No")</f>
+        <v>Standard</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+    </row>
+    <row r="22" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="50">
+        <f>IF(E37="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$50:C$52,'Azure NetApp Files Calcuations'!B$50:B$52),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
+        <v>0.6</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="52" t="str">
+        <f>IF(E19="No","No",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
+        <v>Capacity</v>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+    </row>
+    <row r="23" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="50"/>
+      <c r="D23" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="52">
+        <f>IF(E19="Yes",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$42:$C$44,'Azure NetApp Files Calcuations'!$B$42:$B$44,definitions!A$23)),"No")</f>
+        <v>35</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+    </row>
+    <row r="24" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="49"/>
+      <c r="D24" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="70">
+        <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calcuator'!B14)*(1/'FSLogix Calcuator'!B6),1)</f>
+        <v>5723</v>
+      </c>
+      <c r="F24" s="69"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+    </row>
+    <row r="25" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="49"/>
+      <c r="D25" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="70">
+        <f>'Azure NetApp Files Calcuations'!B5</f>
+        <v>2925</v>
+      </c>
+      <c r="F25" s="69" t="str">
+        <f>IF(E26&gt;definitions!B30,definitions!$A$23,"Yes")</f>
+        <v>Required capacity exceeds documented 100TiB upper limit</v>
+      </c>
+      <c r="G25" s="69" t="str">
+        <f>IF(B9&gt;E28,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="H25" s="69" t="str">
+        <f>IF(B9&gt;E28,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="49"/>
+      <c r="D26" s="55" t="str">
+        <f>IF(E22="Capacity Pool Minimum Size","# Of Users At Min Capacity Pool Size ","Temporarily Empty Field")</f>
+        <v>Temporarily Empty Field</v>
+      </c>
+      <c r="E26" s="56" t="str">
+        <f>IF(E22="Capacity Pool Minimum Size",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$15:$C$17,'Azure NetApp Files Calcuations'!$B$15:$B$17),"Temporarily Empty Field")</f>
+        <v>Temporarily Empty Field</v>
+      </c>
+      <c r="F26" s="64"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="F17" t="s">
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="58" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="53" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="56">
-        <f>IF(E18="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!C$35:C$37,'Azure NetApp Files Calcuations'!B$35:B$37,definitions!A$23),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>900</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="49" t="str">
-        <f>IF('Azure NetApp Files Calcuations'!B33="No","No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="F18" s="67" t="str">
-        <f>IF('Azure NetApp Files Calcuations'!B33="Yes","Yes",definitions!$A$23)</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="51">
-        <f>IF(E18="Yes",IF($E$20=definitions!A$23,B$18,B$18/B$3),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>4.5</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="54">
-        <f>IF('Azure NetApp Files Calcuations'!B33="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$29:$C$31,'Azure NetApp Files Calcuations'!$B$29:$B$31),"No")</f>
-        <v>6000</v>
-      </c>
-      <c r="F19" s="55"/>
-    </row>
-    <row r="20" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="52">
-        <f>IF(E26="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!C$43:C$45,'Azure NetApp Files Calcuations'!B$43:B$45),"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>1.404494382022472</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="54" t="str">
-        <f>IF('Azure NetApp Files Calcuations'!B33="Yes",(_xlfn.XLOOKUP(MIN('Azure NetApp Files Calcuations'!$B$35:$B$37),'Azure NetApp Files Calcuations'!$B$35:$B$37,'Azure NetApp Files Calcuations'!$C$35:$C$37)),"No")</f>
-        <v>Standard</v>
-      </c>
-      <c r="F20" s="55"/>
-    </row>
-    <row r="21" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="52">
-        <f>IF(E33="Yes",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!C$47:C$49,'Azure NetApp Files Calcuations'!B$47:B$49),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>0.6</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="54" t="str">
-        <f>IF(E18="No","No",(_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$25:$C$27,'Azure NetApp Files Calcuations'!$B$25:$B$27)))</f>
-        <v>Bandwidth</v>
-      </c>
-      <c r="F21" s="55"/>
-    </row>
-    <row r="22" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="51"/>
-      <c r="D22" s="35" t="s">
+      <c r="G28" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="54">
+        <f>IF(E29="Yes",B$32+B$31,"N/A: User Count Exceeds Capability Of Azure Files")</f>
+        <v>700.8</v>
+      </c>
+      <c r="D29" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="54">
-        <f>IF(E18="Yes",(_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$39:$C$41,'Azure NetApp Files Calcuations'!$B$39:$B$41,definitions!A$23)),"No")</f>
-        <v>30</v>
-      </c>
-      <c r="F22" s="55"/>
-    </row>
-    <row r="23" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="51"/>
-      <c r="D23" s="57" t="str">
-        <f>IF(E21="Capacity Pool Minimum Size","# Of Users At Min Capacity Pool Size ","Temporarily Empty Field")</f>
-        <v>Temporarily Empty Field</v>
-      </c>
-      <c r="E23" s="58" t="str">
-        <f>IF(E21="Capacity Pool Minimum Size",_xlfn.XLOOKUP(E20,'Azure NetApp Files Calcuations'!$C$13:$C$15,'Azure NetApp Files Calcuations'!$B$13:$B$15),"Temporarily Empty Field")</f>
-        <v>Temporarily Empty Field</v>
-      </c>
-      <c r="F23" s="55" t="str">
-        <f>IF(E24&gt;definitions!B29,definitions!$A$23,"Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="51">
-        <f>IF(E26="Yes",B$29+B$28,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>640.79999999999995</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="35" t="str">
+      <c r="E29" s="35" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$2:$C$4,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F26" s="66" t="str">
+      <c r="F29" s="72" t="str">
         <f>'Azure Files Calculations'!$B$4</f>
         <v>Yes</v>
       </c>
-      <c r="G26" s="65" t="str">
+      <c r="G29" s="59" t="str">
         <f>'Azure Files Calculations'!$B$2</f>
         <v>Yes</v>
       </c>
-      <c r="H26" s="65" t="str">
+      <c r="H29" s="59" t="str">
         <f>'Azure Files Calculations'!$B$3</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="51">
-        <f>IF(E26="Yes",B$26/B$3,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>3.2039999999999997</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="18">
-        <f>IF(E26="Yes",$B$6*$B$3,"No")</f>
-        <v>6000</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="51">
-        <f>IF(E26="Yes",((B4*B3*B7*definitions!B$32*B$8*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>280.8</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="18">
-        <f>IF(E26="Yes",E27/$B$3,"No")</f>
-        <v>30</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="51">
-        <f>IF(E26="Yes",B$6*B$3*B7*definitions!B$35,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>360</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="18">
-        <f>IF('Azure Files Calculations'!C4="Yes",FLOOR(   (definitions!$B$38/$B$4)*(1/$B$7),1),"No")</f>
-        <v>666</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="49">
+        <f>IF(E29="Yes",B$29/B$3,"N/A: User Count Exceeds Capability Of Azure Files")</f>
+        <v>3.5039999999999996</v>
+      </c>
       <c r="D30" s="27" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E30" s="18">
-        <f>IF('Azure Files Calculations'!C4="Yes",FLOOR((   (1024*definitions!$B$39)   /   ('FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$5)  ) * (1/$B$7   ),1),"No")</f>
-        <v>640</v>
+        <f>IF(E29="Yes",$B$5*$B$3,"No")</f>
+        <v>7000</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="39"/>
       <c r="H30" s="40"/>
     </row>
-    <row r="31" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="34" t="s">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="49">
+        <f>IF(E29="Yes",((B4*B3*B6*definitions!B$32*B$7*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of Azure Files")</f>
+        <v>280.8</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="18">
+        <f>IF(E29="Yes",E30/$B$3,"No")</f>
+        <v>35</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="49">
+        <f>IF(E29="Yes",B$5*B$3*B6*definitions!B$35,"N/A: User Count Exceeds Capability Of Azure Files")</f>
+        <v>420</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="18">
+        <f>FLOOR(   (definitions!$B$38/$B$4)*(1/$B$6),1)</f>
+        <v>666</v>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="49"/>
+      <c r="D33" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="18">
+        <f>FLOOR((   (1024*definitions!$B$39)   /   ('FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$8)  ) * (1/$B$6   ),1)</f>
+        <v>640</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="17">
+        <f>definitions!B41/'FSLogix Calcuator'!B5</f>
+        <v>2925.7142857142858</v>
+      </c>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F36" t="s">
         <v>58</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="51">
-        <f>IF(E33="Yes",IF(E36="I/O Need",definitions!B37*'FSLogix Calcuator'!B3*'FSLogix Calcuator'!B4,definitions!B37*'FSLogix Calcuator'!B6*'FSLogix Calcuator'!B3),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>1500</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="35" t="str">
+    <row r="37" spans="1:8" ht="90.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="54">
+        <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calcuator'!B3*'FSLogix Calcuator'!B4,definitions!B37*'FSLogix Calcuator'!B5*'FSLogix Calcuator'!B3),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
+        <v>1750</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="35" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$5:$C$7,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F33" s="68" t="str">
+      <c r="F37" s="73" t="str">
         <f>'Azure Files Calculations'!$B$6</f>
         <v>Yes</v>
       </c>
-      <c r="G33" s="46" t="str">
+      <c r="G37" s="73" t="str">
         <f>'Azure Files Calculations'!$B$5</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="23">
-        <f>IF(E33="Yes",B$33/B$3,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>7.5</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="18">
-        <f>IF('Azure Files Calculations'!C6="Yes",IF(($B$4*$B$3*$B$7)&gt;($B$6*$B$3),$B$4*$B$3*$B$7,$B$6*$B$3),"No")</f>
-        <v>6000</v>
-      </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="17">
-        <f>IF('Azure Files Calculations'!$C$6="Yes",E$34/$B$3,"No")</f>
-        <v>30</v>
-      </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="22" t="str">
-        <f>IF(($B$4*$B$3*$B$7)&gt;($B$6*$B$3),"I/O Need","VHD Size")</f>
-        <v>VHD Size</v>
-      </c>
-      <c r="F36" s="40"/>
-      <c r="G36" s="39"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="8"/>
-      <c r="D37" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="18">
-        <f>FLOOR(( definitions!$B$40/$B$4) * (1/$B$7),1)</f>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="23">
+        <f>IF(E37="Yes",B$37/B$3,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
+        <v>8.75</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="18">
+        <f>'Azure Files Calculations'!C14</f>
+        <v>7000</v>
+      </c>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="17">
+        <f>IF('Azure Files Calculations'!$C$6="Yes",E$38/$B$3,"No")</f>
+        <v>35</v>
+      </c>
+      <c r="F39" s="33"/>
+      <c r="G39" s="41"/>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="22" t="str">
+        <f>'Azure Files Calculations'!B14</f>
+        <v>Profile Size</v>
+      </c>
+      <c r="F40" s="40"/>
+      <c r="G40" s="39"/>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="18">
+        <f>FLOOR(( definitions!$B$40/$B$4) * (1/$B$6),1)</f>
         <v>6666</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="45"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D39" t="str">
-        <f>'Azure Files Calculations'!C5</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="7"/>
-    </row>
+      <c r="F41" s="40"/>
+      <c r="G41" s="45"/>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="8"/>
+      <c r="D42" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" s="18">
+        <f>definitions!B42/'FSLogix Calcuator'!B5</f>
+        <v>2925.7142857142858</v>
+      </c>
+      <c r="F42" s="40"/>
+      <c r="G42" s="45"/>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="11"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="7"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="7"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="60"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="7"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="7"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="29"/>
-    </row>
-    <row r="78" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="1"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="7"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="11"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="10"/>
+      <c r="A80" s="60"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-      <c r="B82" s="8"/>
-      <c r="C82"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
+    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="29"/>
     </row>
     <row r="83" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
+      <c r="A83" s="11"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="3"/>
+      <c r="C83" s="1"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="11"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="29"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="12"/>
+      <c r="A84" s="60"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="60"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="11"/>
+      <c r="B87" s="8"/>
+      <c r="C87"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
+    <row r="88" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="11"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
-      <c r="B91" s="8"/>
-      <c r="C91"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="3"/>
+      <c r="B91" s="29"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
       <c r="B92" s="7"/>
-      <c r="C92" s="3"/>
+      <c r="C92" s="12"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="11"/>
+      <c r="A93" s="60"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="29"/>
-      <c r="D95"/>
-      <c r="E95"/>
+    <row r="94" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="60"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="12"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="8"/>
+      <c r="C96"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="13"/>
+    <row r="97" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="11"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="5"/>
+      <c r="A98" s="60"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="11"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
     </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="29"/>
+      <c r="D100"/>
+      <c r="E100"/>
+    </row>
     <row r="101" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="3"/>
+      <c r="A101" s="11"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="3"/>
+      <c r="C101" s="12"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="3"/>
+    <row r="102" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="60"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="13"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="30"/>
+    <row r="103" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="60"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+    </row>
+    <row r="106" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="11"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="31"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="30"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cSrUbPjI0p+LBUjceeghFfZdmZEd1Ge9HnoO5zAdnlwzHZUer+Sw5LL9gpaKtsSElp67VcWBOqu6owcCHvPIdw==" saltValue="2zT+6GYSdQsZp1eHcvM3sQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zCsps0OIOuu1yKhk8I2IATPh0lO1uEryz0apA4F9OCHRLxMNwVJxp58pUuolfMHY0F2er8eLxblNzp/4J5XybQ==" saltValue="E40WZ3Yrq6vMb7r3POeEFA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A17:H17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A32:B35 A25:B30">
-    <cfRule type="cellIs" dxfId="94" priority="91" operator="equal">
+  <conditionalFormatting sqref="A36:B39 A28:B34">
+    <cfRule type="cellIs" dxfId="52" priority="93" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:H28">
-    <cfRule type="containsText" dxfId="93" priority="21" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",F26)))</formula>
+  <conditionalFormatting sqref="F29:H31">
+    <cfRule type="containsText" dxfId="51" priority="23" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="22" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",F26)))</formula>
+    <cfRule type="containsText" dxfId="50" priority="24" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E22">
-    <cfRule type="cellIs" dxfId="91" priority="39" operator="equal">
+  <conditionalFormatting sqref="E22:E23">
+    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="90" priority="38" operator="equal">
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="89" priority="37" operator="equal">
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="88" priority="29" operator="equal">
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="32" operator="equal">
       <formula>"""Yes"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="85" priority="31" operator="equal">
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
       <formula>"Required Capacity Exceeds documented 100TiB Upper Limit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
       <formula>"""Required Capacity Exceeds documented 100TiB Upper Limit"""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="33" operator="containsText" text="&quot;Required&quot;">
-      <formula>NOT(ISERROR(SEARCH("""Required""",F18)))</formula>
+    <cfRule type="containsText" dxfId="41" priority="35" operator="containsText" text="&quot;Required&quot;">
+      <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="34" operator="containsText" text="&quot;Required&quot;">
-      <formula>NOT(ISERROR(SEARCH("""Required""",F18)))</formula>
+    <cfRule type="containsText" dxfId="40" priority="36" operator="containsText" text="&quot;Required&quot;">
+      <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="80" priority="27" operator="equal">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="38" priority="29" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="77" priority="25" operator="equal">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="76" priority="23" operator="equal">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33 E36">
-    <cfRule type="cellIs" dxfId="74" priority="19" operator="equal">
+  <conditionalFormatting sqref="E37 E40">
+    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:G34 F36:G36">
-    <cfRule type="containsText" dxfId="72" priority="16" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",F33)))</formula>
+  <conditionalFormatting sqref="F37:G38 F40:G40">
+    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="18" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",F33)))</formula>
+    <cfRule type="containsText" dxfId="29" priority="20" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33 E36">
-    <cfRule type="cellIs" dxfId="70" priority="17" operator="equal">
+  <conditionalFormatting sqref="E37 E40">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E22 E28:E30">
-    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
+  <conditionalFormatting sqref="E31 E20:E23">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="68" priority="11" operator="equal">
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B34)))</formula>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="63" priority="4" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B26)))</formula>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="61" priority="2" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="60" priority="1" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B27)))</formula>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",H19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 1024 in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B9" xr:uid="{CBED2FD9-9304-492F-812B-63234547D67B}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 1024 in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B10" xr:uid="{CBED2FD9-9304-492F-812B-63234547D67B}">
       <formula1>1</formula1>
       <formula2>1024</formula2>
     </dataValidation>
@@ -2937,21 +5374,21 @@
       <formula1>1</formula1>
       <formula2>95000</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 168" promptTitle="Enter Integer Value" prompt="Enter a value between 40 and 168 representing the working hours in a week.  Call centers for example that have 24X7 operations work 168 hours every week." sqref="B8" xr:uid="{83D3B009-08C9-4277-BCBC-7A1B2CBFC57A}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 168" promptTitle="Enter Integer Value" prompt="Enter a value between 40 and 168 representing the working hours in a week.  Call centers for example that have 24X7 operations work 168 hours every week." sqref="B7" xr:uid="{83D3B009-08C9-4277-BCBC-7A1B2CBFC57A}">
       <formula1>40</formula1>
       <formula2>168</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 30  in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B8" xr:uid="{4AE96117-04AC-420D-AD6D-903EA3285EB4}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 30  in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B7" xr:uid="{4AE96117-04AC-420D-AD6D-903EA3285EB4}">
       <formula1>36</formula1>
       <formula2>168</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" sqref="B8" xr:uid="{A1CCD0B8-6B2D-42A1-89B6-7ABA9C370E18}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" sqref="B7" xr:uid="{A1CCD0B8-6B2D-42A1-89B6-7ABA9C370E18}"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F18" calculatedColumn="1"/>
+    <ignoredError sqref="F19" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="8">
     <tablePart r:id="rId2"/>
@@ -2965,24 +5402,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="If known, select the average storage I/O size.  If unknown, leave the value at the default of 32." promptTitle="Storage I/O Size (Advanced)" prompt="If known, select the average storage I/O size.  If unknown, leave the value at the default of 32." xr:uid="{86AD3042-EFBE-4769-8F55-A620876D83EA}">
           <x14:formula1>
             <xm:f>definitions!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
+          <xm:sqref>B8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Storage IOPS Per User" prompt="The average IOPS per user is environment dependant. " xr:uid="{E2E3AE84-252F-4455-AC8B-A92442F4F96A}">
           <x14:formula1>
             <xm:f>definitions!$B$2:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>B4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D52C3E3B-D7C9-4CAB-B3CD-9E815BA071AA}">
-          <x14:formula1>
-            <xm:f>definitions!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4:B5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 30  in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" xr:uid="{F0468C29-122F-45A3-9E06-3D1D980A2EF8}">
           <x14:formula1>
@@ -3006,13 +5437,31 @@
           <x14:formula1>
             <xm:f>definitions!$D$2:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B7</xm:sqref>
+          <xm:sqref>B6:B7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="VHD(X) Size" prompt="Select the desired VHD(X) Size, 40GiB has been idenitifed as the average Profile Size Industry wide" xr:uid="{97763830-AAD4-4BCB-B82D-4588199C19CD}">
           <x14:formula1>
             <xm:f>definitions!$C$2:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
+          <xm:sqref>B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="If known, select the average storage read %.  If unknown, leave the value at the default of 40%" promptTitle="Read % (Advanced)" prompt="If known, select the average storage read%  If unknown, leave the value at the default of 40%." xr:uid="{4F30BAC0-8570-455C-9ACF-B1BAC194BCB9}">
+          <x14:formula1>
+            <xm:f>definitions!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B86BFC7-B959-49BD-A0CA-9D6F29B3BFCA}">
+          <x14:formula1>
+            <xm:f>definitions!$E$2:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D52C3E3B-D7C9-4CAB-B3CD-9E815BA071AA}">
+          <x14:formula1>
+            <xm:f>definitions!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4 B8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3022,10 +5471,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E156B8-3DAB-4F24-8D0A-36FBCF57BCBD}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,529 +5494,567 @@
         <v>63</v>
       </c>
       <c r="B2" s="15">
-        <f>'FSLogix Calcuator'!B$15</f>
-        <v>6000</v>
+        <f>'FSLogix Calcuator'!B$16</f>
+        <v>7000</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" s="15">
-        <f>'FSLogix Calcuator'!B$6</f>
-        <v>30</v>
+        <f>'FSLogix Calcuator'!B$5</f>
+        <v>35</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="2">
+        <f>_xlfn.XLOOKUP('FSLogix Calcuator'!B$9,'Throughput Test'!G2:G12,'Throughput Test'!P$2:P$12)</f>
+        <v>2683</v>
+      </c>
+      <c r="C4" s="61"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="15">
-        <f>('FSLogix Calcuator'!B$12*1024)/definitions!B30</f>
-        <v>6000</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="15">
-        <f>('FSLogix Calcuator'!B$12*1024)/definitions!B28</f>
-        <v>1500</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="B5" s="2">
+        <f>FLOOR(definitions!B24/'FSLogix Calcuator'!B$5,1)</f>
+        <v>2925</v>
+      </c>
+      <c r="C5" s="61"/>
+    </row>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="15">
-        <f>('FSLogix Calcuator'!B$12*1024)/definitions!B26</f>
-        <v>750</v>
+        <f>('FSLogix Calcuator'!B$13*1024)/definitions!B30</f>
+        <v>6000</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="15">
+        <f>('FSLogix Calcuator'!B$13*1024)/definitions!B28</f>
+        <v>1500</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="2">
-        <f>('FSLogix Calcuator'!B$13*'FSLogix Calcuator'!B$7)/definitions!B$30</f>
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="15">
+        <f>('FSLogix Calcuator'!B$13*1024)/definitions!B26</f>
+        <v>750</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="2">
-        <f>('FSLogix Calcuator'!B$13*'FSLogix Calcuator'!B$7)/definitions!B28</f>
-        <v>7.5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2">
-        <f>('FSLogix Calcuator'!B$13*'FSLogix Calcuator'!B$7)/definitions!B26</f>
-        <v>3.75</v>
+        <f>('FSLogix Calcuator'!B$14*'FSLogix Calcuator'!B$6)/definitions!B$30</f>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="2">
+        <f>('FSLogix Calcuator'!B$14*'FSLogix Calcuator'!B$6)/definitions!B28</f>
+        <v>7.5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="2">
+        <f>('FSLogix Calcuator'!B$14*'FSLogix Calcuator'!B$6)/definitions!B26</f>
+        <v>3.75</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="2">
-        <f>CEILING(IF(B9&gt;B$3,definitions!B$31/B9,definitions!B$31/B$3),1)</f>
-        <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2">
-        <f>CEILING(IF(B10&gt;B$3,definitions!B$31/B10,definitions!B$31/B$3),1)</f>
-        <v>137</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="B15" s="2">
         <f>CEILING(IF(B11&gt;B$3,definitions!B$31/B11,definitions!B$31/B$3),1)</f>
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2">
+        <f>CEILING(IF(B12&gt;B$3,definitions!B$31/B12,definitions!B$31/B$3),1)</f>
+        <v>118</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2">
+        <f>CEILING(IF(B13&gt;B$3,definitions!B$31/B13,definitions!B$31/B$3),1)</f>
+        <v>118</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="15" t="str">
-        <f>IF(B$2&gt;B5,"Capacity","Bandwidth")</f>
-        <v>Bandwidth</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="18" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="15" t="str">
-        <f>IF(B$2&gt;B6,"Capacity","Bandwidth")</f>
-        <v>Capacity</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B19" s="15" t="str">
         <f>IF(B$2&gt;B7,"Capacity","Bandwidth")</f>
         <v>Capacity</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="15" t="str">
+        <f>IF(B$2&gt;B8,"Capacity","Bandwidth")</f>
+        <v>Capacity</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="15">
-        <f>IF(B$2&gt;B5,B$2,B5)</f>
-        <v>6000</v>
+        <v>97</v>
+      </c>
+      <c r="B21" s="15" t="str">
+        <f>IF(B$2&gt;B9,"Capacity","Bandwidth")</f>
+        <v>Capacity</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="15">
-        <f>IF(B$2&gt;B6,B$2,B6)</f>
-        <v>6000</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B23" s="15">
         <f>IF(B$2&gt;B7,B$2,B7)</f>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="15">
+        <f>IF(B$2&gt;B8,B$2,B8)</f>
+        <v>7000</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="15" t="str">
-        <f>IF(B21&gt;definitions!B$31,B17,"Capacity Pool Minimum Size")</f>
-        <v>Bandwidth</v>
+        <v>100</v>
+      </c>
+      <c r="B25" s="15">
+        <f>IF(B$2&gt;B9,B$2,B9)</f>
+        <v>7000</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="15" t="str">
-        <f>IF(B22&gt;definitions!B$31,B18,"Capacity Pool Minimum Size")</f>
-        <v>Capacity</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B27" s="15" t="str">
         <f>IF(B23&gt;definitions!B$31,B19,"Capacity Pool Minimum Size")</f>
         <v>Capacity</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="15" t="str">
+        <f>IF(B24&gt;definitions!B$31,B20,"Capacity Pool Minimum Size")</f>
+        <v>Capacity</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="15">
-        <f>IF(B21&gt;definitions!B$31,B21,definitions!B$31)</f>
-        <v>6000</v>
+        <v>91</v>
+      </c>
+      <c r="B29" s="15" t="str">
+        <f>IF(B25&gt;definitions!B$31,B21,"Capacity Pool Minimum Size")</f>
+        <v>Capacity</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="15">
-        <f>IF(B22&gt;definitions!B$31,B22,definitions!B$31)</f>
-        <v>6000</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B31" s="15">
         <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="15">
+        <f>IF(B24&gt;definitions!B$31,B24,definitions!B$31)</f>
+        <v>7000</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="15" t="str">
-        <f>IF(MIN(B29:B31)&gt;definitions!B24,"No","Yes")</f>
-        <v>Yes</v>
+        <v>94</v>
+      </c>
+      <c r="B33" s="15">
+        <f>IF(B25&gt;definitions!B$31,B25,definitions!B$31)</f>
+        <v>7000</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="24">
-        <f>IF((B29&gt;definitions!B24),99999,B29*definitions!B$29)</f>
-        <v>900</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="B35" s="15" t="str">
+        <f>IF(MIN(B31:B33)&gt;definitions!B24,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="16">
-        <f>IF((B30&gt;definitions!B24),99999,B30*definitions!B$27)</f>
-        <v>1800</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f>IF('FSLogix Calcuator'!B3&gt;('FSLogix Calcuator'!E24),"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="16">
-        <f>IF((B31&gt;definitions!B24),99999,(B31*definitions!B$25))</f>
-        <v>2400</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="24">
+        <f>IF((B31&gt;definitions!B24),99999,B31*definitions!B$29)</f>
+        <v>1050</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="15">
-        <f>B29/'FSLogix Calcuator'!B$3</f>
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="B39" s="16">
+        <f>IF((B32&gt;definitions!B24),99999,B32*definitions!B$27)</f>
+        <v>2100</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="15">
-        <f>B30/'FSLogix Calcuator'!B$3</f>
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="B40" s="16">
+        <f>IF((B33&gt;definitions!B24),99999,(B33*definitions!B$25))</f>
+        <v>2800</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="15">
-        <f>B31/'FSLogix Calcuator'!B$3</f>
-        <v>30</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="A41" s="2"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="3"/>
+    <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="15">
+        <f>B31/'FSLogix Calcuator'!B$3</f>
+        <v>35</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="26">
-        <f>IF(B35=definitions!A$23,B35, B35/'FSLogix Calcuator'!B$26)</f>
-        <v>1.404494382022472</v>
+        <v>53</v>
+      </c>
+      <c r="B43" s="15">
+        <f>B32/'FSLogix Calcuator'!B$3</f>
+        <v>35</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="26">
-        <f>IF(B36=definitions!A$23,B36, B36/'FSLogix Calcuator'!B$26)</f>
-        <v>2.808988764044944</v>
+        <v>54</v>
+      </c>
+      <c r="B44" s="15">
+        <f>B33/'FSLogix Calcuator'!B$3</f>
+        <v>35</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="26">
-        <f>IF(B37=definitions!A$23,B37, B37/'FSLogix Calcuator'!B$26)</f>
-        <v>3.7453183520599254</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>40</v>
-      </c>
+    <row r="45" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="26">
+        <f>IF(B38=definitions!A$23,B38, B38/'FSLogix Calcuator'!B$29)</f>
+        <v>1.4982876712328768</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B47" s="26">
-        <f>IF(B35=definitions!A23,B35,B35/'FSLogix Calcuator'!B$33)</f>
-        <v>0.6</v>
+        <f>IF(B39=definitions!A$23,B39, B39/'FSLogix Calcuator'!B$29)</f>
+        <v>2.9965753424657535</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="26">
+        <f>IF(B40=definitions!A$23,B40, B40/'FSLogix Calcuator'!B$29)</f>
+        <v>3.9954337899543382</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="26">
+        <f>IF(B38=definitions!A23,B38,B38/'FSLogix Calcuator'!B$37)</f>
+        <v>0.6</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="26">
-        <f>IF(B36=definitions!A23,B36,B36/'FSLogix Calcuator'!B$33)</f>
+      <c r="B51" s="26">
+        <f>IF(B39=definitions!A23,B39,B39/'FSLogix Calcuator'!B$37)</f>
         <v>1.2</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="26">
-        <f>IF(B37=definitions!A23,B37,B37/'FSLogix Calcuator'!B$33)</f>
+      <c r="B52" s="26">
+        <f>IF(B40=definitions!A23,B40,B40/'FSLogix Calcuator'!B$37)</f>
         <v>1.6</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54">
+        <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calcuator'!B14)*(1/'FSLogix Calcuator'!B6),1)</f>
+        <v>5723</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7YICRouNavjLxxbclE8SY8a8qu+4etaGwETbBEcsJKTc3hkIaeMpFlx1l5+tW74etaI7zpgXxE91s0LLlqzNug==" saltValue="3DEjIcs2sAXrsFDw2iJbwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E85F820-7E22-48AB-88D3-5118FCDA0E46}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.85546875" customWidth="1"/>
     <col min="3" max="3" width="64" bestFit="1" customWidth="1"/>
   </cols>
@@ -3585,11 +6072,11 @@
         <v>21</v>
       </c>
       <c r="B2" s="36" t="str">
-        <f>IF('FSLogix Calcuator'!B14&gt;definitions!B$38,"Required I/O Rate Exceeds documented 10,000 IOP Upper Limit","Yes")</f>
+        <f>IF('FSLogix Calcuator'!B15&gt;definitions!B$38,"Required I/O rate exceeds documented 10,000 op rate upper limit","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C2" s="37" t="str">
-        <f>IF('FSLogix Calcuator'!B$14&gt;definitions!B$38,"No","Yes")</f>
+        <f>IF('FSLogix Calcuator'!B$15&gt;definitions!B$38,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -3598,11 +6085,11 @@
         <v>22</v>
       </c>
       <c r="B3" s="38" t="str">
-        <f>IF(('FSLogix Calcuator'!B12)&gt;definitions!B$39,"Required Bandwidth Exceeds documented 300MiB/s  Upper Limit","Yes")</f>
+        <f>IF(('FSLogix Calcuator'!B13)&gt;definitions!B$39,"Required bandwidth exceeds documented 300MiB/s  upper limit","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C3" s="37" t="str">
-        <f>IF(('FSLogix Calcuator'!B12)&gt;definitions!B$39,"No","Yes")</f>
+        <f>IF(('FSLogix Calcuator'!B13)&gt;definitions!B$39,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -3611,11 +6098,11 @@
         <v>39</v>
       </c>
       <c r="B4" s="36" t="str">
-        <f>IF('FSLogix Calcuator'!B15&gt;102400,"Required Capacity Exceeds documented 100TiB Upper Limit","Yes")</f>
+        <f>IF('FSLogix Calcuator'!B16&gt;102400,"Required capacity exceeds documented 100TiB upper limit","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C4" s="37" t="str">
-        <f>IF('FSLogix Calcuator'!B15&gt;102400,"No","Yes")</f>
+        <f>IF('FSLogix Calcuator'!B16&gt;102400,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -3624,24 +6111,24 @@
         <v>20</v>
       </c>
       <c r="B5" s="37" t="str">
-        <f>IF(('FSLogix Calcuator'!B$4*'FSLogix Calcuator'!B$3*'FSLogix Calcuator'!B$7)&gt;definitions!B$40,"Required I/O Rate Exceeds documented 100,000 IOP Upper Limit","Yes")</f>
+        <f>IF(('FSLogix Calcuator'!B$4*'FSLogix Calcuator'!B$3*'FSLogix Calcuator'!B$6)&gt;definitions!B$40,"Required I/O rate exceeds documented 100,000 op rate upper limit","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C5" s="37" t="str">
-        <f>IF(('FSLogix Calcuator'!B$4*'FSLogix Calcuator'!B$3*'FSLogix Calcuator'!B$7)&gt;definitions!B$40,"No","Yes")</f>
+        <f>IF(('FSLogix Calcuator'!B$4*'FSLogix Calcuator'!B$3*'FSLogix Calcuator'!B$6)&gt;definitions!B$40,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B6" s="37" t="str">
-        <f>IF(IF(('FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$7)&gt;('FSLogix Calcuator'!$B$6*'FSLogix Calcuator'!$B$3),'FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$7,'FSLogix Calcuator'!$B$6*'FSLogix Calcuator'!$B$3)&gt;definitions!B42,"Required Capacity Exceeds documented 100TiB Upper Limit","Yes")</f>
+        <f>IF(IF(('FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$6)&gt;('FSLogix Calcuator'!$B$5*'FSLogix Calcuator'!$B$3),'FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$6,'FSLogix Calcuator'!$B$5*'FSLogix Calcuator'!$B$3)&gt;definitions!B42,"Required capacity exceeds documented 100TiB upper limit","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C6" s="37" t="str">
-        <f>IF(IF(('FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$7)&gt;('FSLogix Calcuator'!$B$6*'FSLogix Calcuator'!$B$3),'FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$7,'FSLogix Calcuator'!$B$6*'FSLogix Calcuator'!$B$3)&gt;definitions!B42,"No","Yes")</f>
+        <f>IF(IF(('FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$6)&gt;('FSLogix Calcuator'!$B$5*'FSLogix Calcuator'!$B$3),'FSLogix Calcuator'!$B$4*'FSLogix Calcuator'!$B$3*'FSLogix Calcuator'!$B$6,'FSLogix Calcuator'!$B$5*'FSLogix Calcuator'!$B$3)&gt;definitions!B42,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -3650,77 +6137,163 @@
       <c r="B7" s="15"/>
       <c r="C7" s="3"/>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="15">
+        <f>(('FSLogix Calcuator'!B13-('FSLogix Calcuator'!B13*(1-'FSLogix Calcuator'!B9)))-definitions!B43)/definitions!B44</f>
+        <v>-375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="15">
+        <f>(('FSLogix Calcuator'!B13-('FSLogix Calcuator'!B13*'FSLogix Calcuator'!B9))-definitions!B45)/definitions!B46</f>
+        <v>406.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="15">
+        <f>IF(B8&lt;100,100,B8)</f>
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="15">
+        <f>IF(B9&lt;100,100,B9)</f>
+        <v>406.25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.XLOOKUP(MAX(B10:B11),B10:B11,C10:C11)</f>
+        <v>Write Bandwidth</v>
+      </c>
+      <c r="C12" s="15">
+        <f>MAX(B10:B11)</f>
+        <v>406.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="str">
+        <f>IF(B9&gt;'FSLogix Calcuator'!B3*'FSLogix Calcuator'!B4*'FSLogix Calcuator'!B6,"Bandwidth Need","I/O Need")</f>
+        <v>I/O Need</v>
+      </c>
+      <c r="C13" s="15">
+        <f>IF(B9&gt;'FSLogix Calcuator'!B3*'FSLogix Calcuator'!B4*'FSLogix Calcuator'!B6,C$12,'FSLogix Calcuator'!B3*'FSLogix Calcuator'!B4*'FSLogix Calcuator'!B6)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="str">
+        <f>IF(C13&gt;'FSLogix Calcuator'!B16,'Azure Files Calculations'!B13,"Profile Size")</f>
+        <v>Profile Size</v>
+      </c>
+      <c r="C14" s="15">
+        <f>IF(C13&gt;'FSLogix Calcuator'!B16,'Azure Files Calculations'!C13,'FSLogix Calcuator'!B16)</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="75"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="75"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DcUIiypqNaYpqHrgxBpOEL2s+OEfJc6N65n2I9KNa9IzINrg4PAAAF+2FzgsMGVwJq66amUixHr6FehNfW+1sQ==" saltValue="i3UzaEs/uGYeDUvOhF8zOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="No: Required ">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="No: Required ">
       <formula>NOT(ISERROR(SEARCH("No: Required ",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No:  Required ">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="No:  Required ">
       <formula>NOT(ISERROR(SEARCH("No:  Required ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="No:">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="No:">
       <formula>NOT(ISERROR(SEARCH("No:",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3730,10 +6303,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8274658-AC29-4B53-B5B1-54B6D412C541}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3744,7 +6317,7 @@
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3757,8 +6330,11 @@
       <c r="D1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -3768,11 +6344,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="47">
+      <c r="D2" s="46">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>32</v>
       </c>
@@ -3782,11 +6361,14 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="46">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>64</v>
       </c>
@@ -3796,105 +6378,115 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="46">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="46">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>25</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="46">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="46"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>60</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>120</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
-      <c r="D8" s="47"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>30</v>
       </c>
-      <c r="D9" s="47"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>35</v>
       </c>
-      <c r="D10" s="47"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>40</v>
       </c>
-      <c r="D11" s="47"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>45</v>
       </c>
-      <c r="D12" s="47"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>50</v>
       </c>
-      <c r="D13" s="47"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="47"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="47"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="47"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="46"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="47"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="47"/>
+      <c r="D18" s="46"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="47"/>
+      <c r="D19" s="46"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="47"/>
+      <c r="D20" s="46"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="47"/>
+      <c r="D21" s="46"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -3903,23 +6495,23 @@
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="47"/>
+      <c r="D22" s="46"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="D23" s="47"/>
+      <c r="D23" s="46"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="2">
+        <v>66</v>
+      </c>
+      <c r="B24" s="15">
         <v>102400</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="46"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -3928,7 +6520,7 @@
       <c r="B25" s="24">
         <v>0.4</v>
       </c>
-      <c r="D25" s="47"/>
+      <c r="D25" s="46"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
@@ -3937,7 +6529,7 @@
       <c r="B26" s="15">
         <v>128</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="46"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
@@ -3946,7 +6538,7 @@
       <c r="B27" s="24">
         <v>0.3</v>
       </c>
-      <c r="D27" s="47"/>
+      <c r="D27" s="46"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
@@ -3955,7 +6547,7 @@
       <c r="B28" s="15">
         <v>64</v>
       </c>
-      <c r="D28" s="47"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
@@ -3964,7 +6556,7 @@
       <c r="B29" s="24">
         <v>0.15</v>
       </c>
-      <c r="D29" s="47"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
@@ -3973,7 +6565,7 @@
       <c r="B30" s="15">
         <v>16</v>
       </c>
-      <c r="D30" s="47"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
@@ -3982,10 +6574,7 @@
       <c r="B31" s="15">
         <v>4096</v>
       </c>
-      <c r="C31">
-        <v>4906</v>
-      </c>
-      <c r="D31" s="47"/>
+      <c r="D31" s="46"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
@@ -3994,7 +6583,7 @@
       <c r="B32" s="15">
         <v>3600</v>
       </c>
-      <c r="D32" s="47"/>
+      <c r="D32" s="46"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
@@ -4003,7 +6592,7 @@
       <c r="B33" s="15">
         <v>12</v>
       </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="46"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
@@ -4065,7 +6654,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B41" s="15">
         <v>102400</v>
@@ -4073,19 +6662,1366 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B42" s="15">
         <v>102400</v>
       </c>
     </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="74">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="74">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="26">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HW5JblHk3yTFhN46OJdIqHvhZwjcfCB/IV8vkTfAPgwazNLaoCd5n/3aX8UCI6U2hQNxZ5Oyj8srIeTfjtS0bQ==" saltValue="gPnlJIRo9hZjT1Q//WzWWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA9B902-59E6-4153-97E0-22C91333C597}">
+  <dimension ref="A1:AI12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2">
+        <v>9027</v>
+      </c>
+      <c r="E2">
+        <v>564</v>
+      </c>
+      <c r="F2">
+        <v>65536</v>
+      </c>
+      <c r="G2" s="46">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>13.820666666699999</v>
+      </c>
+      <c r="I2">
+        <v>13.820666666699999</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1653</v>
+      </c>
+      <c r="L2">
+        <v>27</v>
+      </c>
+      <c r="M2">
+        <v>124</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2">
+        <v>60267</v>
+      </c>
+      <c r="P2">
+        <v>3766</v>
+      </c>
+      <c r="Q2">
+        <v>65536</v>
+      </c>
+      <c r="R2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2">
+        <v>2.1063333333299998</v>
+      </c>
+      <c r="T2">
+        <v>2.1063333333299998</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>350</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>126</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z2">
+        <v>17027</v>
+      </c>
+      <c r="AA2">
+        <v>1064</v>
+      </c>
+      <c r="AB2">
+        <v>65536</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD2">
+        <v>7.4829999999999997</v>
+      </c>
+      <c r="AE2">
+        <v>7.4829999999999997</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>149</v>
+      </c>
+      <c r="AH2">
+        <v>2</v>
+      </c>
+      <c r="AI2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3">
+        <v>8997</v>
+      </c>
+      <c r="E3">
+        <v>562</v>
+      </c>
+      <c r="F3">
+        <v>65536</v>
+      </c>
+      <c r="G3" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="H3">
+        <v>13.823</v>
+      </c>
+      <c r="I3">
+        <v>14.4533333333</v>
+      </c>
+      <c r="J3">
+        <v>8.1669999999999998</v>
+      </c>
+      <c r="K3">
+        <v>5302</v>
+      </c>
+      <c r="L3">
+        <v>61</v>
+      </c>
+      <c r="M3">
+        <v>125</v>
+      </c>
+      <c r="N3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3">
+        <v>57317</v>
+      </c>
+      <c r="P3">
+        <v>3582</v>
+      </c>
+      <c r="Q3">
+        <v>65536</v>
+      </c>
+      <c r="R3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3">
+        <v>2.2126666666700001</v>
+      </c>
+      <c r="T3">
+        <v>2.1746666666699999</v>
+      </c>
+      <c r="U3">
+        <v>2.5529999999999999</v>
+      </c>
+      <c r="V3">
+        <v>1394</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>126</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z3">
+        <v>18481</v>
+      </c>
+      <c r="AA3">
+        <v>1155</v>
+      </c>
+      <c r="AB3">
+        <v>65536</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD3">
+        <v>6.8860000000000001</v>
+      </c>
+      <c r="AE3">
+        <v>7.0279999999999996</v>
+      </c>
+      <c r="AF3">
+        <v>5.6070000000000002</v>
+      </c>
+      <c r="AG3">
+        <v>61</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4">
+        <v>8570</v>
+      </c>
+      <c r="E4">
+        <v>535</v>
+      </c>
+      <c r="F4">
+        <v>65536</v>
+      </c>
+      <c r="G4" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>14.6566666667</v>
+      </c>
+      <c r="I4">
+        <v>15.990333333300001</v>
+      </c>
+      <c r="J4">
+        <v>9.3230000000000004</v>
+      </c>
+      <c r="K4">
+        <v>5188</v>
+      </c>
+      <c r="L4">
+        <v>42</v>
+      </c>
+      <c r="M4">
+        <v>125</v>
+      </c>
+      <c r="N4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4">
+        <v>52732</v>
+      </c>
+      <c r="P4">
+        <v>3295</v>
+      </c>
+      <c r="Q4">
+        <v>65536</v>
+      </c>
+      <c r="R4" t="s">
+        <v>119</v>
+      </c>
+      <c r="S4">
+        <v>2.4056666666700002</v>
+      </c>
+      <c r="T4">
+        <v>2.2806666666700002</v>
+      </c>
+      <c r="U4">
+        <v>2.9056666666700002</v>
+      </c>
+      <c r="V4">
+        <v>989</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>126</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4">
+        <v>19153</v>
+      </c>
+      <c r="AA4">
+        <v>1197</v>
+      </c>
+      <c r="AB4">
+        <v>65536</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD4">
+        <v>6.6449999999999996</v>
+      </c>
+      <c r="AE4">
+        <v>6.8520000000000003</v>
+      </c>
+      <c r="AF4">
+        <v>5.8150000000000004</v>
+      </c>
+      <c r="AG4">
+        <v>67</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5">
+        <v>7871</v>
+      </c>
+      <c r="E5">
+        <v>491</v>
+      </c>
+      <c r="F5">
+        <v>65536</v>
+      </c>
+      <c r="G5" s="46">
+        <v>0.7</v>
+      </c>
+      <c r="H5">
+        <v>15.9073333333</v>
+      </c>
+      <c r="I5">
+        <v>19.006333333299999</v>
+      </c>
+      <c r="J5">
+        <v>8.6850000000000005</v>
+      </c>
+      <c r="K5">
+        <v>2980</v>
+      </c>
+      <c r="L5">
+        <v>46</v>
+      </c>
+      <c r="M5">
+        <v>125</v>
+      </c>
+      <c r="N5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5">
+        <v>51478</v>
+      </c>
+      <c r="P5">
+        <v>3217</v>
+      </c>
+      <c r="Q5">
+        <v>65536</v>
+      </c>
+      <c r="R5" t="s">
+        <v>120</v>
+      </c>
+      <c r="S5">
+        <v>2.4623333333300002</v>
+      </c>
+      <c r="T5">
+        <v>2.33433333333</v>
+      </c>
+      <c r="U5">
+        <v>2.7613333333300001</v>
+      </c>
+      <c r="V5">
+        <v>765</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>126</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5">
+        <v>19764</v>
+      </c>
+      <c r="AA5">
+        <v>1235</v>
+      </c>
+      <c r="AB5">
+        <v>65536</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD5">
+        <v>6.4393333333299996</v>
+      </c>
+      <c r="AE5">
+        <v>6.6256666666699999</v>
+      </c>
+      <c r="AF5">
+        <v>6.0049999999999999</v>
+      </c>
+      <c r="AG5">
+        <v>58</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6">
+        <v>6853</v>
+      </c>
+      <c r="E6">
+        <v>428</v>
+      </c>
+      <c r="F6">
+        <v>65536</v>
+      </c>
+      <c r="G6" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="H6">
+        <v>18.195666666699999</v>
+      </c>
+      <c r="I6">
+        <v>24.0566666667</v>
+      </c>
+      <c r="J6">
+        <v>9.41933333333</v>
+      </c>
+      <c r="K6">
+        <v>2698</v>
+      </c>
+      <c r="L6">
+        <v>38</v>
+      </c>
+      <c r="M6">
+        <v>124</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6">
+        <v>48993</v>
+      </c>
+      <c r="P6">
+        <v>3062</v>
+      </c>
+      <c r="Q6">
+        <v>65536</v>
+      </c>
+      <c r="R6" t="s">
+        <v>121</v>
+      </c>
+      <c r="S6">
+        <v>2.5903333333299998</v>
+      </c>
+      <c r="T6">
+        <v>2.38333333333</v>
+      </c>
+      <c r="U6">
+        <v>2.9009999999999998</v>
+      </c>
+      <c r="V6">
+        <v>708</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>126</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z6">
+        <v>19712</v>
+      </c>
+      <c r="AA6">
+        <v>1232</v>
+      </c>
+      <c r="AB6">
+        <v>65536</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD6">
+        <v>6.4546666666699997</v>
+      </c>
+      <c r="AE6">
+        <v>6.5516666666700001</v>
+      </c>
+      <c r="AF6">
+        <v>6.3090000000000002</v>
+      </c>
+      <c r="AG6">
+        <v>147</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7">
+        <v>9303</v>
+      </c>
+      <c r="E7">
+        <v>581</v>
+      </c>
+      <c r="F7">
+        <v>65536</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <v>13.262666666699999</v>
+      </c>
+      <c r="I7">
+        <v>18.146333333299999</v>
+      </c>
+      <c r="J7">
+        <v>8.3849999999999998</v>
+      </c>
+      <c r="K7">
+        <v>4418</v>
+      </c>
+      <c r="L7">
+        <v>51</v>
+      </c>
+      <c r="M7">
+        <v>123</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7">
+        <v>47054</v>
+      </c>
+      <c r="P7">
+        <v>2940</v>
+      </c>
+      <c r="Q7">
+        <v>65536</v>
+      </c>
+      <c r="R7" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7">
+        <v>2.6956666666700002</v>
+      </c>
+      <c r="T7">
+        <v>2.375</v>
+      </c>
+      <c r="U7">
+        <v>3.0166666666699999</v>
+      </c>
+      <c r="V7">
+        <v>616</v>
+      </c>
+      <c r="W7">
+        <v>8</v>
+      </c>
+      <c r="X7">
+        <v>126</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z7">
+        <v>19788</v>
+      </c>
+      <c r="AA7">
+        <v>1236</v>
+      </c>
+      <c r="AB7">
+        <v>65536</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD7">
+        <v>6.4283333333300003</v>
+      </c>
+      <c r="AE7">
+        <v>6.3940000000000001</v>
+      </c>
+      <c r="AF7">
+        <v>6.4633333333299996</v>
+      </c>
+      <c r="AG7">
+        <v>84</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8">
+        <v>7216</v>
+      </c>
+      <c r="E8">
+        <v>451</v>
+      </c>
+      <c r="F8">
+        <v>65536</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0.4</v>
+      </c>
+      <c r="H8">
+        <v>17.063666666700001</v>
+      </c>
+      <c r="I8">
+        <v>29.507999999999999</v>
+      </c>
+      <c r="J8">
+        <v>8.7690000000000001</v>
+      </c>
+      <c r="K8">
+        <v>5179</v>
+      </c>
+      <c r="L8">
+        <v>59</v>
+      </c>
+      <c r="M8">
+        <v>125</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8">
+        <v>42934</v>
+      </c>
+      <c r="P8">
+        <v>2683</v>
+      </c>
+      <c r="Q8">
+        <v>65536</v>
+      </c>
+      <c r="R8" t="s">
+        <v>123</v>
+      </c>
+      <c r="S8">
+        <v>2.9540000000000002</v>
+      </c>
+      <c r="T8">
+        <v>2.4329999999999998</v>
+      </c>
+      <c r="U8">
+        <v>3.3013333333300001</v>
+      </c>
+      <c r="V8">
+        <v>757</v>
+      </c>
+      <c r="W8">
+        <v>9</v>
+      </c>
+      <c r="X8">
+        <v>126</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z8">
+        <v>18790</v>
+      </c>
+      <c r="AA8">
+        <v>1174</v>
+      </c>
+      <c r="AB8">
+        <v>65536</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD8">
+        <v>6.7686666666699997</v>
+      </c>
+      <c r="AE8">
+        <v>6.5753333333299997</v>
+      </c>
+      <c r="AF8">
+        <v>6.8973333333299998</v>
+      </c>
+      <c r="AG8">
+        <v>68</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9">
+        <v>8643</v>
+      </c>
+      <c r="E9">
+        <v>540</v>
+      </c>
+      <c r="F9">
+        <v>65536</v>
+      </c>
+      <c r="G9" s="46">
+        <v>0.3</v>
+      </c>
+      <c r="H9">
+        <v>14.683999999999999</v>
+      </c>
+      <c r="I9">
+        <v>25.979666666699998</v>
+      </c>
+      <c r="J9">
+        <v>9.8463333333299996</v>
+      </c>
+      <c r="K9">
+        <v>12790</v>
+      </c>
+      <c r="L9">
+        <v>139</v>
+      </c>
+      <c r="M9">
+        <v>125</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9">
+        <v>38865</v>
+      </c>
+      <c r="P9">
+        <v>2429</v>
+      </c>
+      <c r="Q9">
+        <v>65536</v>
+      </c>
+      <c r="R9" t="s">
+        <v>124</v>
+      </c>
+      <c r="S9">
+        <v>3.26633333333</v>
+      </c>
+      <c r="T9">
+        <v>2.5893333333299999</v>
+      </c>
+      <c r="U9">
+        <v>3.55666666667</v>
+      </c>
+      <c r="V9">
+        <v>876</v>
+      </c>
+      <c r="W9">
+        <v>10</v>
+      </c>
+      <c r="X9">
+        <v>126</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z9">
+        <v>17559</v>
+      </c>
+      <c r="AA9">
+        <v>1097</v>
+      </c>
+      <c r="AB9">
+        <v>65536</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD9">
+        <v>7.2423333333300004</v>
+      </c>
+      <c r="AE9">
+        <v>6.9853333333299998</v>
+      </c>
+      <c r="AF9">
+        <v>7.3523333333299998</v>
+      </c>
+      <c r="AG9">
+        <v>75</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10">
+        <v>8431</v>
+      </c>
+      <c r="E10">
+        <v>526</v>
+      </c>
+      <c r="F10">
+        <v>65536</v>
+      </c>
+      <c r="G10" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="H10">
+        <v>15.0756666667</v>
+      </c>
+      <c r="I10">
+        <v>29.792000000000002</v>
+      </c>
+      <c r="J10">
+        <v>11.391999999999999</v>
+      </c>
+      <c r="K10">
+        <v>6047</v>
+      </c>
+      <c r="L10">
+        <v>91</v>
+      </c>
+      <c r="M10">
+        <v>126</v>
+      </c>
+      <c r="N10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O10">
+        <v>35170</v>
+      </c>
+      <c r="P10">
+        <v>2198</v>
+      </c>
+      <c r="Q10">
+        <v>65536</v>
+      </c>
+      <c r="R10" t="s">
+        <v>125</v>
+      </c>
+      <c r="S10">
+        <v>3.6153333333300002</v>
+      </c>
+      <c r="T10">
+        <v>2.9486666666699999</v>
+      </c>
+      <c r="U10">
+        <v>3.78233333333</v>
+      </c>
+      <c r="V10">
+        <v>1104</v>
+      </c>
+      <c r="W10">
+        <v>13</v>
+      </c>
+      <c r="X10">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z10">
+        <v>16162</v>
+      </c>
+      <c r="AA10">
+        <v>1010</v>
+      </c>
+      <c r="AB10">
+        <v>65536</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD10">
+        <v>7.8673333333300004</v>
+      </c>
+      <c r="AE10">
+        <v>7.569</v>
+      </c>
+      <c r="AF10">
+        <v>7.9416666666699998</v>
+      </c>
+      <c r="AG10">
+        <v>70</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11">
+        <v>10134</v>
+      </c>
+      <c r="E11">
+        <v>633</v>
+      </c>
+      <c r="F11">
+        <v>65536</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <v>12.279666666700001</v>
+      </c>
+      <c r="I11">
+        <v>25.6233333333</v>
+      </c>
+      <c r="J11">
+        <v>10.798999999999999</v>
+      </c>
+      <c r="K11">
+        <v>6023</v>
+      </c>
+      <c r="L11">
+        <v>53</v>
+      </c>
+      <c r="M11">
+        <v>125</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11">
+        <v>31849</v>
+      </c>
+      <c r="P11">
+        <v>1990</v>
+      </c>
+      <c r="Q11">
+        <v>65536</v>
+      </c>
+      <c r="R11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11">
+        <v>3.99633333333</v>
+      </c>
+      <c r="T11">
+        <v>3.31866666667</v>
+      </c>
+      <c r="U11">
+        <v>4.0720000000000001</v>
+      </c>
+      <c r="V11">
+        <v>986</v>
+      </c>
+      <c r="W11">
+        <v>14</v>
+      </c>
+      <c r="X11">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z11">
+        <v>15215</v>
+      </c>
+      <c r="AA11">
+        <v>950</v>
+      </c>
+      <c r="AB11">
+        <v>65536</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD11">
+        <v>8.3573333333300006</v>
+      </c>
+      <c r="AE11">
+        <v>8.1163333333299992</v>
+      </c>
+      <c r="AF11">
+        <v>8.3840000000000003</v>
+      </c>
+      <c r="AG11">
+        <v>120</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12">
+        <v>9700</v>
+      </c>
+      <c r="E12">
+        <v>606</v>
+      </c>
+      <c r="F12">
+        <v>65536</v>
+      </c>
+      <c r="G12" s="46">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>13.119666666700001</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>13.119666666700001</v>
+      </c>
+      <c r="K12">
+        <v>5390</v>
+      </c>
+      <c r="L12">
+        <v>55</v>
+      </c>
+      <c r="M12">
+        <v>127</v>
+      </c>
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12">
+        <v>29482</v>
+      </c>
+      <c r="P12">
+        <v>1842</v>
+      </c>
+      <c r="Q12">
+        <v>65536</v>
+      </c>
+      <c r="R12" t="s">
+        <v>127</v>
+      </c>
+      <c r="S12">
+        <v>4.3016666666700001</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>4.3016666666700001</v>
+      </c>
+      <c r="V12">
+        <v>693</v>
+      </c>
+      <c r="W12">
+        <v>13</v>
+      </c>
+      <c r="X12">
+        <v>126</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z12">
+        <v>14265</v>
+      </c>
+      <c r="AA12">
+        <v>891</v>
+      </c>
+      <c r="AB12">
+        <v>65536</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD12">
+        <v>8.9133333333299998</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>8.9133333333299998</v>
+      </c>
+      <c r="AG12">
+        <v>50</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4358,14 +8294,14 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4a052287-e6d5-446a-afc6-58987b850d5f"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="943a090e-7b96-4eb7-abc0-264fa36c6c5d"/>
-    <ds:schemaRef ds:uri="4a052287-e6d5-446a-afc6-58987b850d5f"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/fslogix-storage-calculator.xlsx
+++ b/fslogix-storage-calculator.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{80057BE8-5265-429A-8C17-C870DB06A720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{74388EB1-AED8-46A9-BE33-4AB327C0C5CB}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="yj9yLa1RpILfGi6roGG/QJ0nm/4RxuGxERTiMXxW9/dcItFOEcdBobtfAmYLtGukeRSF/7UvWy7zLAXCbFoOig==" workbookSaltValue="CDKKDFZHWYO518dN1E+KWw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{80057BE8-5265-429A-8C17-C870DB06A720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3C11F1FD-C863-4404-8DB4-01D61EAB8F75}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="N7T0sGOloLfdFA83WVOXPOPZejpNmZwOJdFFNuEXibIHfqr4mztCFetwCvHQSbUmHxB7tAnm8eiXYgqOYWHzDA==" workbookSaltValue="2fErBk1//dUDK2o4yEmquw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
@@ -4350,7 +4350,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4384,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="32">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="D3" s="57"/>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B12" s="18">
         <f>B$3*B$6</f>
-        <v>190</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="B13" s="18">
         <f>(B$4*B$8*B$3*B$6)/1024</f>
-        <v>89.0625</v>
+        <v>55.3125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="B15" s="18">
         <f>B$4*B$3*B6</f>
-        <v>2850</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B16" s="18">
         <f>B5*B3</f>
-        <v>6650</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -4539,7 +4539,7 @@
       </c>
       <c r="B19" s="54">
         <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>997.5</v>
+        <v>619.5</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>70</v>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="E20" s="52">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$31:$C$33,'Azure NetApp Files Calcuations'!$B$31:$B$33),"No")</f>
-        <v>6650</v>
+        <v>4130</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="68"/>
@@ -4681,7 +4681,7 @@
       <c r="G26" s="68"/>
       <c r="H26" s="68"/>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="80" t="s">
         <v>86</v>
       </c>
@@ -4693,7 +4693,7 @@
       <c r="G27" s="80"/>
       <c r="H27" s="80"/>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>77</v>
       </c>
@@ -4716,13 +4716,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="54">
         <f>IF(E29="Yes",B$32+B$31,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>665.76</v>
+        <v>413.47199999999998</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>70</v>
@@ -4744,7 +4744,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>73</v>
       </c>
@@ -4757,19 +4757,19 @@
       </c>
       <c r="E30" s="18">
         <f>IF(E29="Yes",$B$5*$B$3,"No")</f>
-        <v>6650</v>
+        <v>4130</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="39"/>
       <c r="H30" s="40"/>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>71</v>
       </c>
       <c r="B31" s="49">
         <f>IF(E29="Yes",((B4*B3*B6*definitions!B$32*B$7*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>266.76</v>
+        <v>165.672</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>67</v>
@@ -4782,13 +4782,13 @@
       <c r="G31" s="43"/>
       <c r="H31" s="44"/>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>72</v>
       </c>
       <c r="B32" s="49">
         <f>IF(E29="Yes",B$5*B$3*B6*definitions!B$35,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>399</v>
+        <v>247.79999999999998</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>106</v>
@@ -4801,7 +4801,7 @@
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="49"/>
       <c r="D33" s="27" t="s">
@@ -4815,7 +4815,7 @@
       <c r="G33" s="39"/>
       <c r="H33" s="40"/>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D34" s="65" t="s">
         <v>151</v>
       </c>
@@ -4827,7 +4827,7 @@
       <c r="G34" s="71"/>
       <c r="H34" s="71"/>
     </row>
-    <row r="35" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="80" t="s">
         <v>87</v>
       </c>
@@ -4838,7 +4838,7 @@
       <c r="F35" s="80"/>
       <c r="G35" s="80"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>78</v>
       </c>
@@ -4858,13 +4858,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="90.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="54">
         <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calculator'!B3*'FSLogix Calculator'!B4,definitions!B37*'FSLogix Calculator'!B5*'FSLogix Calculator'!B3),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>1662.5</v>
+        <v>1032.5</v>
       </c>
       <c r="D37" s="34" t="s">
         <v>70</v>
@@ -4882,7 +4882,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>73</v>
       </c>
@@ -4895,12 +4895,12 @@
       </c>
       <c r="E38" s="18">
         <f>'Azure Files Calculations'!C14</f>
-        <v>6650</v>
+        <v>4130</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D39" s="8" t="s">
         <v>154</v>
       </c>
@@ -4911,7 +4911,7 @@
       <c r="F39" s="33"/>
       <c r="G39" s="41"/>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="8"/>
@@ -4925,7 +4925,7 @@
       <c r="F40" s="40"/>
       <c r="G40" s="39"/>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="8"/>
@@ -4939,7 +4939,7 @@
       <c r="F41" s="40"/>
       <c r="G41" s="45"/>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
       <c r="D42" s="65" t="s">
         <v>153</v>
@@ -5195,7 +5195,7 @@
       <c r="E112" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="AI2FH12xXNz3L9TyiSBFKnfcmjGW66bP87lH4tfkLJFvsGjyUU0iAsmCBTJvx+k4A/KZOAA9SfHBFON5Tk/Fsw==" saltValue="iVSwKVCe0WntvlpOcR+o3g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FA1HdkEUmZ4cjbh1PswAaQpeKciB3/Rjl997vG8Cyt1OIGa+ZgKkB4XbyikN3n2OB4tG6B3j47xSo6jvrb9o2Q==" saltValue="zkkTPd3CZsu4/tUUvkGJng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A27:H27"/>
@@ -5472,7 +5472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E156B8-3DAB-4F24-8D0A-36FBCF57BCBD}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="B2" s="15">
         <f>'FSLogix Calculator'!B$16</f>
-        <v>6650</v>
+        <v>4130</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="B7" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B30</f>
-        <v>5700</v>
+        <v>3540</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>47</v>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="B8" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B28</f>
-        <v>1425</v>
+        <v>885</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>48</v>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="B9" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B26</f>
-        <v>712.5</v>
+        <v>442.5</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>40</v>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="B23" s="15">
         <f>IF(B$2&gt;B7,B$2,B7)</f>
-        <v>6650</v>
+        <v>4130</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>47</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="B24" s="15">
         <f>IF(B$2&gt;B8,B$2,B8)</f>
-        <v>6650</v>
+        <v>4130</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>48</v>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="B25" s="15">
         <f>IF(B$2&gt;B9,B$2,B9)</f>
-        <v>6650</v>
+        <v>4130</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>40</v>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="B31" s="15">
         <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
-        <v>6650</v>
+        <v>4130</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>47</v>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="B32" s="15">
         <f>IF(B24&gt;definitions!B$31,B24,definitions!B$31)</f>
-        <v>6650</v>
+        <v>4130</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>48</v>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="B33" s="15">
         <f>IF(B25&gt;definitions!B$31,B25,definitions!B$31)</f>
-        <v>6650</v>
+        <v>4130</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>40</v>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="B38" s="24">
         <f>IF((B31&gt;definitions!B24),99999,B31*definitions!B$29)</f>
-        <v>997.5</v>
+        <v>619.5</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>47</v>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="B39" s="16">
         <f>IF((B32&gt;definitions!B24),99999,B32*definitions!B$27)</f>
-        <v>1995</v>
+        <v>1239</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>48</v>
@@ -5878,7 +5878,7 @@
       </c>
       <c r="B40" s="16">
         <f>IF((B33&gt;definitions!B24),99999,(B33*definitions!B$25))</f>
-        <v>2660</v>
+        <v>1652</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>40</v>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B48" s="26">
         <f>IF(B40=definitions!A$23,B40, B40/'FSLogix Calculator'!B$29)</f>
-        <v>3.9954337899543377</v>
+        <v>3.9954337899543382</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>40</v>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="B8" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*(1-'FSLogix Calculator'!B9)))-definitions!B43)/definitions!B44</f>
-        <v>-703.125</v>
+        <v>-815.625</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6151,7 +6151,7 @@
       </c>
       <c r="B9" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*'FSLogix Calculator'!B9))-definitions!B45)/definitions!B46</f>
-        <v>781.25</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B11" s="15">
         <f>IF(B9&lt;100,100,B9)</f>
-        <v>781.25</v>
+        <v>106.25</v>
       </c>
       <c r="C11" t="s">
         <v>145</v>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C12" s="15">
         <f>MAX(B10:B11)</f>
-        <v>781.25</v>
+        <v>106.25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6201,7 +6201,7 @@
       </c>
       <c r="C13" s="15">
         <f>IF(B9&gt;'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6,C$12,'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6)</f>
-        <v>2850</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="C14" s="15">
         <f>IF(C13&gt;'FSLogix Calculator'!B16,'Azure Files Calculations'!C13,'FSLogix Calculator'!B16)</f>
-        <v>6650</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -8031,6 +8031,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100050FBA8A9F0AFB4BB2D0148D6A234C38" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74183e733b66e5e9a3cd5553bd4bd9ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4a052287-e6d5-446a-afc6-58987b850d5f" xmlns:ns4="943a090e-7b96-4eb7-abc0-264fa36c6c5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b903754823e47922d1d3c75b6236d24" ns3:_="" ns4:_="">
     <xsd:import namespace="4a052287-e6d5-446a-afc6-58987b850d5f"/>
@@ -8253,15 +8262,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
   <ds:schemaRefs>
@@ -8280,6 +8280,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097D0541-97F4-46BE-8711-51CFA8DE5931}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8296,12 +8304,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/fslogix-storage-calculator.xlsx
+++ b/fslogix-storage-calculator.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{80057BE8-5265-429A-8C17-C870DB06A720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3C11F1FD-C863-4404-8DB4-01D61EAB8F75}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="N7T0sGOloLfdFA83WVOXPOPZejpNmZwOJdFFNuEXibIHfqr4mztCFetwCvHQSbUmHxB7tAnm8eiXYgqOYWHzDA==" workbookSaltValue="2fErBk1//dUDK2o4yEmquw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{80057BE8-5265-429A-8C17-C870DB06A720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{139D8C4D-F01E-4B3F-83D6-81314EE328FE}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="t+JkNq9tqmsPWKZG4243dmROwKF3bq/0/pMp0U7P3IbsgB19gsMVOhnXvXvDRyuLi2nqOQxBUhOjuGiZBOrHlQ==" workbookSaltValue="OSy8GVs1Yity0kiwcucv5A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>IOPS Per User</t>
   </si>
   <si>
-    <t>Drop Down: IOPS Per User</t>
-  </si>
-  <si>
     <t>Fields</t>
   </si>
   <si>
@@ -548,6 +545,9 @@
   </si>
   <si>
     <t>Max Total Supported User Count (Based on Concurrent I/O Rate)</t>
+  </si>
+  <si>
+    <t>Modify: IOPS Per User</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00000000_);[Red]\(&quot;$&quot;#,##0.00000000\)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,14 +601,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -732,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -893,7 +885,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -943,21 +934,6 @@
   </cellStyles>
   <dxfs count="98">
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1116,6 +1092,349 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1443,334 +1762,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3616,7 +3607,6 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8" refreshError="1"/>
       <sheetData sheetId="9">
         <row r="2">
           <cell r="G2" t="str">
@@ -3911,84 +3901,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96" tableBorderDxfId="95">
   <autoFilter ref="A2:B9" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="55">
   <autoFilter ref="A22:B47" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91" tableBorderDxfId="90">
   <autoFilter ref="A28:B32" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="87" tableBorderDxfId="86">
   <autoFilter ref="A11:B16" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="46" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="83" tableBorderDxfId="82">
   <autoFilter ref="A36:B38" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="79" tableBorderDxfId="78">
   <autoFilter ref="A18:B22" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="75" tableBorderDxfId="74">
   <autoFilter ref="D18:H26" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="70">
       <calculatedColumnFormula>IF(E20&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="69">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="68">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3997,18 +3987,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="67" tableBorderDxfId="66">
   <autoFilter ref="D28:H34" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="27">
+    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="64">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="26">
+    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="63">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="62">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4017,15 +4007,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="D36:G42" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="58">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="57">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4040,7 +4030,7 @@
     <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
     <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
     <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
-    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="56"/>
     <tableColumn id="5" xr3:uid="{5EBEBC80-5940-4420-B7CB-91D5FC7DF075}" name="Read Percenage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4349,13 +4339,13 @@
   </sheetPr>
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="4" width="85.42578125" bestFit="1" customWidth="1"/>
@@ -4366,17 +4356,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="79"/>
+      <c r="A1" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="78"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4386,20 +4376,19 @@
       <c r="B3" s="32">
         <v>118</v>
       </c>
-      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="B4" s="32">
         <v>15</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="32">
         <v>35</v>
@@ -4407,7 +4396,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="47">
         <v>1</v>
@@ -4416,26 +4405,26 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="32">
         <v>40</v>
       </c>
-      <c r="D7" s="76"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="32">
         <v>32</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="62">
         <v>0.2</v>
@@ -4447,15 +4436,15 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="18">
         <f>B$3*B$6</f>
@@ -4464,7 +4453,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="18">
         <f>(B$4*B$8*B$3*B$6)/1024</f>
@@ -4473,7 +4462,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="18">
         <f>(B$4*B$8)</f>
@@ -4482,7 +4471,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="18">
         <f>B$4*B$3*B6</f>
@@ -4491,7 +4480,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="18">
         <f>B5*B3</f>
@@ -4499,50 +4488,50 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
+      <c r="A17" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" t="s">
         <v>58</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>59</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="51" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="54">
         <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
         <v>619.5</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="48" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure NetApp Files Calcuations'!B35:B36,'Azure NetApp Files Calcuations'!B35:B36,"Yes")</f>
@@ -4552,116 +4541,116 @@
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes","Yes",definitions!$A$23)</f>
         <v>Yes</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="66" t="str">
+      <c r="G19" s="66"/>
+      <c r="H19" s="65" t="str">
         <f>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="49">
         <f>IF(E19="Yes",IF($E$21=definitions!A$23,B$19,B$19/B$3),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
         <v>5.25</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="52">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$31:$C$33,'Azure NetApp Files Calcuations'!$B$31:$B$33),"No")</f>
         <v>4130</v>
       </c>
       <c r="F20" s="53"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
     </row>
     <row r="21" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="50">
         <f>IF(E29="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$46:C$48,'Azure NetApp Files Calcuations'!B$46:B$48),"N/A: User Count Exceeds Capability Of Azure Files")</f>
         <v>1.4982876712328768</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" s="52" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",(_xlfn.XLOOKUP(MIN('Azure NetApp Files Calcuations'!$B$38:$B$40),'Azure NetApp Files Calcuations'!$B$38:$B$40,'Azure NetApp Files Calcuations'!$C$38:$C$40)),"No")</f>
         <v>Standard</v>
       </c>
       <c r="F21" s="53"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="50">
         <f>IF(E37="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$50:C$52,'Azure NetApp Files Calcuations'!B$50:B$52),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
         <v>0.6</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E22" s="52" t="str">
         <f>IF(E19="No","No",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
         <v>Capacity</v>
       </c>
       <c r="F22" s="53"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
     </row>
     <row r="23" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
       <c r="B23" s="50"/>
       <c r="D23" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E23" s="52">
         <f>IF(E19="Yes",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$42:$C$44,'Azure NetApp Files Calcuations'!$B$42:$B$44,definitions!A$23)),"No")</f>
         <v>35</v>
       </c>
       <c r="F23" s="53"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
     </row>
     <row r="24" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
       <c r="B24" s="49"/>
-      <c r="D24" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E24" s="70">
+      <c r="D24" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="69">
         <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
         <v>4689</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
     </row>
     <row r="25" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="49"/>
-      <c r="D25" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="70">
+      <c r="D25" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="69">
         <f>'Azure NetApp Files Calcuations'!B5</f>
         <v>2925</v>
       </c>
-      <c r="F25" s="69" t="str">
+      <c r="F25" s="68" t="str">
         <f>IF(E26&gt;definitions!B30,definitions!$A$23,"Yes")</f>
         <v>Required capacity exceeds documented 100TiB upper limit</v>
       </c>
-      <c r="G25" s="69" t="str">
+      <c r="G25" s="68" t="str">
         <f>IF(B9&gt;E28,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="H25" s="69" t="str">
+      <c r="H25" s="68" t="str">
         <f>IF(B9&gt;E28,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
@@ -4677,61 +4666,61 @@
         <f>IF(E22="Capacity Pool Minimum Size",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$15:$C$17,'Azure NetApp Files Calcuations'!$B$15:$B$17),"Temporarily Empty Field")</f>
         <v>Temporarily Empty Field</v>
       </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
+      <c r="A27" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="H28" s="58" t="s">
         <v>59</v>
-      </c>
-      <c r="H28" s="58" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="54">
         <f>IF(E29="Yes",B$32+B$31,"N/A: User Count Exceeds Capability Of Azure Files")</f>
         <v>413.47199999999998</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="35" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$2:$C$4,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F29" s="72" t="str">
+      <c r="F29" s="71" t="str">
         <f>'Azure Files Calculations'!$B$4</f>
         <v>Yes</v>
       </c>
@@ -4746,14 +4735,14 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="49">
         <f>IF(E29="Yes",B$29/B$3,"N/A: User Count Exceeds Capability Of Azure Files")</f>
         <v>3.504</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="18">
         <f>IF(E29="Yes",$B$5*$B$3,"No")</f>
@@ -4765,14 +4754,14 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="49">
         <f>IF(E29="Yes",((B4*B3*B6*definitions!B$32*B$7*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of Azure Files")</f>
         <v>165.672</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="18">
         <f>IF(E29="Yes",E30/$B$3,"No")</f>
@@ -4784,14 +4773,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="49">
         <f>IF(E29="Yes",B$5*B$3*B6*definitions!B$35,"N/A: User Count Exceeds Capability Of Azure Files")</f>
         <v>247.79999999999998</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" s="18">
         <f>FLOOR(   (definitions!$B$38/$B$4)*(1/$B$6),1)</f>
@@ -4805,7 +4794,7 @@
       <c r="A33" s="35"/>
       <c r="B33" s="49"/>
       <c r="D33" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="18">
         <f>FLOOR((   (1024*definitions!$B$39)   /   ('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$8)  ) * (1/$B$6   ),1)</f>
@@ -4816,82 +4805,82 @@
       <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="65" t="s">
-        <v>151</v>
+      <c r="D34" s="64" t="s">
+        <v>150</v>
       </c>
       <c r="E34" s="17">
         <f>definitions!B41/'FSLogix Calculator'!B5</f>
         <v>2925.7142857142858</v>
       </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
     </row>
     <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
+      <c r="A35" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s">
         <v>58</v>
-      </c>
-      <c r="G36" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="54">
         <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calculator'!B3*'FSLogix Calculator'!B4,definitions!B37*'FSLogix Calculator'!B5*'FSLogix Calculator'!B3),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
         <v>1032.5</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" s="35" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$5:$C$7,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F37" s="73" t="str">
+      <c r="F37" s="72" t="str">
         <f>'Azure Files Calculations'!$B$6</f>
         <v>Yes</v>
       </c>
-      <c r="G37" s="73" t="str">
+      <c r="G37" s="72" t="str">
         <f>'Azure Files Calculations'!$B$5</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="23">
         <f>IF(E37="Yes",B$37/B$3,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
         <v>8.75</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E38" s="18">
         <f>'Azure Files Calculations'!C14</f>
@@ -4902,7 +4891,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D39" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E39" s="17">
         <f>IF('Azure Files Calculations'!$C$6="Yes",E$38/$B$3,"No")</f>
@@ -4916,7 +4905,7 @@
       <c r="B40" s="17"/>
       <c r="C40" s="8"/>
       <c r="D40" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E40" s="22" t="str">
         <f>'Azure Files Calculations'!B14</f>
@@ -4930,7 +4919,7 @@
       <c r="B41" s="17"/>
       <c r="C41" s="8"/>
       <c r="D41" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E41" s="18">
         <f>FLOOR(( definitions!$B$40/$B$4) * (1/$B$6),1)</f>
@@ -4941,8 +4930,8 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
-      <c r="D42" s="65" t="s">
-        <v>153</v>
+      <c r="D42" s="64" t="s">
+        <v>152</v>
       </c>
       <c r="E42" s="18">
         <f>definitions!B42/'FSLogix Calculator'!B5</f>
@@ -5195,7 +5184,7 @@
       <c r="E112" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FA1HdkEUmZ4cjbh1PswAaQpeKciB3/Rjl997vG8Cyt1OIGa+ZgKkB4XbyikN3n2OB4tG6B3j47xSo6jvrb9o2Q==" saltValue="zkkTPd3CZsu4/tUUvkGJng==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vjT6CCKfIrO/jXzdur1RhpGnjRqhL+DaQXy52zAi/TSyztQjEWBS2QXCVfbW28nJMhsff53LBSETI75V5qR4rw==" saltValue="dqYSPUVkn4pwwVpSznIOyA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A27:H27"/>
@@ -5204,167 +5193,167 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A36:B39 A28:B34">
-    <cfRule type="cellIs" dxfId="97" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="93" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:H31">
-    <cfRule type="containsText" dxfId="96" priority="23" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="51" priority="23" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="24" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="50" priority="24" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E23">
-    <cfRule type="cellIs" dxfId="94" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="93" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="92" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="91" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="32" operator="equal">
       <formula>"""Yes"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="88" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
       <formula>"Required Capacity Exceeds documented 100TiB Upper Limit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
       <formula>"""Required Capacity Exceeds documented 100TiB Upper Limit"""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="35" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="41" priority="35" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="36" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="40" priority="36" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="29" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="81" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="80" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="77" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:G38 F40:G40">
-    <cfRule type="containsText" dxfId="75" priority="18" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="20" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="29" priority="20" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31 E20:E23">
-    <cfRule type="cellIs" dxfId="72" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="69" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="68" priority="8" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="2" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 1024 in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B10" xr:uid="{CBED2FD9-9304-492F-812B-63234547D67B}">
       <formula1>1</formula1>
       <formula2>1024</formula2>
@@ -5382,6 +5371,10 @@
       <formula2>168</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" sqref="B7" xr:uid="{A1CCD0B8-6B2D-42A1-89B6-7ABA9C370E18}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" errorTitle="IOPS: Incorrect Input" error="Please enter a whole number between 1 and 200." promptTitle="Storage IOPS: Env Dependant" prompt="Suggested values:_x000a_Per LoginVSI: 4_x000a_Per FSLogix Team: 15_x000a_With Offline Cache and Office365 Cache: 60 - 120" sqref="B4" xr:uid="{E2E3AE84-252F-4455-AC8B-A92442F4F96A}">
+      <formula1>1</formula1>
+      <formula2>200</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5401,18 +5394,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="If known, select the average storage I/O size.  If unknown, leave the value at the default of 32." promptTitle="Storage I/O Size (Advanced)" prompt="If known, select the average storage I/O size.  If unknown, leave the value at the default of 32." xr:uid="{86AD3042-EFBE-4769-8F55-A620876D83EA}">
           <x14:formula1>
             <xm:f>definitions!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>B8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Storage IOPS Per User" prompt="The average IOPS per user is environment dependant. " xr:uid="{E2E3AE84-252F-4455-AC8B-A92442F4F96A}">
-          <x14:formula1>
-            <xm:f>definitions!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 30  in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" xr:uid="{F0468C29-122F-45A3-9E06-3D1D980A2EF8}">
           <x14:formula1>
@@ -5484,13 +5471,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="15">
         <f>'FSLogix Calculator'!B$16</f>
@@ -5500,7 +5487,7 @@
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="15">
         <f>'FSLogix Calculator'!B$5</f>
@@ -5510,7 +5497,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="2">
         <f>_xlfn.XLOOKUP('FSLogix Calculator'!B$9,'Throughput Test'!G2:G12,'Throughput Test'!P$2:P$12)</f>
@@ -5520,7 +5507,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="2">
         <f>FLOOR(definitions!B24/'FSLogix Calculator'!B$5,1)</f>
@@ -5535,74 +5522,74 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B30</f>
         <v>3540</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B28</f>
         <v>885</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B26</f>
         <v>442.5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B$30</f>
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B28</f>
         <v>7.5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B26</f>
         <v>3.75</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5612,38 +5599,38 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2">
         <f>CEILING(IF(B11&gt;B$3,definitions!B$31/B11,definitions!B$31/B$3),1)</f>
         <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2">
         <f>CEILING(IF(B12&gt;B$3,definitions!B$31/B12,definitions!B$31/B$3),1)</f>
         <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2">
         <f>CEILING(IF(B13&gt;B$3,definitions!B$31/B13,definitions!B$31/B$3),1)</f>
         <v>118</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5653,38 +5640,38 @@
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B19" s="15" t="str">
         <f>IF(B$2&gt;B7,"Capacity","Bandwidth")</f>
         <v>Capacity</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="15" t="str">
         <f>IF(B$2&gt;B8,"Capacity","Bandwidth")</f>
         <v>Capacity</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B21" s="15" t="str">
         <f>IF(B$2&gt;B9,"Capacity","Bandwidth")</f>
         <v>Capacity</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5694,38 +5681,38 @@
     </row>
     <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="15">
         <f>IF(B$2&gt;B7,B$2,B7)</f>
         <v>4130</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="15">
         <f>IF(B$2&gt;B8,B$2,B8)</f>
         <v>4130</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="15">
         <f>IF(B$2&gt;B9,B$2,B9)</f>
         <v>4130</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5735,38 +5722,38 @@
     </row>
     <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="15" t="str">
         <f>IF(B23&gt;definitions!B$31,B19,"Capacity Pool Minimum Size")</f>
         <v>Capacity</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" s="15" t="str">
         <f>IF(B24&gt;definitions!B$31,B20,"Capacity Pool Minimum Size")</f>
         <v>Capacity</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="15" t="str">
         <f>IF(B25&gt;definitions!B$31,B21,"Capacity Pool Minimum Size")</f>
         <v>Capacity</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5776,38 +5763,38 @@
     </row>
     <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="15">
         <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
         <v>4130</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" s="15">
         <f>IF(B24&gt;definitions!B$31,B24,definitions!B$31)</f>
         <v>4130</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" s="15">
         <f>IF(B25&gt;definitions!B$31,B25,definitions!B$31)</f>
         <v>4130</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5817,7 +5804,7 @@
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B35" s="15" t="str">
         <f>IF(MIN(B31:B33)&gt;definitions!B24,"No","Yes")</f>
@@ -5827,7 +5814,7 @@
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>IF('FSLogix Calculator'!B3&gt;('FSLogix Calculator'!E24),"No","Yes")</f>
@@ -5846,42 +5833,42 @@
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="24">
         <f>IF((B31&gt;definitions!B24),99999,B31*definitions!B$29)</f>
         <v>619.5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="16">
         <f>IF((B32&gt;definitions!B24),99999,B32*definitions!B$27)</f>
         <v>1239</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="16">
         <f>IF((B33&gt;definitions!B24),99999,(B33*definitions!B$25))</f>
         <v>1652</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -5895,42 +5882,42 @@
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="15">
         <f>B31/'FSLogix Calculator'!B$3</f>
         <v>35</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="15">
         <f>B32/'FSLogix Calculator'!B$3</f>
         <v>35</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="15">
         <f>B33/'FSLogix Calculator'!B$3</f>
         <v>35</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -5944,42 +5931,42 @@
     </row>
     <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="26">
         <f>IF(B38=definitions!A$23,B38, B38/'FSLogix Calculator'!B$29)</f>
         <v>1.4982876712328768</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="26">
         <f>IF(B39=definitions!A$23,B39, B39/'FSLogix Calculator'!B$29)</f>
         <v>2.9965753424657535</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="26">
         <f>IF(B40=definitions!A$23,B40, B40/'FSLogix Calculator'!B$29)</f>
         <v>3.9954337899543382</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
@@ -5992,46 +5979,46 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="26">
         <f>IF(B38=definitions!A23,B38,B38/'FSLogix Calculator'!B$37)</f>
         <v>0.6</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="26">
         <f>IF(B39=definitions!A23,B39,B39/'FSLogix Calculator'!B$37)</f>
         <v>1.2</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="26">
         <f>IF(B40=definitions!A23,B40,B40/'FSLogix Calculator'!B$37)</f>
         <v>1.6</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="77" t="s">
-        <v>107</v>
+      <c r="A54" s="76" t="s">
+        <v>106</v>
       </c>
       <c r="B54">
         <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
@@ -6060,15 +6047,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="36" t="str">
         <f>IF('FSLogix Calculator'!B15&gt;definitions!B$38,"Required I/O rate exceeds documented 10,000 op rate upper limit","Yes")</f>
@@ -6081,7 +6068,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="38" t="str">
         <f>IF(('FSLogix Calculator'!B13)&gt;definitions!B$39,"Required bandwidth exceeds documented 300MiB/s  upper limit","Yes")</f>
@@ -6094,7 +6081,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="36" t="str">
         <f>IF('FSLogix Calculator'!B16&gt;102400,"Required capacity exceeds documented 100TiB upper limit","Yes")</f>
@@ -6107,7 +6094,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="37" t="str">
         <f>IF(('FSLogix Calculator'!B$4*'FSLogix Calculator'!B$3*'FSLogix Calculator'!B$6)&gt;definitions!B$40,"Required I/O rate exceeds documented 100,000 op rate upper limit","Yes")</f>
@@ -6120,7 +6107,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="37" t="str">
         <f>IF(IF(('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6)&gt;('FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3),'FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6,'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3)&gt;definitions!B42,"Required capacity exceeds documented 100TiB upper limit","Yes")</f>
@@ -6138,7 +6125,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B8" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*(1-'FSLogix Calculator'!B9)))-definitions!B43)/definitions!B44</f>
@@ -6147,7 +6134,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*'FSLogix Calculator'!B9))-definitions!B45)/definitions!B46</f>
@@ -6156,31 +6143,31 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="15">
         <f>IF(B8&lt;100,100,B8)</f>
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="15">
         <f>IF(B9&lt;100,100,B9)</f>
         <v>106.25</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(MAX(B10:B11),B10:B11,C10:C11)</f>
@@ -6193,7 +6180,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" t="str">
         <f>IF(B9&gt;'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6,"Bandwidth Need","I/O Need")</f>
@@ -6206,7 +6193,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" t="str">
         <f>IF(C13&gt;'FSLogix Calculator'!B16,'Azure Files Calculations'!B13,"Profile Size")</f>
@@ -6218,81 +6205,81 @@
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="75"/>
+      <c r="B17" s="74"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="75"/>
+      <c r="B18" s="74"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="No: Required ">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="No: Required ">
       <formula>NOT(ISERROR(SEARCH("No: Required ",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No:  Required ">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="No:  Required ">
       <formula>NOT(ISERROR(SEARCH("No:  Required ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="No:">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="No:">
       <formula>NOT(ISERROR(SEARCH("No:",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6324,13 +6311,13 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6489,23 +6476,23 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
       </c>
       <c r="D22" s="46"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="2"/>
       <c r="D23" s="46"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="15">
         <v>102400</v>
@@ -6514,7 +6501,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="24">
         <v>0.4</v>
@@ -6523,7 +6510,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="15">
         <v>128</v>
@@ -6532,7 +6519,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="24">
         <v>0.3</v>
@@ -6541,7 +6528,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="15">
         <v>64</v>
@@ -6550,7 +6537,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="24">
         <v>0.15</v>
@@ -6559,7 +6546,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="15">
         <v>16</v>
@@ -6568,7 +6555,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="15">
         <v>4096</v>
@@ -6586,7 +6573,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="15">
         <v>12</v>
@@ -6603,7 +6590,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="24">
         <v>0.06</v>
@@ -6612,7 +6599,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="25">
         <f>0.0015/10000</f>
@@ -6621,7 +6608,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="24">
         <v>0.25</v>
@@ -6629,7 +6616,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="15">
         <v>10000</v>
@@ -6637,7 +6624,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="15">
         <v>300</v>
@@ -6645,7 +6632,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="15">
         <v>100000</v>
@@ -6653,7 +6640,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="15">
         <v>102400</v>
@@ -6661,7 +6648,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="15">
         <v>102400</v>
@@ -6669,7 +6656,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B43" s="15">
         <v>60</v>
@@ -6677,15 +6664,15 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" s="74">
+        <v>157</v>
+      </c>
+      <c r="B44" s="73">
         <v>0.06</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B45" s="15">
         <v>40</v>
@@ -6693,15 +6680,15 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" s="74">
+        <v>159</v>
+      </c>
+      <c r="B46" s="73">
         <v>0.04</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="26">
         <v>0.4</v>
@@ -6721,7 +6708,7 @@
   <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R16"/>
+      <selection activeCell="G2" sqref="G2:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6736,120 +6723,120 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
         <v>128</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>130</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>132</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>133</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>134</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>136</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>137</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>138</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>139</v>
       </c>
-      <c r="M1" t="s">
-        <v>140</v>
-      </c>
       <c r="N1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" t="s">
         <v>130</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>131</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>133</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>134</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>135</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>136</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>137</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>138</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>139</v>
       </c>
-      <c r="X1" t="s">
-        <v>140</v>
-      </c>
       <c r="Y1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z1" t="s">
         <v>130</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>131</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>132</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>133</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>134</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>135</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>136</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>137</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>138</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>139</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
         <v>114</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
       </c>
       <c r="D2">
         <v>9027</v>
@@ -6882,7 +6869,7 @@
         <v>124</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O2">
         <v>60267</v>
@@ -6894,7 +6881,7 @@
         <v>65536</v>
       </c>
       <c r="R2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S2">
         <v>2.1063333333299998</v>
@@ -6915,7 +6902,7 @@
         <v>126</v>
       </c>
       <c r="Y2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z2">
         <v>17027</v>
@@ -6927,7 +6914,7 @@
         <v>65536</v>
       </c>
       <c r="AC2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AD2">
         <v>7.4829999999999997</v>
@@ -6950,13 +6937,13 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
         <v>114</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" t="s">
-        <v>116</v>
       </c>
       <c r="D3">
         <v>8997</v>
@@ -6989,7 +6976,7 @@
         <v>125</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O3">
         <v>57317</v>
@@ -7001,7 +6988,7 @@
         <v>65536</v>
       </c>
       <c r="R3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S3">
         <v>2.2126666666700001</v>
@@ -7022,7 +7009,7 @@
         <v>126</v>
       </c>
       <c r="Y3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z3">
         <v>18481</v>
@@ -7034,7 +7021,7 @@
         <v>65536</v>
       </c>
       <c r="AC3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD3">
         <v>6.8860000000000001</v>
@@ -7057,13 +7044,13 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
         <v>114</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
       </c>
       <c r="D4">
         <v>8570</v>
@@ -7096,7 +7083,7 @@
         <v>125</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O4">
         <v>52732</v>
@@ -7108,7 +7095,7 @@
         <v>65536</v>
       </c>
       <c r="R4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S4">
         <v>2.4056666666700002</v>
@@ -7129,7 +7116,7 @@
         <v>126</v>
       </c>
       <c r="Y4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z4">
         <v>19153</v>
@@ -7141,7 +7128,7 @@
         <v>65536</v>
       </c>
       <c r="AC4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD4">
         <v>6.6449999999999996</v>
@@ -7164,13 +7151,13 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
         <v>114</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
       </c>
       <c r="D5">
         <v>7871</v>
@@ -7203,7 +7190,7 @@
         <v>125</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O5">
         <v>51478</v>
@@ -7215,7 +7202,7 @@
         <v>65536</v>
       </c>
       <c r="R5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S5">
         <v>2.4623333333300002</v>
@@ -7236,7 +7223,7 @@
         <v>126</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z5">
         <v>19764</v>
@@ -7248,7 +7235,7 @@
         <v>65536</v>
       </c>
       <c r="AC5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD5">
         <v>6.4393333333299996</v>
@@ -7271,13 +7258,13 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
         <v>114</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>116</v>
       </c>
       <c r="D6">
         <v>6853</v>
@@ -7310,7 +7297,7 @@
         <v>124</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O6">
         <v>48993</v>
@@ -7322,7 +7309,7 @@
         <v>65536</v>
       </c>
       <c r="R6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S6">
         <v>2.5903333333299998</v>
@@ -7343,7 +7330,7 @@
         <v>126</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z6">
         <v>19712</v>
@@ -7355,7 +7342,7 @@
         <v>65536</v>
       </c>
       <c r="AC6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AD6">
         <v>6.4546666666699997</v>
@@ -7378,13 +7365,13 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
         <v>114</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>115</v>
-      </c>
-      <c r="C7" t="s">
-        <v>116</v>
       </c>
       <c r="D7">
         <v>9303</v>
@@ -7417,7 +7404,7 @@
         <v>123</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O7">
         <v>47054</v>
@@ -7429,7 +7416,7 @@
         <v>65536</v>
       </c>
       <c r="R7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S7">
         <v>2.6956666666700002</v>
@@ -7450,7 +7437,7 @@
         <v>126</v>
       </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z7">
         <v>19788</v>
@@ -7462,7 +7449,7 @@
         <v>65536</v>
       </c>
       <c r="AC7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD7">
         <v>6.4283333333300003</v>
@@ -7485,13 +7472,13 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
         <v>114</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
       </c>
       <c r="D8">
         <v>7216</v>
@@ -7524,7 +7511,7 @@
         <v>125</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O8">
         <v>42934</v>
@@ -7536,7 +7523,7 @@
         <v>65536</v>
       </c>
       <c r="R8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S8">
         <v>2.9540000000000002</v>
@@ -7557,7 +7544,7 @@
         <v>126</v>
       </c>
       <c r="Y8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z8">
         <v>18790</v>
@@ -7569,7 +7556,7 @@
         <v>65536</v>
       </c>
       <c r="AC8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD8">
         <v>6.7686666666699997</v>
@@ -7592,13 +7579,13 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
         <v>114</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>115</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
       </c>
       <c r="D9">
         <v>8643</v>
@@ -7631,7 +7618,7 @@
         <v>125</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O9">
         <v>38865</v>
@@ -7643,7 +7630,7 @@
         <v>65536</v>
       </c>
       <c r="R9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S9">
         <v>3.26633333333</v>
@@ -7664,7 +7651,7 @@
         <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z9">
         <v>17559</v>
@@ -7676,7 +7663,7 @@
         <v>65536</v>
       </c>
       <c r="AC9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD9">
         <v>7.2423333333300004</v>
@@ -7699,13 +7686,13 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
         <v>114</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>115</v>
-      </c>
-      <c r="C10" t="s">
-        <v>116</v>
       </c>
       <c r="D10">
         <v>8431</v>
@@ -7738,7 +7725,7 @@
         <v>126</v>
       </c>
       <c r="N10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O10">
         <v>35170</v>
@@ -7750,7 +7737,7 @@
         <v>65536</v>
       </c>
       <c r="R10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S10">
         <v>3.6153333333300002</v>
@@ -7771,7 +7758,7 @@
         <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z10">
         <v>16162</v>
@@ -7783,7 +7770,7 @@
         <v>65536</v>
       </c>
       <c r="AC10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AD10">
         <v>7.8673333333300004</v>
@@ -7806,13 +7793,13 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
         <v>114</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
       </c>
       <c r="D11">
         <v>10134</v>
@@ -7845,7 +7832,7 @@
         <v>125</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O11">
         <v>31849</v>
@@ -7857,7 +7844,7 @@
         <v>65536</v>
       </c>
       <c r="R11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S11">
         <v>3.99633333333</v>
@@ -7878,7 +7865,7 @@
         <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z11">
         <v>15215</v>
@@ -7890,7 +7877,7 @@
         <v>65536</v>
       </c>
       <c r="AC11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD11">
         <v>8.3573333333300006</v>
@@ -7913,13 +7900,13 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
         <v>114</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>115</v>
-      </c>
-      <c r="C12" t="s">
-        <v>116</v>
       </c>
       <c r="D12">
         <v>9700</v>
@@ -7952,7 +7939,7 @@
         <v>127</v>
       </c>
       <c r="N12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O12">
         <v>29482</v>
@@ -7964,7 +7951,7 @@
         <v>65536</v>
       </c>
       <c r="R12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S12">
         <v>4.3016666666700001</v>
@@ -7985,7 +7972,7 @@
         <v>126</v>
       </c>
       <c r="Y12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Z12">
         <v>14265</v>
@@ -7997,7 +7984,7 @@
         <v>65536</v>
       </c>
       <c r="AC12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD12">
         <v>8.9133333333299998</v>
@@ -8031,15 +8018,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100050FBA8A9F0AFB4BB2D0148D6A234C38" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74183e733b66e5e9a3cd5553bd4bd9ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4a052287-e6d5-446a-afc6-58987b850d5f" xmlns:ns4="943a090e-7b96-4eb7-abc0-264fa36c6c5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b903754823e47922d1d3c75b6236d24" ns3:_="" ns4:_="">
     <xsd:import namespace="4a052287-e6d5-446a-afc6-58987b850d5f"/>
@@ -8262,6 +8240,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
   <ds:schemaRefs>
@@ -8280,14 +8267,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097D0541-97F4-46BE-8711-51CFA8DE5931}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8304,4 +8283,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/fslogix-storage-calculator.xlsx
+++ b/fslogix-storage-calculator.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{80057BE8-5265-429A-8C17-C870DB06A720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{139D8C4D-F01E-4B3F-83D6-81314EE328FE}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="t+JkNq9tqmsPWKZG4243dmROwKF3bq/0/pMp0U7P3IbsgB19gsMVOhnXvXvDRyuLi2nqOQxBUhOjuGiZBOrHlQ==" workbookSaltValue="OSy8GVs1Yity0kiwcucv5A==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{80057BE8-5265-429A-8C17-C870DB06A720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EEBFEAFB-EFFE-4838-B7E1-BCA353958299}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
@@ -17,12 +16,9 @@
     <sheet name="FSLogix Calculator" sheetId="1" r:id="rId1"/>
     <sheet name="Azure NetApp Files Calcuations" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Azure Files Calculations" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="definitions" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="Throughput Test" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="definitions" sheetId="2" r:id="rId4"/>
+    <sheet name="Throughput Test" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029" iterate="1" iterateCount="3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -934,6 +930,21 @@
   </cellStyles>
   <dxfs count="98">
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1092,349 +1103,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1762,6 +1430,334 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1885,13 +1881,18 @@
           <c:cat>
             <c:strRef>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$G$2:$G$12</c15:sqref>
-                  </c15:fullRef>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                  <c16:filteredLitCache>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="2">
+                        <c:v>Readpct=80</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c16:filteredLitCache>
                 </c:ext>
               </c:extLst>
-              <c:f>('[1]VDBENCH APF|AF|ANF'!$G$2:$G$3,'[1]VDBENCH APF|AF|ANF'!$G$5:$G$12)</c:f>
+              <c:f/>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1930,13 +1931,19 @@
           <c:val>
             <c:numRef>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$E$145:$E$155</c15:sqref>
-                  </c15:fullRef>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                  <c16:filteredLitCache>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="2">
+                        <c:v>535</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c16:filteredLitCache>
                 </c:ext>
               </c:extLst>
-              <c:f>('[1]VDBENCH APF|AF|ANF'!$E$145:$E$146,'[1]VDBENCH APF|AF|ANF'!$E$148:$E$155)</c:f>
+              <c:f/>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2038,13 +2045,19 @@
           <c:val>
             <c:numRef>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$P$145:$P$155</c15:sqref>
-                  </c15:fullRef>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                  <c16:filteredLitCache>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="2">
+                        <c:v>3295</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c16:filteredLitCache>
                 </c:ext>
               </c:extLst>
-              <c:f>('[1]VDBENCH APF|AF|ANF'!$P$145:$P$146,'[1]VDBENCH APF|AF|ANF'!$P$148:$P$155)</c:f>
+              <c:f/>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2146,13 +2159,19 @@
           <c:val>
             <c:numRef>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$AA$145:$AA$155</c15:sqref>
-                  </c15:fullRef>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                  <c16:filteredLitCache>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="2">
+                        <c:v>1197</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c16:filteredLitCache>
                 </c:ext>
               </c:extLst>
-              <c:f>('[1]VDBENCH APF|AF|ANF'!$AA$145:$AA$146,'[1]VDBENCH APF|AF|ANF'!$AA$148:$AA$155)</c:f>
+              <c:f/>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2271,13 +2290,19 @@
           <c:val>
             <c:numRef>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$H$145:$H$155</c15:sqref>
-                  </c15:fullRef>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                  <c16:filteredLitCache>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="2">
+                        <c:v>14.6566666667</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c16:filteredLitCache>
                 </c:ext>
               </c:extLst>
-              <c:f>('[1]VDBENCH APF|AF|ANF'!$H$145:$H$146,'[1]VDBENCH APF|AF|ANF'!$H$148:$H$155)</c:f>
+              <c:f/>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2382,13 +2407,19 @@
           <c:val>
             <c:numRef>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$S$145:$S$155</c15:sqref>
-                  </c15:fullRef>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                  <c16:filteredLitCache>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="2">
+                        <c:v>2.4056666666700002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c16:filteredLitCache>
                 </c:ext>
               </c:extLst>
-              <c:f>('[1]VDBENCH APF|AF|ANF'!$S$145:$S$146,'[1]VDBENCH APF|AF|ANF'!$S$148:$S$155)</c:f>
+              <c:f/>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2493,13 +2524,19 @@
           <c:val>
             <c:numRef>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'[1]VDBENCH APF|AF|ANF'!$AD$145:$AD$155</c15:sqref>
-                  </c15:fullRef>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                  <c16:filteredLitCache>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="2">
+                        <c:v>6.6449999999999996</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c16:filteredLitCache>
                 </c:ext>
               </c:extLst>
-              <c:f>('[1]VDBENCH APF|AF|ANF'!$AD$145:$AD$146,'[1]VDBENCH APF|AF|ANF'!$AD$148:$AD$155)</c:f>
+              <c:f/>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3572,413 +3609,85 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="(1)FirstLogin50usersAF(d32)"/>
-      <sheetName val="login script"/>
-      <sheetName val="(1)FirstLogin50usersANF(d16sv3)"/>
-      <sheetName val="(2)FirstLogin50usersANF(d16sv3)"/>
-      <sheetName val="(1)FirstLogin50usersANF(d32)"/>
-      <sheetName val="(1)FirstLogin50usersANFd1984GP"/>
-      <sheetName val="(1)2ndLogin50usersANF(d32)"/>
-      <sheetName val="(2)2ndLogin50usersANF(d32)"/>
-      <sheetName val="ANF|APF|AF Powerpoint"/>
-      <sheetName val="VDBENCH APF|AF|ANF"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="VDBENCH APF|ANF"/>
-      <sheetName val="VDBENCH ANF|ANF"/>
-      <sheetName val="VDBENCH APF|AF"/>
-      <sheetName val="VDBENCH APF|APF"/>
-      <sheetName val="VDBENCH AF|AF"/>
-      <sheetName val="Evidence of Object Storage AF"/>
-      <sheetName val="APF Cost Per MiBs"/>
-      <sheetName val="RogersRealWorld_vol_stats"/>
-      <sheetName val="RogersRealWorld_workload_stats"/>
-      <sheetName val="Sheet4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="9">
-        <row r="2">
-          <cell r="G2" t="str">
-            <v>Readpct=100</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="G3" t="str">
-            <v>Readpct=90</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="G4" t="str">
-            <v>Readpct=80</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="G5" t="str">
-            <v>Readpct=70</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="G6" t="str">
-            <v>Readpct=60</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="G7" t="str">
-            <v>Readpct=50</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8" t="str">
-            <v>Readpct=40</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="G9" t="str">
-            <v>Readpct=30</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="G10" t="str">
-            <v>Readpct=20</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="G11" t="str">
-            <v>Readpct=10</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12" t="str">
-            <v>Readpct=0</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="E145">
-            <v>564</v>
-          </cell>
-          <cell r="H145">
-            <v>13.820666666699999</v>
-          </cell>
-          <cell r="P145">
-            <v>3766</v>
-          </cell>
-          <cell r="S145">
-            <v>2.1063333333299998</v>
-          </cell>
-          <cell r="AA145">
-            <v>1064</v>
-          </cell>
-          <cell r="AD145">
-            <v>7.4829999999999997</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="E146">
-            <v>562</v>
-          </cell>
-          <cell r="H146">
-            <v>13.823</v>
-          </cell>
-          <cell r="P146">
-            <v>3582</v>
-          </cell>
-          <cell r="S146">
-            <v>2.2126666666700001</v>
-          </cell>
-          <cell r="AA146">
-            <v>1155</v>
-          </cell>
-          <cell r="AD146">
-            <v>6.8860000000000001</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="E147">
-            <v>535</v>
-          </cell>
-          <cell r="H147">
-            <v>14.6566666667</v>
-          </cell>
-          <cell r="P147">
-            <v>3295</v>
-          </cell>
-          <cell r="S147">
-            <v>2.4056666666700002</v>
-          </cell>
-          <cell r="AA147">
-            <v>1197</v>
-          </cell>
-          <cell r="AD147">
-            <v>6.6449999999999996</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="E148">
-            <v>491</v>
-          </cell>
-          <cell r="H148">
-            <v>15.9073333333</v>
-          </cell>
-          <cell r="P148">
-            <v>3217</v>
-          </cell>
-          <cell r="S148">
-            <v>2.4623333333300002</v>
-          </cell>
-          <cell r="AA148">
-            <v>1235</v>
-          </cell>
-          <cell r="AD148">
-            <v>6.4393333333299996</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="E149">
-            <v>428</v>
-          </cell>
-          <cell r="H149">
-            <v>18.195666666699999</v>
-          </cell>
-          <cell r="P149">
-            <v>3062</v>
-          </cell>
-          <cell r="S149">
-            <v>2.5903333333299998</v>
-          </cell>
-          <cell r="AA149">
-            <v>1232</v>
-          </cell>
-          <cell r="AD149">
-            <v>6.4546666666699997</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="E150">
-            <v>581</v>
-          </cell>
-          <cell r="H150">
-            <v>13.262666666699999</v>
-          </cell>
-          <cell r="P150">
-            <v>2940</v>
-          </cell>
-          <cell r="S150">
-            <v>2.6956666666700002</v>
-          </cell>
-          <cell r="AA150">
-            <v>1236</v>
-          </cell>
-          <cell r="AD150">
-            <v>6.4283333333300003</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="E151">
-            <v>451</v>
-          </cell>
-          <cell r="H151">
-            <v>17.063666666700001</v>
-          </cell>
-          <cell r="P151">
-            <v>2683</v>
-          </cell>
-          <cell r="S151">
-            <v>2.9540000000000002</v>
-          </cell>
-          <cell r="AA151">
-            <v>1174</v>
-          </cell>
-          <cell r="AD151">
-            <v>6.7686666666699997</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="E152">
-            <v>540</v>
-          </cell>
-          <cell r="H152">
-            <v>14.683999999999999</v>
-          </cell>
-          <cell r="P152">
-            <v>2429</v>
-          </cell>
-          <cell r="S152">
-            <v>3.26633333333</v>
-          </cell>
-          <cell r="AA152">
-            <v>1097</v>
-          </cell>
-          <cell r="AD152">
-            <v>7.2423333333300004</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="E153">
-            <v>526</v>
-          </cell>
-          <cell r="H153">
-            <v>15.0756666667</v>
-          </cell>
-          <cell r="P153">
-            <v>2198</v>
-          </cell>
-          <cell r="S153">
-            <v>3.6153333333300002</v>
-          </cell>
-          <cell r="AA153">
-            <v>1010</v>
-          </cell>
-          <cell r="AD153">
-            <v>7.8673333333300004</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="E154">
-            <v>633</v>
-          </cell>
-          <cell r="H154">
-            <v>12.279666666700001</v>
-          </cell>
-          <cell r="P154">
-            <v>1990</v>
-          </cell>
-          <cell r="S154">
-            <v>3.99633333333</v>
-          </cell>
-          <cell r="AA154">
-            <v>950</v>
-          </cell>
-          <cell r="AD154">
-            <v>8.3573333333300006</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="E155">
-            <v>606</v>
-          </cell>
-          <cell r="H155">
-            <v>13.119666666700001</v>
-          </cell>
-          <cell r="P155">
-            <v>1842</v>
-          </cell>
-          <cell r="S155">
-            <v>4.3016666666700001</v>
-          </cell>
-          <cell r="AA155">
-            <v>891</v>
-          </cell>
-          <cell r="AD155">
-            <v>8.9133333333299998</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="97" dataDxfId="96" tableBorderDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="A2:B9" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="A22:B47" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
   <autoFilter ref="A28:B32" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="87" tableBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="50" tableBorderDxfId="49">
   <autoFilter ref="A11:B16" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="83" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="46" tableBorderDxfId="45">
   <autoFilter ref="A36:B38" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="79" tableBorderDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A18:B22" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="75" tableBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="D18:H26" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="70">
+    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="33">
       <calculatedColumnFormula>IF(E20&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="69">
+    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="32">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="68">
+    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="31">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3987,18 +3696,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="67" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
   <autoFilter ref="D28:H34" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="64">
+    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="27">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="63">
+    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="26">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="62">
+    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="25">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4007,15 +3716,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="D36:G42" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="58">
+    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="21">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="57">
+    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="20">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4030,7 +3739,7 @@
     <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
     <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
     <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
-    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{5EBEBC80-5940-4420-B7CB-91D5FC7DF075}" name="Read Percenage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4340,7 +4049,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5193,163 +4902,163 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A36:B39 A28:B34">
-    <cfRule type="cellIs" dxfId="52" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="93" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:H31">
-    <cfRule type="containsText" dxfId="51" priority="23" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="96" priority="23" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="24" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="95" priority="24" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E23">
-    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="41" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="40" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="39" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="31" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="32" operator="equal">
       <formula>"""Yes"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="38" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="33" operator="equal">
       <formula>"Required Capacity Exceeds documented 100TiB Upper Limit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="34" operator="equal">
       <formula>"""Required Capacity Exceeds documented 100TiB Upper Limit"""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="35" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="86" priority="35" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="36" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="85" priority="36" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="37" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="38" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="28" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="27" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="21" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:G38 F40:G40">
-    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="75" priority="18" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="20" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="74" priority="20" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31 E20:E23">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="68" priority="8" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="61" priority="2" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6212,74 +5921,74 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="No: Required ">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="No: Required ">
       <formula>NOT(ISERROR(SEARCH("No: Required ",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="No:  Required ">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No:  Required ">
       <formula>NOT(ISERROR(SEARCH("No:  Required ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="No:">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="No:">
       <formula>NOT(ISERROR(SEARCH("No:",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8018,6 +7727,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100050FBA8A9F0AFB4BB2D0148D6A234C38" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74183e733b66e5e9a3cd5553bd4bd9ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4a052287-e6d5-446a-afc6-58987b850d5f" xmlns:ns4="943a090e-7b96-4eb7-abc0-264fa36c6c5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b903754823e47922d1d3c75b6236d24" ns3:_="" ns4:_="">
     <xsd:import namespace="4a052287-e6d5-446a-afc6-58987b850d5f"/>
@@ -8240,15 +7958,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
   <ds:schemaRefs>
@@ -8267,6 +7976,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097D0541-97F4-46BE-8711-51CFA8DE5931}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8283,12 +8000,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/fslogix-storage-calculator.xlsx
+++ b/fslogix-storage-calculator.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{80057BE8-5265-429A-8C17-C870DB06A720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EEBFEAFB-EFFE-4838-B7E1-BCA353958299}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{02A8BA94-2CA7-429F-88D6-120A4DE887D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F8B5D34-C872-44B9-BF42-2F439AA1730D}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ndZNCZJBhvHEZ6ecM4LG4JK89DH8DsJD2GusS6CiAVRt9OjSV2xPKN5fXuzr29rOTpwmNZYdzqFGJkIiNBLh5w==" workbookSaltValue="wC7jlL0OHhGQ9f2ZcebBZw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
@@ -16,8 +17,8 @@
     <sheet name="FSLogix Calculator" sheetId="1" r:id="rId1"/>
     <sheet name="Azure NetApp Files Calcuations" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="Azure Files Calculations" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="definitions" sheetId="2" r:id="rId4"/>
-    <sheet name="Throughput Test" sheetId="5" r:id="rId5"/>
+    <sheet name="definitions" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Throughput Test" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateCount="3"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="170">
   <si>
     <t>seconds in an hour</t>
   </si>
@@ -246,9 +247,6 @@
     <t>Cost Compared To Azure Premium Files</t>
   </si>
   <si>
-    <t>Supports User Count?</t>
-  </si>
-  <si>
     <t>Monthly Cost Break Down (I/O)</t>
   </si>
   <si>
@@ -477,9 +475,6 @@
     <t>Maximum Tested Bandwidth (MiB/s) At Read %</t>
   </si>
   <si>
-    <t>Required capacity exceeds documented 100TiB upper limit</t>
-  </si>
-  <si>
     <t>Does Calculated Capacity Fit Within Maximum Volume Size? (English)</t>
   </si>
   <si>
@@ -544,6 +539,15 @@
   </si>
   <si>
     <t>Modify: IOPS Per User</t>
+  </si>
+  <si>
+    <t>Required capacity exceeds documented single ANF volume 100TiB upper limit</t>
+  </si>
+  <si>
+    <t>Does Single Storage Account Support User Count?</t>
+  </si>
+  <si>
+    <t>Does Single ANF Volume Support User Count?</t>
   </si>
 </sst>
 </file>
@@ -928,7 +932,355 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="100">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1430,334 +1782,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3610,84 +3634,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" tableBorderDxfId="97">
   <autoFilter ref="A2:B9" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="41">
   <autoFilter ref="A22:B47" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
   <autoFilter ref="A28:B32" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="89" tableBorderDxfId="88">
   <autoFilter ref="A11:B16" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="46" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="85" tableBorderDxfId="84">
   <autoFilter ref="A36:B38" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="81" tableBorderDxfId="80">
   <autoFilter ref="A18:B22" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="77" tableBorderDxfId="76">
   <autoFilter ref="D18:H26" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="72">
       <calculatedColumnFormula>IF(E20&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="71">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="70">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3696,18 +3720,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="D28:H34" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="27">
+    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="66">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="26">
+    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="65">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="64">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3716,15 +3740,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="63" tableBorderDxfId="62">
   <autoFilter ref="D36:G42" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="60">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="59">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3739,7 +3763,7 @@
     <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
     <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
     <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
-    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="42"/>
     <tableColumn id="5" xr3:uid="{5EBEBC80-5940-4420-B7CB-91D5FC7DF075}" name="Read Percenage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4043,19 +4067,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594F1148-3B87-4101-8535-9F7FDD18F1E9}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="4" width="85.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
@@ -4066,7 +4090,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="78"/>
     </row>
@@ -4083,12 +4107,12 @@
         <v>3</v>
       </c>
       <c r="B3" s="32">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" s="32">
         <v>15</v>
@@ -4100,12 +4124,12 @@
         <v>63</v>
       </c>
       <c r="B5" s="32">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="47">
         <v>1</v>
@@ -4123,7 +4147,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="32">
         <v>32</v>
@@ -4133,7 +4157,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="62">
         <v>0.2</v>
@@ -4157,16 +4181,16 @@
       </c>
       <c r="B12" s="18">
         <f>B$3*B$6</f>
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="18">
         <f>(B$4*B$8*B$3*B$6)/1024</f>
-        <v>55.3125</v>
+        <v>64.21875</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4184,7 +4208,7 @@
       </c>
       <c r="B15" s="18">
         <f>B$4*B$3*B6</f>
-        <v>1770</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4193,12 +4217,12 @@
       </c>
       <c r="B16" s="18">
         <f>B5*B3</f>
-        <v>4130</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="79"/>
       <c r="C17" s="79"/>
@@ -4210,16 +4234,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
         <v>57</v>
@@ -4231,16 +4255,16 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="51" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="51" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="54">
-        <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>619.5</v>
+        <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"N/A: User Count Excceds Capability Of Single Azure NetApp Files Volume")</f>
+        <v>616.5</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="E19" s="48" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure NetApp Files Calcuations'!B35:B36,'Azure NetApp Files Calcuations'!B35:B36,"Yes")</f>
@@ -4252,24 +4276,24 @@
       </c>
       <c r="G19" s="66"/>
       <c r="H19" s="65" t="str">
-        <f>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
+        <f>IF(B3&gt;E24,"Required bandwidth exceeds single ANF volume tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="49">
         <f>IF(E19="Yes",IF($E$21=definitions!A$23,B$19,B$19/B$3),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E20" s="52">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$31:$C$33,'Azure NetApp Files Calcuations'!$B$31:$B$33),"No")</f>
-        <v>4130</v>
+        <v>4110</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="67"/>
@@ -4281,10 +4305,10 @@
       </c>
       <c r="B21" s="50">
         <f>IF(E29="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$46:C$48,'Azure NetApp Files Calcuations'!B$46:B$48),"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>1.4982876712328768</v>
+        <v>1.404494382022472</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" s="52" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",(_xlfn.XLOOKUP(MIN('Azure NetApp Files Calcuations'!$B$38:$B$40),'Azure NetApp Files Calcuations'!$B$38:$B$40,'Azure NetApp Files Calcuations'!$C$38:$C$40)),"No")</f>
@@ -4303,11 +4327,11 @@
         <v>0.6</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E22" s="52" t="str">
         <f>IF(E19="No","No",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
-        <v>Capacity</v>
+        <v>Bandwidth</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="67"/>
@@ -4317,11 +4341,11 @@
       <c r="A23" s="35"/>
       <c r="B23" s="50"/>
       <c r="D23" s="35" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E23" s="52">
         <f>IF(E19="Yes",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$42:$C$44,'Azure NetApp Files Calcuations'!$B$42:$B$44,definitions!A$23)),"No")</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F23" s="53"/>
       <c r="G23" s="67"/>
@@ -4331,7 +4355,7 @@
       <c r="A24" s="35"/>
       <c r="B24" s="49"/>
       <c r="D24" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="69">
         <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
@@ -4345,15 +4369,15 @@
       <c r="A25" s="35"/>
       <c r="B25" s="49"/>
       <c r="D25" s="64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E25" s="69">
         <f>'Azure NetApp Files Calcuations'!B5</f>
-        <v>2925</v>
+        <v>3413</v>
       </c>
       <c r="F25" s="68" t="str">
         <f>IF(E26&gt;definitions!B30,definitions!$A$23,"Yes")</f>
-        <v>Required capacity exceeds documented 100TiB upper limit</v>
+        <v>Required capacity exceeds documented single ANF volume 100TiB upper limit</v>
       </c>
       <c r="G25" s="68" t="str">
         <f>IF(B9&gt;E28,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
@@ -4381,7 +4405,7 @@
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="79"/>
       <c r="C27" s="79"/>
@@ -4393,16 +4417,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F28" s="58" t="s">
         <v>57</v>
@@ -4414,16 +4438,16 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="54">
-        <f>IF(E29="Yes",B$32+B$31,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>413.47199999999998</v>
+        <f>IF(E29="Yes",B$32+B$31,"N/A: User Count Exceeds Capability Of Single Azure Files Storage Account")</f>
+        <v>438.94799999999998</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="E29" s="35" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$2:$C$4,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
@@ -4444,18 +4468,18 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="49">
         <f>IF(E29="Yes",B$29/B$3,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>3.504</v>
+        <v>3.2039999999999997</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="18">
         <f>IF(E29="Yes",$B$5*$B$3,"No")</f>
-        <v>4130</v>
+        <v>4110</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="39"/>
@@ -4463,18 +4487,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="49">
         <f>IF(E29="Yes",((B4*B3*B6*definitions!B$32*B$7*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>165.672</v>
+        <v>192.34799999999998</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>66</v>
       </c>
       <c r="E31" s="18">
         <f>IF(E29="Yes",E30/$B$3,"No")</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="43"/>
@@ -4482,14 +4506,14 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="49">
         <f>IF(E29="Yes",B$5*B$3*B6*definitions!B$35,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>247.79999999999998</v>
+        <v>246.6</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E32" s="18">
         <f>FLOOR(   (definitions!$B$38/$B$4)*(1/$B$6),1)</f>
@@ -4503,7 +4527,7 @@
       <c r="A33" s="35"/>
       <c r="B33" s="49"/>
       <c r="D33" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" s="18">
         <f>FLOOR((   (1024*definitions!$B$39)   /   ('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$8)  ) * (1/$B$6   ),1)</f>
@@ -4515,11 +4539,11 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D34" s="64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" s="17">
         <f>definitions!B41/'FSLogix Calculator'!B5</f>
-        <v>2925.7142857142858</v>
+        <v>3413.3333333333335</v>
       </c>
       <c r="F34" s="70"/>
       <c r="G34" s="70"/>
@@ -4527,7 +4551,7 @@
     </row>
     <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="79"/>
       <c r="C35" s="79"/>
@@ -4538,16 +4562,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="34" t="s">
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s">
         <v>57</v>
@@ -4556,16 +4580,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="54">
-        <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calculator'!B3*'FSLogix Calculator'!B4,definitions!B37*'FSLogix Calculator'!B5*'FSLogix Calculator'!B3),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>1032.5</v>
+        <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calculator'!B3*'FSLogix Calculator'!B4,definitions!B37*'FSLogix Calculator'!B5*'FSLogix Calculator'!B3),"N/A: User Count Exceeds Capability Of Single Azure Premium Files Storage Account")</f>
+        <v>1027.5</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="E37" s="35" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$5:$C$7,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
@@ -4582,29 +4606,29 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="23">
         <f>IF(E37="Yes",B$37/B$3,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E38" s="18">
         <f>'Azure Files Calculations'!C14</f>
-        <v>4130</v>
+        <v>4110</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D39" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E39" s="17">
         <f>IF('Azure Files Calculations'!$C$6="Yes",E$38/$B$3,"No")</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="41"/>
@@ -4614,7 +4638,7 @@
       <c r="B40" s="17"/>
       <c r="C40" s="8"/>
       <c r="D40" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E40" s="22" t="str">
         <f>'Azure Files Calculations'!B14</f>
@@ -4628,7 +4652,7 @@
       <c r="B41" s="17"/>
       <c r="C41" s="8"/>
       <c r="D41" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E41" s="18">
         <f>FLOOR(( definitions!$B$40/$B$4) * (1/$B$6),1)</f>
@@ -4640,11 +4664,11 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
       <c r="D42" s="64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E42" s="18">
         <f>definitions!B42/'FSLogix Calculator'!B5</f>
-        <v>2925.7142857142858</v>
+        <v>3413.3333333333335</v>
       </c>
       <c r="F42" s="40"/>
       <c r="G42" s="45"/>
@@ -4893,7 +4917,7 @@
       <c r="E112" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vjT6CCKfIrO/jXzdur1RhpGnjRqhL+DaQXy52zAi/TSyztQjEWBS2QXCVfbW28nJMhsff53LBSETI75V5qR4rw==" saltValue="dqYSPUVkn4pwwVpSznIOyA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Utg0jyYNPar1KiVw45ZuSBHkoWRsVvJh5UJ/K82/yMS7SVS5OBRS9+rF29DL8t2cU+gBNU7SEFaKXJSfD/VFBg==" saltValue="C+TzLKWEZ0rE1g4FfHefcw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A27:H27"/>
@@ -4902,163 +4926,169 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A36:B39 A28:B34">
-    <cfRule type="cellIs" dxfId="97" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="95" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:H31">
-    <cfRule type="containsText" dxfId="96" priority="23" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="24" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E23">
-    <cfRule type="cellIs" dxfId="94" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="93" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="92" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="91" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
       <formula>"""Yes"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="88" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
       <formula>"Required Capacity Exceeds documented 100TiB Upper Limit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
       <formula>"""Required Capacity Exceeds documented 100TiB Upper Limit"""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="35" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="36" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="26" priority="38" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+      <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="83" priority="29" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
-      <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="81" priority="28" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="80" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="79" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="77" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:G38 F40:G40">
-    <cfRule type="containsText" dxfId="75" priority="18" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="20" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="14" priority="22" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31 E20:E23">
-    <cfRule type="cellIs" dxfId="72" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="69" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="68" priority="8" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="66" priority="6" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="2" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5166,6 +5196,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E156B8-3DAB-4F24-8D0A-36FBCF57BCBD}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
@@ -5190,23 +5221,23 @@
       </c>
       <c r="B2" s="15">
         <f>'FSLogix Calculator'!B$16</f>
-        <v>4130</v>
+        <v>4110</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="15">
         <f>'FSLogix Calculator'!B$5</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="2">
         <f>_xlfn.XLOOKUP('FSLogix Calculator'!B$9,'Throughput Test'!G2:G12,'Throughput Test'!P$2:P$12)</f>
@@ -5216,11 +5247,11 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B5" s="2">
         <f>FLOOR(definitions!B24/'FSLogix Calculator'!B$5,1)</f>
-        <v>2925</v>
+        <v>3413</v>
       </c>
       <c r="C5" s="61"/>
     </row>
@@ -5235,7 +5266,7 @@
       </c>
       <c r="B7" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B30</f>
-        <v>3540</v>
+        <v>4110</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>46</v>
@@ -5247,7 +5278,7 @@
       </c>
       <c r="B8" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B28</f>
-        <v>885</v>
+        <v>1027.5</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>47</v>
@@ -5259,7 +5290,7 @@
       </c>
       <c r="B9" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B26</f>
-        <v>442.5</v>
+        <v>513.75</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
@@ -5267,7 +5298,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B$30</f>
@@ -5279,7 +5310,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B28</f>
@@ -5291,7 +5322,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B26</f>
@@ -5312,7 +5343,7 @@
       </c>
       <c r="B15" s="2">
         <f>CEILING(IF(B11&gt;B$3,definitions!B$31/B11,definitions!B$31/B$3),1)</f>
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>46</v>
@@ -5324,7 +5355,7 @@
       </c>
       <c r="B16" s="2">
         <f>CEILING(IF(B12&gt;B$3,definitions!B$31/B12,definitions!B$31/B$3),1)</f>
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>47</v>
@@ -5336,7 +5367,7 @@
       </c>
       <c r="B17" s="2">
         <f>CEILING(IF(B13&gt;B$3,definitions!B$31/B13,definitions!B$31/B$3),1)</f>
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>39</v>
@@ -5349,11 +5380,11 @@
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="15" t="str">
         <f>IF(B$2&gt;B7,"Capacity","Bandwidth")</f>
-        <v>Capacity</v>
+        <v>Bandwidth</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>46</v>
@@ -5361,7 +5392,7 @@
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="15" t="str">
         <f>IF(B$2&gt;B8,"Capacity","Bandwidth")</f>
@@ -5373,7 +5404,7 @@
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="15" t="str">
         <f>IF(B$2&gt;B9,"Capacity","Bandwidth")</f>
@@ -5390,11 +5421,11 @@
     </row>
     <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B23" s="15">
         <f>IF(B$2&gt;B7,B$2,B7)</f>
-        <v>4130</v>
+        <v>4110</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>46</v>
@@ -5402,11 +5433,11 @@
     </row>
     <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B24" s="15">
         <f>IF(B$2&gt;B8,B$2,B8)</f>
-        <v>4130</v>
+        <v>4110</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>47</v>
@@ -5414,11 +5445,11 @@
     </row>
     <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B25" s="15">
         <f>IF(B$2&gt;B9,B$2,B9)</f>
-        <v>4130</v>
+        <v>4110</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
@@ -5431,11 +5462,11 @@
     </row>
     <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="15" t="str">
         <f>IF(B23&gt;definitions!B$31,B19,"Capacity Pool Minimum Size")</f>
-        <v>Capacity</v>
+        <v>Bandwidth</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>46</v>
@@ -5443,7 +5474,7 @@
     </row>
     <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="15" t="str">
         <f>IF(B24&gt;definitions!B$31,B20,"Capacity Pool Minimum Size")</f>
@@ -5455,7 +5486,7 @@
     </row>
     <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="15" t="str">
         <f>IF(B25&gt;definitions!B$31,B21,"Capacity Pool Minimum Size")</f>
@@ -5472,11 +5503,11 @@
     </row>
     <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="15">
         <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
-        <v>4130</v>
+        <v>4110</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -5484,11 +5515,11 @@
     </row>
     <row r="32" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="15">
         <f>IF(B24&gt;definitions!B$31,B24,definitions!B$31)</f>
-        <v>4130</v>
+        <v>4110</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>47</v>
@@ -5496,11 +5527,11 @@
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="15">
         <f>IF(B25&gt;definitions!B$31,B25,definitions!B$31)</f>
-        <v>4130</v>
+        <v>4110</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>39</v>
@@ -5513,7 +5544,7 @@
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B35" s="15" t="str">
         <f>IF(MIN(B31:B33)&gt;definitions!B24,"No","Yes")</f>
@@ -5523,7 +5554,7 @@
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>IF('FSLogix Calculator'!B3&gt;('FSLogix Calculator'!E24),"No","Yes")</f>
@@ -5546,7 +5577,7 @@
       </c>
       <c r="B38" s="24">
         <f>IF((B31&gt;definitions!B24),99999,B31*definitions!B$29)</f>
-        <v>619.5</v>
+        <v>616.5</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>46</v>
@@ -5560,7 +5591,7 @@
       </c>
       <c r="B39" s="16">
         <f>IF((B32&gt;definitions!B24),99999,B32*definitions!B$27)</f>
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>47</v>
@@ -5574,7 +5605,7 @@
       </c>
       <c r="B40" s="16">
         <f>IF((B33&gt;definitions!B24),99999,(B33*definitions!B$25))</f>
-        <v>1652</v>
+        <v>1644</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>39</v>
@@ -5595,7 +5626,7 @@
       </c>
       <c r="B42" s="15">
         <f>B31/'FSLogix Calculator'!B$3</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>46</v>
@@ -5609,7 +5640,7 @@
       </c>
       <c r="B43" s="15">
         <f>B32/'FSLogix Calculator'!B$3</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>47</v>
@@ -5623,7 +5654,7 @@
       </c>
       <c r="B44" s="15">
         <f>B33/'FSLogix Calculator'!B$3</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>39</v>
@@ -5644,7 +5675,7 @@
       </c>
       <c r="B46" s="26">
         <f>IF(B38=definitions!A$23,B38, B38/'FSLogix Calculator'!B$29)</f>
-        <v>1.4982876712328768</v>
+        <v>1.404494382022472</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>46</v>
@@ -5658,7 +5689,7 @@
       </c>
       <c r="B47" s="26">
         <f>IF(B39=definitions!A$23,B39, B39/'FSLogix Calculator'!B$29)</f>
-        <v>2.9965753424657535</v>
+        <v>2.808988764044944</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>47</v>
@@ -5672,7 +5703,7 @@
       </c>
       <c r="B48" s="26">
         <f>IF(B40=definitions!A$23,B40, B40/'FSLogix Calculator'!B$29)</f>
-        <v>3.9954337899543382</v>
+        <v>3.7453183520599254</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>39</v>
@@ -5727,7 +5758,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54">
         <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
@@ -5741,10 +5772,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E85F820-7E22-48AB-88D3-5118FCDA0E46}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5767,7 +5799,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="36" t="str">
-        <f>IF('FSLogix Calculator'!B15&gt;definitions!B$38,"Required I/O rate exceeds documented 10,000 op rate upper limit","Yes")</f>
+        <f>IF('FSLogix Calculator'!B15&gt;definitions!B$38,"Required I/O rate exceeds documented single storage account 10,000 op rate upper limit","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C2" s="37" t="str">
@@ -5780,7 +5812,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="38" t="str">
-        <f>IF(('FSLogix Calculator'!B13)&gt;definitions!B$39,"Required bandwidth exceeds documented 300MiB/s  upper limit","Yes")</f>
+        <f>IF(('FSLogix Calculator'!B13)&gt;definitions!B$39,"Required bandwidth exceeds documented single storage account 300MiB/s  upper limit","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C3" s="37" t="str">
@@ -5793,7 +5825,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="36" t="str">
-        <f>IF('FSLogix Calculator'!B16&gt;102400,"Required capacity exceeds documented 100TiB upper limit","Yes")</f>
+        <f>IF('FSLogix Calculator'!B16&gt;102400,"Required capacity exceeds documented single storage account 100TiB upper limit","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C4" s="37" t="str">
@@ -5806,7 +5838,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="37" t="str">
-        <f>IF(('FSLogix Calculator'!B$4*'FSLogix Calculator'!B$3*'FSLogix Calculator'!B$6)&gt;definitions!B$40,"Required I/O rate exceeds documented 100,000 op rate upper limit","Yes")</f>
+        <f>IF(('FSLogix Calculator'!B$4*'FSLogix Calculator'!B$3*'FSLogix Calculator'!B$6)&gt;definitions!B$40,"Required I/O rate exceeds documented single storage account 100,000 op rate upper limit","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C5" s="37" t="str">
@@ -5816,7 +5848,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="37" t="str">
         <f>IF(IF(('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6)&gt;('FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3),'FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6,'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3)&gt;definitions!B42,"Required capacity exceeds documented 100TiB upper limit","Yes")</f>
@@ -5834,49 +5866,49 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*(1-'FSLogix Calculator'!B9)))-definitions!B43)/definitions!B44</f>
-        <v>-815.625</v>
+        <v>-785.9375</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B9" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*'FSLogix Calculator'!B9))-definitions!B45)/definitions!B46</f>
-        <v>106.25</v>
+        <v>284.375</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" s="15">
         <f>IF(B8&lt;100,100,B8)</f>
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B11" s="15">
         <f>IF(B9&lt;100,100,B9)</f>
-        <v>106.25</v>
+        <v>284.375</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(MAX(B10:B11),B10:B11,C10:C11)</f>
@@ -5884,12 +5916,12 @@
       </c>
       <c r="C12" s="15">
         <f>MAX(B10:B11)</f>
-        <v>106.25</v>
+        <v>284.375</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B13" t="str">
         <f>IF(B9&gt;'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6,"Bandwidth Need","I/O Need")</f>
@@ -5897,12 +5929,12 @@
       </c>
       <c r="C13" s="15">
         <f>IF(B9&gt;'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6,C$12,'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6)</f>
-        <v>1770</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B14" t="str">
         <f>IF(C13&gt;'FSLogix Calculator'!B16,'Azure Files Calculations'!B13,"Profile Size")</f>
@@ -5910,7 +5942,7 @@
       </c>
       <c r="C14" s="15">
         <f>IF(C13&gt;'FSLogix Calculator'!B16,'Azure Files Calculations'!C13,'FSLogix Calculator'!B16)</f>
-        <v>4130</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -5921,74 +5953,74 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="16" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="No: Required ">
+    <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="No: Required ">
       <formula>NOT(ISERROR(SEARCH("No: Required ",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No:  Required ">
+    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="No:  Required ">
       <formula>NOT(ISERROR(SEARCH("No:  Required ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="No:">
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="No:">
       <formula>NOT(ISERROR(SEARCH("No:",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5998,10 +6030,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8274658-AC29-4B53-B5B1-54B6D412C541}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6026,7 +6059,7 @@
         <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6194,7 +6227,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B23" s="2"/>
       <c r="D23" s="46"/>
@@ -6349,7 +6382,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="15">
         <v>102400</v>
@@ -6357,7 +6390,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="15">
         <v>102400</v>
@@ -6365,7 +6398,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B43" s="15">
         <v>60</v>
@@ -6373,7 +6406,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B44" s="73">
         <v>0.06</v>
@@ -6381,7 +6414,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B45" s="15">
         <v>40</v>
@@ -6389,7 +6422,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B46" s="73">
         <v>0.04</v>
@@ -6397,7 +6430,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" s="26">
         <v>0.4</v>
@@ -6414,10 +6447,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA9B902-59E6-4153-97E0-22C91333C597}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AI12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G12"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6432,120 +6466,120 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
         <v>127</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>128</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>129</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>130</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>132</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>133</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>135</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>136</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>137</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>138</v>
       </c>
-      <c r="M1" t="s">
-        <v>139</v>
-      </c>
       <c r="N1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" t="s">
         <v>129</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>130</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>132</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>133</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>134</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>135</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>136</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>137</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>138</v>
       </c>
-      <c r="X1" t="s">
-        <v>139</v>
-      </c>
       <c r="Y1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z1" t="s">
         <v>129</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>130</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>131</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>132</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>133</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>134</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>135</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>136</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>137</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>138</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
         <v>113</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
       </c>
       <c r="D2">
         <v>9027</v>
@@ -6578,7 +6612,7 @@
         <v>124</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O2">
         <v>60267</v>
@@ -6590,7 +6624,7 @@
         <v>65536</v>
       </c>
       <c r="R2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S2">
         <v>2.1063333333299998</v>
@@ -6611,7 +6645,7 @@
         <v>126</v>
       </c>
       <c r="Y2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z2">
         <v>17027</v>
@@ -6623,7 +6657,7 @@
         <v>65536</v>
       </c>
       <c r="AC2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD2">
         <v>7.4829999999999997</v>
@@ -6646,13 +6680,13 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
         <v>113</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
       </c>
       <c r="D3">
         <v>8997</v>
@@ -6685,7 +6719,7 @@
         <v>125</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O3">
         <v>57317</v>
@@ -6697,7 +6731,7 @@
         <v>65536</v>
       </c>
       <c r="R3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S3">
         <v>2.2126666666700001</v>
@@ -6718,7 +6752,7 @@
         <v>126</v>
       </c>
       <c r="Y3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z3">
         <v>18481</v>
@@ -6730,7 +6764,7 @@
         <v>65536</v>
       </c>
       <c r="AC3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AD3">
         <v>6.8860000000000001</v>
@@ -6753,13 +6787,13 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
       </c>
       <c r="D4">
         <v>8570</v>
@@ -6792,7 +6826,7 @@
         <v>125</v>
       </c>
       <c r="N4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O4">
         <v>52732</v>
@@ -6804,7 +6838,7 @@
         <v>65536</v>
       </c>
       <c r="R4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S4">
         <v>2.4056666666700002</v>
@@ -6825,7 +6859,7 @@
         <v>126</v>
       </c>
       <c r="Y4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z4">
         <v>19153</v>
@@ -6837,7 +6871,7 @@
         <v>65536</v>
       </c>
       <c r="AC4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD4">
         <v>6.6449999999999996</v>
@@ -6860,13 +6894,13 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
         <v>113</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>115</v>
       </c>
       <c r="D5">
         <v>7871</v>
@@ -6899,7 +6933,7 @@
         <v>125</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O5">
         <v>51478</v>
@@ -6911,7 +6945,7 @@
         <v>65536</v>
       </c>
       <c r="R5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S5">
         <v>2.4623333333300002</v>
@@ -6932,7 +6966,7 @@
         <v>126</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z5">
         <v>19764</v>
@@ -6944,7 +6978,7 @@
         <v>65536</v>
       </c>
       <c r="AC5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD5">
         <v>6.4393333333299996</v>
@@ -6967,13 +7001,13 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
         <v>113</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
       </c>
       <c r="D6">
         <v>6853</v>
@@ -7006,7 +7040,7 @@
         <v>124</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O6">
         <v>48993</v>
@@ -7018,7 +7052,7 @@
         <v>65536</v>
       </c>
       <c r="R6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S6">
         <v>2.5903333333299998</v>
@@ -7039,7 +7073,7 @@
         <v>126</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z6">
         <v>19712</v>
@@ -7051,7 +7085,7 @@
         <v>65536</v>
       </c>
       <c r="AC6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD6">
         <v>6.4546666666699997</v>
@@ -7074,13 +7108,13 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
         <v>113</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>114</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
       </c>
       <c r="D7">
         <v>9303</v>
@@ -7113,7 +7147,7 @@
         <v>123</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7">
         <v>47054</v>
@@ -7125,7 +7159,7 @@
         <v>65536</v>
       </c>
       <c r="R7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S7">
         <v>2.6956666666700002</v>
@@ -7146,7 +7180,7 @@
         <v>126</v>
       </c>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z7">
         <v>19788</v>
@@ -7158,7 +7192,7 @@
         <v>65536</v>
       </c>
       <c r="AC7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AD7">
         <v>6.4283333333300003</v>
@@ -7181,13 +7215,13 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
         <v>113</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>114</v>
-      </c>
-      <c r="C8" t="s">
-        <v>115</v>
       </c>
       <c r="D8">
         <v>7216</v>
@@ -7220,7 +7254,7 @@
         <v>125</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O8">
         <v>42934</v>
@@ -7232,7 +7266,7 @@
         <v>65536</v>
       </c>
       <c r="R8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S8">
         <v>2.9540000000000002</v>
@@ -7253,7 +7287,7 @@
         <v>126</v>
       </c>
       <c r="Y8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z8">
         <v>18790</v>
@@ -7265,7 +7299,7 @@
         <v>65536</v>
       </c>
       <c r="AC8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD8">
         <v>6.7686666666699997</v>
@@ -7288,13 +7322,13 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
       </c>
       <c r="D9">
         <v>8643</v>
@@ -7327,7 +7361,7 @@
         <v>125</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O9">
         <v>38865</v>
@@ -7339,7 +7373,7 @@
         <v>65536</v>
       </c>
       <c r="R9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S9">
         <v>3.26633333333</v>
@@ -7360,7 +7394,7 @@
         <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z9">
         <v>17559</v>
@@ -7372,7 +7406,7 @@
         <v>65536</v>
       </c>
       <c r="AC9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD9">
         <v>7.2423333333300004</v>
@@ -7395,13 +7429,13 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
         <v>113</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>114</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
       </c>
       <c r="D10">
         <v>8431</v>
@@ -7434,7 +7468,7 @@
         <v>126</v>
       </c>
       <c r="N10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O10">
         <v>35170</v>
@@ -7446,7 +7480,7 @@
         <v>65536</v>
       </c>
       <c r="R10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S10">
         <v>3.6153333333300002</v>
@@ -7467,7 +7501,7 @@
         <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z10">
         <v>16162</v>
@@ -7479,7 +7513,7 @@
         <v>65536</v>
       </c>
       <c r="AC10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD10">
         <v>7.8673333333300004</v>
@@ -7502,13 +7536,13 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
         <v>113</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>114</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
       </c>
       <c r="D11">
         <v>10134</v>
@@ -7541,7 +7575,7 @@
         <v>125</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O11">
         <v>31849</v>
@@ -7553,7 +7587,7 @@
         <v>65536</v>
       </c>
       <c r="R11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S11">
         <v>3.99633333333</v>
@@ -7574,7 +7608,7 @@
         <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z11">
         <v>15215</v>
@@ -7586,7 +7620,7 @@
         <v>65536</v>
       </c>
       <c r="AC11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AD11">
         <v>8.3573333333300006</v>
@@ -7609,13 +7643,13 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
         <v>113</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>114</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
       </c>
       <c r="D12">
         <v>9700</v>
@@ -7648,7 +7682,7 @@
         <v>127</v>
       </c>
       <c r="N12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O12">
         <v>29482</v>
@@ -7660,7 +7694,7 @@
         <v>65536</v>
       </c>
       <c r="R12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S12">
         <v>4.3016666666700001</v>
@@ -7681,7 +7715,7 @@
         <v>126</v>
       </c>
       <c r="Y12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z12">
         <v>14265</v>
@@ -7693,7 +7727,7 @@
         <v>65536</v>
       </c>
       <c r="AC12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD12">
         <v>8.9133333333299998</v>
@@ -7721,21 +7755,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100050FBA8A9F0AFB4BB2D0148D6A234C38" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74183e733b66e5e9a3cd5553bd4bd9ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4a052287-e6d5-446a-afc6-58987b850d5f" xmlns:ns4="943a090e-7b96-4eb7-abc0-264fa36c6c5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b903754823e47922d1d3c75b6236d24" ns3:_="" ns4:_="">
     <xsd:import namespace="4a052287-e6d5-446a-afc6-58987b850d5f"/>
@@ -7958,32 +7977,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4a052287-e6d5-446a-afc6-58987b850d5f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="943a090e-7b96-4eb7-abc0-264fa36c6c5d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097D0541-97F4-46BE-8711-51CFA8DE5931}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8000,4 +8009,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4a052287-e6d5-446a-afc6-58987b850d5f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="943a090e-7b96-4eb7-abc0-264fa36c6c5d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/fslogix-storage-calculator.xlsx
+++ b/fslogix-storage-calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{02A8BA94-2CA7-429F-88D6-120A4DE887D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F8B5D34-C872-44B9-BF42-2F439AA1730D}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{02A8BA94-2CA7-429F-88D6-120A4DE887D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{807C5E03-23A1-4568-AEE5-5CF85DA3DC2E}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ndZNCZJBhvHEZ6ecM4LG4JK89DH8DsJD2GusS6CiAVRt9OjSV2xPKN5fXuzr29rOTpwmNZYdzqFGJkIiNBLh5w==" workbookSaltValue="wC7jlL0OHhGQ9f2ZcebBZw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
@@ -934,354 +934,6 @@
   </cellStyles>
   <dxfs count="100">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1782,6 +1434,354 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3634,84 +3634,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" tableBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="A2:B9" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="A22:B47" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
   <autoFilter ref="A28:B32" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="89" tableBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="50" tableBorderDxfId="49">
   <autoFilter ref="A11:B16" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="85" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="46" tableBorderDxfId="45">
   <autoFilter ref="A36:B38" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="81" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A18:B22" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="77" tableBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="D18:H26" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="33">
       <calculatedColumnFormula>IF(E20&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="71">
+    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="32">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="70">
+    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="31">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3720,18 +3720,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
   <autoFilter ref="D28:H34" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="66">
+    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="27">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="65">
+    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="26">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="64">
+    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="25">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3740,15 +3740,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="63" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="D36:G42" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="60">
+    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="21">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="59">
+    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="20">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3763,7 +3763,7 @@
     <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
     <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
     <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
-    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{5EBEBC80-5940-4420-B7CB-91D5FC7DF075}" name="Read Percenage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4073,7 +4073,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4107,7 +4107,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="32">
-        <v>137</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4115,7 +4115,7 @@
         <v>166</v>
       </c>
       <c r="B4" s="32">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D4" s="57"/>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B12" s="18">
         <f>B$3*B$6</f>
-        <v>137</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B13" s="18">
         <f>(B$4*B$8*B$3*B$6)/1024</f>
-        <v>64.21875</v>
+        <v>78.125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="B14" s="18">
         <f>(B$4*B$8)</f>
-        <v>480</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B15" s="18">
         <f>B$4*B$3*B6</f>
-        <v>2055</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="B16" s="18">
         <f>B5*B3</f>
-        <v>4110</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B19" s="54">
         <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"N/A: User Count Excceds Capability Of Single Azure NetApp Files Volume")</f>
-        <v>616.5</v>
+        <v>2250</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>169</v>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="E20" s="52">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$31:$C$33,'Azure NetApp Files Calcuations'!$B$31:$B$33),"No")</f>
-        <v>4110</v>
+        <v>15000</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="67"/>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="B21" s="50">
         <f>IF(E29="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$46:C$48,'Azure NetApp Files Calcuations'!B$46:B$48),"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>1.404494382022472</v>
+        <v>1.9841269841269842</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>110</v>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E22" s="52" t="str">
         <f>IF(E19="No","No",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
-        <v>Bandwidth</v>
+        <v>Capacity</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="67"/>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="E24" s="69">
         <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
-        <v>4689</v>
+        <v>14067</v>
       </c>
       <c r="F24" s="68"/>
       <c r="G24" s="67"/>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="B29" s="54">
         <f>IF(E29="Yes",B$32+B$31,"N/A: User Count Exceeds Capability Of Single Azure Files Storage Account")</f>
-        <v>438.94799999999998</v>
+        <v>1134</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>168</v>
@@ -4472,14 +4472,14 @@
       </c>
       <c r="B30" s="49">
         <f>IF(E29="Yes",B$29/B$3,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>3.2039999999999997</v>
+        <v>2.2679999999999998</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>77</v>
       </c>
       <c r="E30" s="18">
         <f>IF(E29="Yes",$B$5*$B$3,"No")</f>
-        <v>4110</v>
+        <v>15000</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="39"/>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B31" s="49">
         <f>IF(E29="Yes",((B4*B3*B6*definitions!B$32*B$7*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>192.34799999999998</v>
+        <v>234</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>66</v>
@@ -4510,14 +4510,14 @@
       </c>
       <c r="B32" s="49">
         <f>IF(E29="Yes",B$5*B$3*B6*definitions!B$35,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>246.6</v>
+        <v>900</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>104</v>
       </c>
       <c r="E32" s="18">
         <f>FLOOR(   (definitions!$B$38/$B$4)*(1/$B$6),1)</f>
-        <v>666</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="E33" s="18">
         <f>FLOOR((   (1024*definitions!$B$39)   /   ('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$8)  ) * (1/$B$6   ),1)</f>
-        <v>640</v>
+        <v>1920</v>
       </c>
       <c r="F33" s="40"/>
       <c r="G33" s="39"/>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="B37" s="54">
         <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calculator'!B3*'FSLogix Calculator'!B4,definitions!B37*'FSLogix Calculator'!B5*'FSLogix Calculator'!B3),"N/A: User Count Exceeds Capability Of Single Azure Premium Files Storage Account")</f>
-        <v>1027.5</v>
+        <v>3750</v>
       </c>
       <c r="D37" s="34" t="s">
         <v>168</v>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="E38" s="18">
         <f>'Azure Files Calculations'!C14</f>
-        <v>4110</v>
+        <v>15000</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="E41" s="18">
         <f>FLOOR(( definitions!$B$40/$B$4) * (1/$B$6),1)</f>
-        <v>6666</v>
+        <v>20000</v>
       </c>
       <c r="F41" s="40"/>
       <c r="G41" s="45"/>
@@ -4917,7 +4917,7 @@
       <c r="E112" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Utg0jyYNPar1KiVw45ZuSBHkoWRsVvJh5UJ/K82/yMS7SVS5OBRS9+rF29DL8t2cU+gBNU7SEFaKXJSfD/VFBg==" saltValue="C+TzLKWEZ0rE1g4FfHefcw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ifzIOjUDrtMdILxiGo4rMHq1f0JvnEmS+cvF1ZXmyGKRVrkhOFQQ8LcWDINrmudAx5+bDE3uXEQ4n3u88UJXhQ==" saltValue="v9rAeQyApy4jctYapCYSZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A27:H27"/>
@@ -4926,169 +4926,169 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A36:B39 A28:B34">
-    <cfRule type="cellIs" dxfId="38" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="95" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:H31">
-    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="98" priority="25" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="97" priority="26" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E23">
-    <cfRule type="cellIs" dxfId="35" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="43" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="42" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="41" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="33" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="34" operator="equal">
       <formula>"""Yes"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="40" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="35" operator="equal">
       <formula>"Required Capacity Exceeds documented 100TiB Upper Limit"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="36" operator="equal">
       <formula>"""Required Capacity Exceeds documented 100TiB Upper Limit"""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="88" priority="37" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="38" operator="containsText" text="&quot;Required&quot;">
+    <cfRule type="containsText" dxfId="87" priority="38" operator="containsText" text="&quot;Required&quot;">
       <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="39" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="85" priority="2" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="31" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="32" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="29" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="19" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="27" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="28" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="23" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="24" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:G38 F40:G40">
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="76" priority="20" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="22" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="75" priority="22" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="13" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="21" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31 E20:E23">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="15" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="69" priority="10" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="67" priority="8" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5110,7 +5110,7 @@
       <formula2>168</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" sqref="B7" xr:uid="{A1CCD0B8-6B2D-42A1-89B6-7ABA9C370E18}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" errorTitle="IOPS: Incorrect Input" error="Please enter a whole number between 1 and 200." promptTitle="Storage IOPS: Env Dependant" prompt="Suggested values:_x000a_Per LoginVSI: 4_x000a_Per FSLogix Team: 15_x000a_With Offline Cache and Office365 Cache: 60 - 120" sqref="B4" xr:uid="{E2E3AE84-252F-4455-AC8B-A92442F4F96A}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" errorTitle="IOPS: Incorrect Input" error="Please enter a whole number between 1 and 200." promptTitle="Storage IOPS: Env Dependant" prompt="Suggested values for user profile containers_x000a_Without Office365: 5_x000a_With Office365: 15_x000a_With Offline Cache and Office365 Cache: 60 - 120" sqref="B4" xr:uid="{E2E3AE84-252F-4455-AC8B-A92442F4F96A}">
       <formula1>1</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B2" s="15">
         <f>'FSLogix Calculator'!B$16</f>
-        <v>4110</v>
+        <v>15000</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="B7" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B30</f>
-        <v>4110</v>
+        <v>5000</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>46</v>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B8" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B28</f>
-        <v>1027.5</v>
+        <v>1250</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>47</v>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="B9" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B26</f>
-        <v>513.75</v>
+        <v>625</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
@@ -5302,7 +5302,7 @@
       </c>
       <c r="B11" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B$30</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>46</v>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="B12" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B28</f>
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>47</v>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="B13" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B26</f>
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>39</v>
@@ -5384,7 +5384,7 @@
       </c>
       <c r="B19" s="15" t="str">
         <f>IF(B$2&gt;B7,"Capacity","Bandwidth")</f>
-        <v>Bandwidth</v>
+        <v>Capacity</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>46</v>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="B23" s="15">
         <f>IF(B$2&gt;B7,B$2,B7)</f>
-        <v>4110</v>
+        <v>15000</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>46</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="B24" s="15">
         <f>IF(B$2&gt;B8,B$2,B8)</f>
-        <v>4110</v>
+        <v>15000</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>47</v>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="B25" s="15">
         <f>IF(B$2&gt;B9,B$2,B9)</f>
-        <v>4110</v>
+        <v>15000</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="B27" s="15" t="str">
         <f>IF(B23&gt;definitions!B$31,B19,"Capacity Pool Minimum Size")</f>
-        <v>Bandwidth</v>
+        <v>Capacity</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>46</v>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B31" s="15">
         <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
-        <v>4110</v>
+        <v>15000</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B32" s="15">
         <f>IF(B24&gt;definitions!B$31,B24,definitions!B$31)</f>
-        <v>4110</v>
+        <v>15000</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>47</v>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="B33" s="15">
         <f>IF(B25&gt;definitions!B$31,B25,definitions!B$31)</f>
-        <v>4110</v>
+        <v>15000</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>39</v>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B38" s="24">
         <f>IF((B31&gt;definitions!B24),99999,B31*definitions!B$29)</f>
-        <v>616.5</v>
+        <v>2250</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>46</v>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="B39" s="16">
         <f>IF((B32&gt;definitions!B24),99999,B32*definitions!B$27)</f>
-        <v>1233</v>
+        <v>4500</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>47</v>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="B40" s="16">
         <f>IF((B33&gt;definitions!B24),99999,(B33*definitions!B$25))</f>
-        <v>1644</v>
+        <v>6000</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>39</v>
@@ -5675,7 +5675,7 @@
       </c>
       <c r="B46" s="26">
         <f>IF(B38=definitions!A$23,B38, B38/'FSLogix Calculator'!B$29)</f>
-        <v>1.404494382022472</v>
+        <v>1.9841269841269842</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>46</v>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="B47" s="26">
         <f>IF(B39=definitions!A$23,B39, B39/'FSLogix Calculator'!B$29)</f>
-        <v>2.808988764044944</v>
+        <v>3.9682539682539684</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>47</v>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="B48" s="26">
         <f>IF(B40=definitions!A$23,B40, B40/'FSLogix Calculator'!B$29)</f>
-        <v>3.7453183520599254</v>
+        <v>5.2910052910052912</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>39</v>
@@ -5762,7 +5762,7 @@
       </c>
       <c r="B54">
         <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
-        <v>4689</v>
+        <v>14067</v>
       </c>
     </row>
   </sheetData>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="B8" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*(1-'FSLogix Calculator'!B9)))-definitions!B43)/definitions!B44</f>
-        <v>-785.9375</v>
+        <v>-739.58333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="B9" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*'FSLogix Calculator'!B9))-definitions!B45)/definitions!B46</f>
-        <v>284.375</v>
+        <v>562.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="B11" s="15">
         <f>IF(B9&lt;100,100,B9)</f>
-        <v>284.375</v>
+        <v>562.5</v>
       </c>
       <c r="C11" t="s">
         <v>143</v>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="C12" s="15">
         <f>MAX(B10:B11)</f>
-        <v>284.375</v>
+        <v>562.5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="C13" s="15">
         <f>IF(B9&gt;'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6,C$12,'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6)</f>
-        <v>2055</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="C14" s="15">
         <f>IF(C13&gt;'FSLogix Calculator'!B16,'Azure Files Calculations'!C13,'FSLogix Calculator'!B16)</f>
-        <v>4110</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -5953,74 +5953,74 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="58" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="No: Required ">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="No: Required ">
       <formula>NOT(ISERROR(SEARCH("No: Required ",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="No:  Required ">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No:  Required ">
       <formula>NOT(ISERROR(SEARCH("No:  Required ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="No:">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="No:">
       <formula>NOT(ISERROR(SEARCH("No:",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7755,6 +7755,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100050FBA8A9F0AFB4BB2D0148D6A234C38" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74183e733b66e5e9a3cd5553bd4bd9ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4a052287-e6d5-446a-afc6-58987b850d5f" xmlns:ns4="943a090e-7b96-4eb7-abc0-264fa36c6c5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b903754823e47922d1d3c75b6236d24" ns3:_="" ns4:_="">
     <xsd:import namespace="4a052287-e6d5-446a-afc6-58987b850d5f"/>
@@ -7977,15 +7986,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7993,6 +7993,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097D0541-97F4-46BE-8711-51CFA8DE5931}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8007,14 +8015,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/fslogix-storage-calculator.xlsx
+++ b/fslogix-storage-calculator.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{02A8BA94-2CA7-429F-88D6-120A4DE887D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{807C5E03-23A1-4568-AEE5-5CF85DA3DC2E}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ndZNCZJBhvHEZ6ecM4LG4JK89DH8DsJD2GusS6CiAVRt9OjSV2xPKN5fXuzr29rOTpwmNZYdzqFGJkIiNBLh5w==" workbookSaltValue="wC7jlL0OHhGQ9f2ZcebBZw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{0294103F-81B7-408B-BC58-3124AEB2A8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8E404018-6F9C-4EF4-A10E-72F4772CCA02}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="171">
   <si>
     <t>seconds in an hour</t>
   </si>
@@ -548,6 +547,9 @@
   </si>
   <si>
     <t>Does Single ANF Volume Support User Count?</t>
+  </si>
+  <si>
+    <t>Configure more than one volume</t>
   </si>
 </sst>
 </file>
@@ -934,6 +936,354 @@
   </cellStyles>
   <dxfs count="100">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1434,354 +1784,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3634,84 +3636,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" tableBorderDxfId="97">
   <autoFilter ref="A2:B9" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="41">
   <autoFilter ref="A22:B47" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
   <autoFilter ref="A28:B32" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="89" tableBorderDxfId="88">
   <autoFilter ref="A11:B16" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="46" tableBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="85" tableBorderDxfId="84">
   <autoFilter ref="A36:B38" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="81" tableBorderDxfId="80">
   <autoFilter ref="A18:B22" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="77" tableBorderDxfId="76">
   <autoFilter ref="D18:H26" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="72">
       <calculatedColumnFormula>IF(E20&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="32">
+    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="71">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="31">
+    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="70">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3720,18 +3722,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="D28:H34" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="27">
+    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="66">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="26">
+    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="65">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="25">
+    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="64">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3740,15 +3742,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="63" tableBorderDxfId="62">
   <autoFilter ref="D36:G42" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="60">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="59">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3763,7 +3765,7 @@
     <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
     <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
     <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
-    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="42"/>
     <tableColumn id="5" xr3:uid="{5EBEBC80-5940-4420-B7CB-91D5FC7DF075}" name="Read Percenage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4072,17 +4074,17 @@
   </sheetPr>
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="4" width="85.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
@@ -4107,7 +4109,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="32">
-        <v>500</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4115,7 +4117,7 @@
         <v>166</v>
       </c>
       <c r="B4" s="32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="57"/>
     </row>
@@ -4124,7 +4126,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="32">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4181,7 +4183,7 @@
       </c>
       <c r="B12" s="18">
         <f>B$3*B$6</f>
-        <v>500</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4190,7 +4192,7 @@
       </c>
       <c r="B13" s="18">
         <f>(B$4*B$8*B$3*B$6)/1024</f>
-        <v>78.125</v>
+        <v>22.125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4199,7 +4201,7 @@
       </c>
       <c r="B14" s="18">
         <f>(B$4*B$8)</f>
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4208,7 +4210,7 @@
       </c>
       <c r="B15" s="18">
         <f>B$4*B$3*B6</f>
-        <v>2500</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4217,7 +4219,7 @@
       </c>
       <c r="B16" s="18">
         <f>B5*B3</f>
-        <v>15000</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -4260,14 +4262,14 @@
         <v>72</v>
       </c>
       <c r="B19" s="54">
-        <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"N/A: User Count Excceds Capability Of Single Azure NetApp Files Volume")</f>
-        <v>2250</v>
+        <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"Recommend Adding Additional Volumes")</f>
+        <v>619.5</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E19" s="48" t="str">
-        <f>_xlfn.XLOOKUP("No",'Azure NetApp Files Calcuations'!B35:B36,'Azure NetApp Files Calcuations'!B35:B36,"Yes")</f>
+        <f>_xlfn.XLOOKUP("No",'Azure NetApp Files Calcuations'!B35:B36,'Azure NetApp Files Calcuations'!C35:C36,"Yes")</f>
         <v>Yes</v>
       </c>
       <c r="F19" s="59" t="str">
@@ -4286,14 +4288,14 @@
       </c>
       <c r="B20" s="49">
         <f>IF(E19="Yes",IF($E$21=definitions!A$23,B$19,B$19/B$3),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>146</v>
       </c>
       <c r="E20" s="52">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$31:$C$33,'Azure NetApp Files Calcuations'!$B$31:$B$33),"No")</f>
-        <v>15000</v>
+        <v>4130</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="67"/>
@@ -4304,8 +4306,8 @@
         <v>67</v>
       </c>
       <c r="B21" s="50">
-        <f>IF(E29="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$46:C$48,'Azure NetApp Files Calcuations'!B$46:B$48),"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>1.9841269841269842</v>
+        <f>IF(E29="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$46:C$48,'Azure NetApp Files Calcuations'!B$46:B$48),"N/A: User Count Exceeds Capability Of A Single Azure Files Storage Account")</f>
+        <v>1.972497745716862</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>110</v>
@@ -4323,14 +4325,14 @@
         <v>68</v>
       </c>
       <c r="B22" s="50">
-        <f>IF(E37="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$50:C$52,'Azure NetApp Files Calcuations'!B$50:B$52),"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
+        <f>IF(E37="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$50:C$52,'Azure NetApp Files Calcuations'!B$50:B$52),"N/A: User Count Exceeds Capability Of A Single Azure Premium Files Storage Account")</f>
         <v>0.6</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>153</v>
       </c>
       <c r="E22" s="52" t="str">
-        <f>IF(E19="No","No",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
+        <f>IF(E19="Configure more than one volume","No",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
         <v>Capacity</v>
       </c>
       <c r="F22" s="53"/>
@@ -4345,7 +4347,7 @@
       </c>
       <c r="E23" s="52">
         <f>IF(E19="Yes",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$42:$C$44,'Azure NetApp Files Calcuations'!$B$42:$B$44,definitions!A$23)),"No")</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F23" s="53"/>
       <c r="G23" s="67"/>
@@ -4359,7 +4361,7 @@
       </c>
       <c r="E24" s="69">
         <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
-        <v>14067</v>
+        <v>11722</v>
       </c>
       <c r="F24" s="68"/>
       <c r="G24" s="67"/>
@@ -4373,7 +4375,7 @@
       </c>
       <c r="E25" s="69">
         <f>'Azure NetApp Files Calcuations'!B5</f>
-        <v>3413</v>
+        <v>2925</v>
       </c>
       <c r="F25" s="68" t="str">
         <f>IF(E26&gt;definitions!B30,definitions!$A$23,"Yes")</f>
@@ -4443,14 +4445,14 @@
         <v>72</v>
       </c>
       <c r="B29" s="54">
-        <f>IF(E29="Yes",B$32+B$31,"N/A: User Count Exceeds Capability Of Single Azure Files Storage Account")</f>
-        <v>1134</v>
+        <f>IF(E29="Yes",B$32+B$31,"Must Add Additional Storage Accounts")</f>
+        <v>314.06880000000001</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>168</v>
       </c>
       <c r="E29" s="35" t="str">
-        <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$2:$C$4,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
+        <f>_xlfn.XLOOKUP("No, must configure additional storage accounts",'Azure Files Calculations'!$C$2:$C$4,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
       <c r="F29" s="71" t="str">
@@ -4472,14 +4474,14 @@
       </c>
       <c r="B30" s="49">
         <f>IF(E29="Yes",B$29/B$3,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>2.2679999999999998</v>
+        <v>2.6616</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>77</v>
       </c>
       <c r="E30" s="18">
         <f>IF(E29="Yes",$B$5*$B$3,"No")</f>
-        <v>15000</v>
+        <v>4130</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="39"/>
@@ -4490,15 +4492,15 @@
         <v>69</v>
       </c>
       <c r="B31" s="49">
-        <f>IF(E29="Yes",((B4*B3*B6*definitions!B$32*B$7*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>234</v>
+        <f>IF(E29="Yes",((B4*B3*B6*definitions!B$32*B$7*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of A Single Azure Files Storage Account")</f>
+        <v>66.268799999999999</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>66</v>
       </c>
       <c r="E31" s="18">
         <f>IF(E29="Yes",E30/$B$3,"No")</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="43"/>
@@ -4509,15 +4511,15 @@
         <v>70</v>
       </c>
       <c r="B32" s="49">
-        <f>IF(E29="Yes",B$5*B$3*B6*definitions!B$35,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>900</v>
+        <f>IF(E29="Yes",B$5*B$3*B6*definitions!B$35,"N/A: User Count Exceeds Capability Of A Single Azure Files Storage Account")</f>
+        <v>247.79999999999998</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>104</v>
       </c>
       <c r="E32" s="18">
         <f>FLOOR(   (definitions!$B$38/$B$4)*(1/$B$6),1)</f>
-        <v>2000</v>
+        <v>1666</v>
       </c>
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
@@ -4531,7 +4533,7 @@
       </c>
       <c r="E33" s="18">
         <f>FLOOR((   (1024*definitions!$B$39)   /   ('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$8)  ) * (1/$B$6   ),1)</f>
-        <v>1920</v>
+        <v>1600</v>
       </c>
       <c r="F33" s="40"/>
       <c r="G33" s="39"/>
@@ -4543,7 +4545,7 @@
       </c>
       <c r="E34" s="17">
         <f>definitions!B41/'FSLogix Calculator'!B5</f>
-        <v>3413.3333333333335</v>
+        <v>2925.7142857142858</v>
       </c>
       <c r="F34" s="70"/>
       <c r="G34" s="70"/>
@@ -4585,8 +4587,8 @@
         <v>72</v>
       </c>
       <c r="B37" s="54">
-        <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calculator'!B3*'FSLogix Calculator'!B4,definitions!B37*'FSLogix Calculator'!B5*'FSLogix Calculator'!B3),"N/A: User Count Exceeds Capability Of Single Azure Premium Files Storage Account")</f>
-        <v>3750</v>
+        <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calculator'!B3*'FSLogix Calculator'!B4,definitions!B37*'FSLogix Calculator'!B5*'FSLogix Calculator'!B3),"Must Add Additional Storage Accounts")</f>
+        <v>1032.5</v>
       </c>
       <c r="D37" s="34" t="s">
         <v>168</v>
@@ -4610,14 +4612,14 @@
       </c>
       <c r="B38" s="23">
         <f>IF(E37="Yes",B$37/B$3,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>146</v>
       </c>
       <c r="E38" s="18">
         <f>'Azure Files Calculations'!C14</f>
-        <v>15000</v>
+        <v>4130</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -4628,7 +4630,7 @@
       </c>
       <c r="E39" s="17">
         <f>IF('Azure Files Calculations'!$C$6="Yes",E$38/$B$3,"No")</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="41"/>
@@ -4656,7 +4658,7 @@
       </c>
       <c r="E41" s="18">
         <f>FLOOR(( definitions!$B$40/$B$4) * (1/$B$6),1)</f>
-        <v>20000</v>
+        <v>16666</v>
       </c>
       <c r="F41" s="40"/>
       <c r="G41" s="45"/>
@@ -4668,7 +4670,7 @@
       </c>
       <c r="E42" s="18">
         <f>definitions!B42/'FSLogix Calculator'!B5</f>
-        <v>3413.3333333333335</v>
+        <v>2925.7142857142858</v>
       </c>
       <c r="F42" s="40"/>
       <c r="G42" s="45"/>
@@ -4917,7 +4919,7 @@
       <c r="E112" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ifzIOjUDrtMdILxiGo4rMHq1f0JvnEmS+cvF1ZXmyGKRVrkhOFQQ8LcWDINrmudAx5+bDE3uXEQ4n3u88UJXhQ==" saltValue="v9rAeQyApy4jctYapCYSZQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="JSX0sbDtHcu9/Ti7dEXk37Fy3DGvgFbBKt801jfBgQ3xTRoDLO5pJ94JLRuW5EConu2rWNBnCAam9qZ8+O4dUg==" saltValue="Xdm6gZ7szTajz+hnIhwHIg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A27:H27"/>
@@ -4925,171 +4927,173 @@
     <mergeCell ref="A17:H17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A36:B39 A28:B34">
-    <cfRule type="cellIs" dxfId="99" priority="95" operator="equal">
+  <conditionalFormatting sqref="A36:B39 A28:B28 A30:B34 A29">
+    <cfRule type="cellIs" dxfId="38" priority="110" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:H31">
-    <cfRule type="containsText" dxfId="98" priority="25" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="26" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E23">
-    <cfRule type="cellIs" dxfId="96" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="58" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="95" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="57" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="94" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="56" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="93" priority="33" operator="equal">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="34" operator="equal">
-      <formula>"""Yes"""</formula>
+    <cfRule type="cellIs" dxfId="31" priority="47" operator="equal">
+      <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="40" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="90" priority="35" operator="equal">
-      <formula>"Required Capacity Exceeds documented 100TiB Upper Limit"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="36" operator="equal">
-      <formula>"""Required Capacity Exceeds documented 100TiB Upper Limit"""</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="37" operator="containsText" text="&quot;Required&quot;">
-      <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="38" operator="containsText" text="&quot;Required&quot;">
-      <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="39" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="2" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",F19)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="84" priority="31" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="32" operator="equal">
-      <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="81" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="80" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="78" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:G38 F40:G40">
-    <cfRule type="containsText" dxfId="76" priority="20" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="22" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="74" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31 E20:E23">
-    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="72" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="70" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="69" priority="10" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="68" priority="9" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="15" priority="24" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B37)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="67" priority="8" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B29)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Must">
+      <formula>NOT(ISERROR(SEARCH("Must",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="65" priority="6" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="63" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="4" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="9" priority="16" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="Rec">
+      <formula>NOT(ISERROR(SEARCH("Rec",B19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="More">
+      <formula>NOT(ISERROR(SEARCH("More",E19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Rec">
+      <formula>NOT(ISERROR(SEARCH("Rec",B29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Must">
+      <formula>NOT(ISERROR(SEARCH("Must",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -5118,9 +5122,6 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F19" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="8">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -5200,7 +5201,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5221,7 +5222,7 @@
       </c>
       <c r="B2" s="15">
         <f>'FSLogix Calculator'!B$16</f>
-        <v>15000</v>
+        <v>4130</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -5231,7 +5232,7 @@
       </c>
       <c r="B3" s="15">
         <f>'FSLogix Calculator'!B$5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -5251,7 +5252,7 @@
       </c>
       <c r="B5" s="2">
         <f>FLOOR(definitions!B24/'FSLogix Calculator'!B$5,1)</f>
-        <v>3413</v>
+        <v>2925</v>
       </c>
       <c r="C5" s="61"/>
     </row>
@@ -5266,7 +5267,7 @@
       </c>
       <c r="B7" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B30</f>
-        <v>5000</v>
+        <v>1416</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>46</v>
@@ -5278,7 +5279,7 @@
       </c>
       <c r="B8" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B28</f>
-        <v>1250</v>
+        <v>354</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>47</v>
@@ -5290,7 +5291,7 @@
       </c>
       <c r="B9" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B26</f>
-        <v>625</v>
+        <v>177</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
@@ -5302,7 +5303,7 @@
       </c>
       <c r="B11" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B$30</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>46</v>
@@ -5314,7 +5315,7 @@
       </c>
       <c r="B12" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B28</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>47</v>
@@ -5326,7 +5327,7 @@
       </c>
       <c r="B13" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B26</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>39</v>
@@ -5343,7 +5344,7 @@
       </c>
       <c r="B15" s="2">
         <f>CEILING(IF(B11&gt;B$3,definitions!B$31/B11,definitions!B$31/B$3),1)</f>
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>46</v>
@@ -5355,7 +5356,7 @@
       </c>
       <c r="B16" s="2">
         <f>CEILING(IF(B12&gt;B$3,definitions!B$31/B12,definitions!B$31/B$3),1)</f>
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>47</v>
@@ -5367,7 +5368,7 @@
       </c>
       <c r="B17" s="2">
         <f>CEILING(IF(B13&gt;B$3,definitions!B$31/B13,definitions!B$31/B$3),1)</f>
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>39</v>
@@ -5425,7 +5426,7 @@
       </c>
       <c r="B23" s="15">
         <f>IF(B$2&gt;B7,B$2,B7)</f>
-        <v>15000</v>
+        <v>4130</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>46</v>
@@ -5437,7 +5438,7 @@
       </c>
       <c r="B24" s="15">
         <f>IF(B$2&gt;B8,B$2,B8)</f>
-        <v>15000</v>
+        <v>4130</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>47</v>
@@ -5449,7 +5450,7 @@
       </c>
       <c r="B25" s="15">
         <f>IF(B$2&gt;B9,B$2,B9)</f>
-        <v>15000</v>
+        <v>4130</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
@@ -5507,7 +5508,7 @@
       </c>
       <c r="B31" s="15">
         <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
-        <v>15000</v>
+        <v>4130</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -5519,7 +5520,7 @@
       </c>
       <c r="B32" s="15">
         <f>IF(B24&gt;definitions!B$31,B24,definitions!B$31)</f>
-        <v>15000</v>
+        <v>4130</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>47</v>
@@ -5531,7 +5532,7 @@
       </c>
       <c r="B33" s="15">
         <f>IF(B25&gt;definitions!B$31,B25,definitions!B$31)</f>
-        <v>15000</v>
+        <v>4130</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>39</v>
@@ -5550,7 +5551,9 @@
         <f>IF(MIN(B31:B33)&gt;definitions!B24,"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -5560,7 +5563,9 @@
         <f>IF('FSLogix Calculator'!B3&gt;('FSLogix Calculator'!E24),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="61" t="s">
+        <v>170</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
@@ -5577,7 +5582,7 @@
       </c>
       <c r="B38" s="24">
         <f>IF((B31&gt;definitions!B24),99999,B31*definitions!B$29)</f>
-        <v>2250</v>
+        <v>619.5</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>46</v>
@@ -5591,7 +5596,7 @@
       </c>
       <c r="B39" s="16">
         <f>IF((B32&gt;definitions!B24),99999,B32*definitions!B$27)</f>
-        <v>4500</v>
+        <v>1239</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>47</v>
@@ -5605,7 +5610,7 @@
       </c>
       <c r="B40" s="16">
         <f>IF((B33&gt;definitions!B24),99999,(B33*definitions!B$25))</f>
-        <v>6000</v>
+        <v>1652</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>39</v>
@@ -5626,7 +5631,7 @@
       </c>
       <c r="B42" s="15">
         <f>B31/'FSLogix Calculator'!B$3</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>46</v>
@@ -5640,7 +5645,7 @@
       </c>
       <c r="B43" s="15">
         <f>B32/'FSLogix Calculator'!B$3</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>47</v>
@@ -5654,7 +5659,7 @@
       </c>
       <c r="B44" s="15">
         <f>B33/'FSLogix Calculator'!B$3</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>39</v>
@@ -5675,7 +5680,7 @@
       </c>
       <c r="B46" s="26">
         <f>IF(B38=definitions!A$23,B38, B38/'FSLogix Calculator'!B$29)</f>
-        <v>1.9841269841269842</v>
+        <v>1.972497745716862</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>46</v>
@@ -5689,7 +5694,7 @@
       </c>
       <c r="B47" s="26">
         <f>IF(B39=definitions!A$23,B39, B39/'FSLogix Calculator'!B$29)</f>
-        <v>3.9682539682539684</v>
+        <v>3.944995491433724</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>47</v>
@@ -5703,7 +5708,7 @@
       </c>
       <c r="B48" s="26">
         <f>IF(B40=definitions!A$23,B40, B40/'FSLogix Calculator'!B$29)</f>
-        <v>5.2910052910052912</v>
+        <v>5.2599939885782989</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>39</v>
@@ -5762,7 +5767,7 @@
       </c>
       <c r="B54">
         <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
-        <v>14067</v>
+        <v>11722</v>
       </c>
     </row>
   </sheetData>
@@ -5803,7 +5808,7 @@
         <v>Yes</v>
       </c>
       <c r="C2" s="37" t="str">
-        <f>IF('FSLogix Calculator'!B$15&gt;definitions!B$38,"No","Yes")</f>
+        <f>IF('FSLogix Calculator'!B$15&gt;definitions!B$38,"No, must configure additional storage accounts","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5816,7 +5821,7 @@
         <v>Yes</v>
       </c>
       <c r="C3" s="37" t="str">
-        <f>IF(('FSLogix Calculator'!B13)&gt;definitions!B$39,"No","Yes")</f>
+        <f>IF(('FSLogix Calculator'!B13)&gt;definitions!B$39,"No, must configure additional storage accounts","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5829,7 +5834,7 @@
         <v>Yes</v>
       </c>
       <c r="C4" s="37" t="str">
-        <f>IF('FSLogix Calculator'!B16&gt;102400,"No","Yes")</f>
+        <f>IF('FSLogix Calculator'!B16&gt;102400,"No, must configure additional storage accounts","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5870,7 +5875,7 @@
       </c>
       <c r="B8" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*(1-'FSLogix Calculator'!B9)))-definitions!B43)/definitions!B44</f>
-        <v>-739.58333333333337</v>
+        <v>-926.25000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5879,7 +5884,7 @@
       </c>
       <c r="B9" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*'FSLogix Calculator'!B9))-definitions!B45)/definitions!B46</f>
-        <v>562.5</v>
+        <v>-557.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5900,7 +5905,7 @@
       </c>
       <c r="B11" s="15">
         <f>IF(B9&lt;100,100,B9)</f>
-        <v>562.5</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>143</v>
@@ -5912,11 +5917,11 @@
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(MAX(B10:B11),B10:B11,C10:C11)</f>
-        <v>Write Bandwidth</v>
+        <v>Read Bandwidth</v>
       </c>
       <c r="C12" s="15">
         <f>MAX(B10:B11)</f>
-        <v>562.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5929,7 +5934,7 @@
       </c>
       <c r="C13" s="15">
         <f>IF(B9&gt;'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6,C$12,'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6)</f>
-        <v>2500</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5942,7 +5947,7 @@
       </c>
       <c r="C14" s="15">
         <f>IF(C13&gt;'FSLogix Calculator'!B16,'Azure Files Calculations'!C13,'FSLogix Calculator'!B16)</f>
-        <v>15000</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -5953,74 +5958,74 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="16" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="No: Required ">
+    <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="No: Required ">
       <formula>NOT(ISERROR(SEARCH("No: Required ",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No:  Required ">
+    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="No:  Required ">
       <formula>NOT(ISERROR(SEARCH("No:  Required ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="No:">
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="No:">
       <formula>NOT(ISERROR(SEARCH("No:",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6033,7 +6038,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6450,7 +6455,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -7755,12 +7760,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7987,15 +7989,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4a052287-e6d5-446a-afc6-58987b850d5f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="943a090e-7b96-4eb7-abc0-264fa36c6c5d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8020,18 +8034,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4a052287-e6d5-446a-afc6-58987b850d5f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="943a090e-7b96-4eb7-abc0-264fa36c6c5d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/fslogix-storage-calculator.xlsx
+++ b/fslogix-storage-calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{0294103F-81B7-408B-BC58-3124AEB2A8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8E404018-6F9C-4EF4-A10E-72F4772CCA02}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{03415CEB-86E8-4ED7-AEE2-608E59107FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7956BBD-8B19-4922-9D54-8FEBD09D9B5A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="definitions" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="Throughput Test" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="3"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -936,354 +936,6 @@
   </cellStyles>
   <dxfs count="100">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1784,6 +1436,354 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3636,84 +3636,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" tableBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="A2:B9" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="2">
   <autoFilter ref="A22:B47" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
   <autoFilter ref="A28:B32" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="89" tableBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="50" tableBorderDxfId="49">
   <autoFilter ref="A11:B16" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="85" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="46" tableBorderDxfId="45">
   <autoFilter ref="A36:B38" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="81" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A18:B22" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="77" tableBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="D18:H26" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="33">
       <calculatedColumnFormula>IF(E20&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="71">
+    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="32">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="70">
+    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="31">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3722,18 +3722,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
   <autoFilter ref="D28:H34" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="66">
+    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="27">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="65">
+    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="26">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="64">
+    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="25">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3742,15 +3742,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="63" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="D36:G42" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="60">
+    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="21">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="59">
+    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="20">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3765,7 +3765,7 @@
     <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
     <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
     <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
-    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{5EBEBC80-5940-4420-B7CB-91D5FC7DF075}" name="Read Percenage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4075,7 +4075,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="B22" s="50">
         <f>IF(E37="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$50:C$52,'Azure NetApp Files Calcuations'!B$50:B$52),"N/A: User Count Exceeds Capability Of A Single Azure Premium Files Storage Account")</f>
-        <v>0.6</v>
+        <v>0.93749999999999989</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>153</v>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B37" s="54">
         <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calculator'!B3*'FSLogix Calculator'!B4,definitions!B37*'FSLogix Calculator'!B5*'FSLogix Calculator'!B3),"Must Add Additional Storage Accounts")</f>
-        <v>1032.5</v>
+        <v>660.80000000000007</v>
       </c>
       <c r="D37" s="34" t="s">
         <v>168</v>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="B38" s="23">
         <f>IF(E37="Yes",B$37/B$3,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>8.75</v>
+        <v>5.6000000000000005</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>146</v>
@@ -4919,7 +4919,7 @@
       <c r="E112" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JSX0sbDtHcu9/Ti7dEXk37Fy3DGvgFbBKt801jfBgQ3xTRoDLO5pJ94JLRuW5EConu2rWNBnCAam9qZ8+O4dUg==" saltValue="Xdm6gZ7szTajz+hnIhwHIg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zqOLMizsHerPpBZWYdkH2yFaFgfACad/SWbcZq/cpYQN2GRLeR2GbKiZNSFVWDRHQkPB3RYqCKO81d44RIqltA==" saltValue="kybqsSyWWq3YlB5qTChPOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A27:H27"/>
@@ -4928,171 +4928,171 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A36:B39 A28:B28 A30:B34 A29">
-    <cfRule type="cellIs" dxfId="38" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="110" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:H31">
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="98" priority="40" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="97" priority="41" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E23">
-    <cfRule type="cellIs" dxfId="35" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="58" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="34" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="57" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="33" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="56" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="46" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="47" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="91" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="45" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="44" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="42" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="43" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="38" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="39" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:G38 F40:G40">
-    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="84" priority="35" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="83" priority="37" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="36" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31 E20:E23">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="34" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="30" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="28" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="77" priority="25" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="15" priority="24" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="76" priority="24" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Must">
+    <cfRule type="containsText" dxfId="75" priority="2" operator="containsText" text="Must">
       <formula>NOT(ISERROR(SEARCH("Must",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="73" priority="20" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="72" priority="18" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="71" priority="19" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="16" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="70" priority="16" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="69" priority="9" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="Rec">
+    <cfRule type="containsText" dxfId="68" priority="14" operator="containsText" text="Rec">
       <formula>NOT(ISERROR(SEARCH("Rec",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="67" priority="12" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="66" priority="10" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="65" priority="8" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="More">
+    <cfRule type="containsText" dxfId="64" priority="7" operator="containsText" text="More">
       <formula>NOT(ISERROR(SEARCH("More",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Rec">
+    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="Rec">
       <formula>NOT(ISERROR(SEARCH("Rec",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Must">
+    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="Must">
       <formula>NOT(ISERROR(SEARCH("Must",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="B50" s="26">
         <f>IF(B38=definitions!A23,B38,B38/'FSLogix Calculator'!B$37)</f>
-        <v>0.6</v>
+        <v>0.93749999999999989</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>46</v>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="B51" s="26">
         <f>IF(B39=definitions!A23,B39,B39/'FSLogix Calculator'!B$37)</f>
-        <v>1.2</v>
+        <v>1.8749999999999998</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>47</v>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B52" s="26">
         <f>IF(B40=definitions!A23,B40,B40/'FSLogix Calculator'!B$37)</f>
-        <v>1.6</v>
+        <v>2.4999999999999996</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>39</v>
@@ -5958,74 +5958,74 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="58" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="No: Required ">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="No: Required ">
       <formula>NOT(ISERROR(SEARCH("No: Required ",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="No:  Required ">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No:  Required ">
       <formula>NOT(ISERROR(SEARCH("No:  Required ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="No:">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="No:">
       <formula>NOT(ISERROR(SEARCH("No:",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6038,8 +6038,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6358,7 +6358,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="24">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -7760,12 +7760,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100050FBA8A9F0AFB4BB2D0148D6A234C38" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74183e733b66e5e9a3cd5553bd4bd9ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4a052287-e6d5-446a-afc6-58987b850d5f" xmlns:ns4="943a090e-7b96-4eb7-abc0-264fa36c6c5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b903754823e47922d1d3c75b6236d24" ns3:_="" ns4:_="">
     <xsd:import namespace="4a052287-e6d5-446a-afc6-58987b850d5f"/>
@@ -7988,7 +7982,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7997,24 +7991,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4a052287-e6d5-446a-afc6-58987b850d5f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="943a090e-7b96-4eb7-abc0-264fa36c6c5d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097D0541-97F4-46BE-8711-51CFA8DE5931}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8033,10 +8016,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="4a052287-e6d5-446a-afc6-58987b850d5f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="943a090e-7b96-4eb7-abc0-264fa36c6c5d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/fslogix-storage-calculator.xlsx
+++ b/fslogix-storage-calculator.xlsx
@@ -5,10 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MChad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{03415CEB-86E8-4ED7-AEE2-608E59107FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F7956BBD-8B19-4922-9D54-8FEBD09D9B5A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AFF0B3F-FB4E-4A79-9C82-EEDFA180DF29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="PXUa5KoU6It04crj+JWw7hGp2rslGti4Mi34wEOYY8LLAvtqeufJkhguJn/bnDQkIp8vsIbV44Pk4/uDFP/MmA==" workbookSaltValue="X6HYCKt6P2MzvOS0bQagfg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="189">
   <si>
     <t>seconds in an hour</t>
   </si>
@@ -159,15 +160,6 @@
     <t>Ultra</t>
   </si>
   <si>
-    <t>Standard: Capacity Cost</t>
-  </si>
-  <si>
-    <t>Premium: Capacity Cost</t>
-  </si>
-  <si>
-    <t>Ultra: Capacity Cost</t>
-  </si>
-  <si>
     <t>Standard: Percentage Difference Than Azure Files</t>
   </si>
   <si>
@@ -550,6 +542,82 @@
   </si>
   <si>
     <t>Configure more than one volume</t>
+  </si>
+  <si>
+    <t>hours in a week</t>
+  </si>
+  <si>
+    <t>non hours in a week</t>
+  </si>
+  <si>
+    <t>Percentage of week working</t>
+  </si>
+  <si>
+    <t>Percentage of week not working</t>
+  </si>
+  <si>
+    <t>Standard: Total Capacity Cost</t>
+  </si>
+  <si>
+    <t>Premium: Total Capacity Costs</t>
+  </si>
+  <si>
+    <t>Ultra: Total Capacity Costs</t>
+  </si>
+  <si>
+    <t>Monthly Cost (Assuming Volume Shaping)</t>
+  </si>
+  <si>
+    <t>Working Hours Cost</t>
+  </si>
+  <si>
+    <t>Non Working Hour Cost</t>
+  </si>
+  <si>
+    <t>Standard: Capacity Cost for working hours (assuming shaping)</t>
+  </si>
+  <si>
+    <t>Premium: Capacity Cost for working hours (assuming shaping)</t>
+  </si>
+  <si>
+    <t>Ultra: Capacity Cost for working hours (assuming shaping)</t>
+  </si>
+  <si>
+    <t>Standard: Capacity Cost for non working hours (assuming shaping)</t>
+  </si>
+  <si>
+    <t>Premium: Capacity Cost for non working hours (assuming shaping)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ultra: Capacity Cost for non working hours </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(assuming shaping)</t>
+    </r>
+  </si>
+  <si>
+    <t>Calculated Montly Cost</t>
+  </si>
+  <si>
+    <t>Azure NetApp Files Volume Shaping</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -564,7 +632,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00000000_);[Red]\(&quot;$&quot;#,##0.00000000\)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,8 +676,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -634,8 +710,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -722,11 +810,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -738,9 +841,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -843,9 +943,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -867,18 +964,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -905,9 +996,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -930,11 +1018,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="102">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1120,6 +1263,7 @@
       <font>
         <b/>
       </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1154,6 +1298,7 @@
       <font>
         <b/>
       </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1197,7 +1342,7 @@
       <font>
         <b/>
       </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1257,6 +1402,12 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
@@ -1364,6 +1515,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1469,11 +1626,191 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1488,43 +1825,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1545,27 +1845,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1577,46 +1856,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1631,33 +1875,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1674,66 +1891,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3636,19 +3793,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
-  <autoFilter ref="A2:B9" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A4:B11" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
+  <autoFilter ref="A4:B11" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="2">
-  <autoFilter ref="A22:B47" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B51" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A22:B51" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="0"/>
@@ -3658,63 +3815,65 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
-  <autoFilter ref="A28:B32" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A31:B35" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" tableBorderDxfId="55">
+  <autoFilter ref="A31:B35" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="50" tableBorderDxfId="49">
-  <autoFilter ref="A11:B16" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A14:B19" totalsRowShown="0" headerRowDxfId="52" tableBorderDxfId="51">
+  <autoFilter ref="A14:B19" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="46" tableBorderDxfId="45">
-  <autoFilter ref="A36:B38" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A39:B41" totalsRowShown="0" dataDxfId="48" tableBorderDxfId="47">
+  <autoFilter ref="A39:B41" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="42" tableBorderDxfId="41">
-  <autoFilter ref="A18:B22" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A21:D25" totalsRowShown="0" dataDxfId="44" tableBorderDxfId="43">
+  <autoFilter ref="A21:D25" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Montly Cost" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{AF833074-9B28-4223-9165-83150BC78ED9}" name="Working Hours Cost" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{C7199001-B01A-41FD-9464-9A86DAF94291}" name="Non Working Hour Cost" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37">
-  <autoFilter ref="D18:H26" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="F21:J29" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37">
+  <autoFilter ref="F21:J29" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="36" totalsRowDxfId="35"/>
     <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="34"/>
     <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="33">
-      <calculatedColumnFormula>IF(E20&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(G23&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="32">
-      <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(B5&gt;G27,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="31">
-      <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(B5&gt;G27,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3722,8 +3881,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
-  <autoFilter ref="D28:H34" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="F31:J37" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
+  <autoFilter ref="F31:J37" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
     <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="28"/>
@@ -3742,8 +3901,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="D36:G42" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="F39:I45" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="F39:I45" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
     <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="22"/>
@@ -3759,14 +3918,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D22AF52-430F-48A3-BC6A-EC30D412E5EE}" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
-  <autoFilter ref="A1:E21" xr:uid="{81B2E200-FC2F-4069-86C2-6671D699FE86}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D22AF52-430F-48A3-BC6A-EC30D412E5EE}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0">
+  <autoFilter ref="A1:F21" xr:uid="{81B2E200-FC2F-4069-86C2-6671D699FE86}"/>
+  <tableColumns count="6">
     <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
     <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
     <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
     <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{5EBEBC80-5940-4420-B7CB-91D5FC7DF075}" name="Read Percenage"/>
+    <tableColumn id="6" xr3:uid="{3965A4D9-F34B-424C-8DD6-AA7E0E566849}" name="boolean"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4072,1049 +4232,1252 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="4" max="4" width="85.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="63" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="18" style="7" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="85.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62" style="82" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="78"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+    </row>
+    <row r="3" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="B5" s="31">
+        <v>200</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="31">
+        <v>20</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="31">
+        <v>20</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="46">
+        <v>1</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="F8" s="45"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="31">
+        <v>40</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="31">
+        <v>32</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="83"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="58">
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="17">
+        <f>B$5*B$8</f>
+        <v>200</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="17">
+        <f>(B$6*B$10*B$5*B$8)/1024</f>
+        <v>125</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="17">
+        <f>(B$6*B$10)</f>
+        <v>640</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="17">
+        <f>B$6*B$5*B8</f>
+        <v>4000</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="17">
+        <f>B7*B5</f>
+        <v>4000</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+    </row>
+    <row r="21" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="49" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="79">
+        <f>IF(G22="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!C$46:C$48,'Azure NetApp Files Calcuations'!B$46:B$48,definitions!A$23),"Recommend Adding Additional Volumes")</f>
+        <v>753.82857142857142</v>
+      </c>
+      <c r="C22" s="93">
+        <f>IF(G22="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"Recommend Adding Additional Volumes")</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="D22" s="93">
+        <f>IF(G22="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!C$42:C$44,'Azure NetApp Files Calcuations'!B$42:B$44,definitions!A$23),"Recommend Adding Additional Volumes")</f>
+        <v>468.11428571428564</v>
+      </c>
+      <c r="F22" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="32">
-        <v>6</v>
-      </c>
-      <c r="D4" s="57"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="32">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="47">
-        <v>1</v>
-      </c>
-      <c r="D6" s="46"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="32">
-        <v>40</v>
-      </c>
-      <c r="D7" s="75"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="32">
-        <v>32</v>
-      </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="62">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="18">
-        <f>B$3*B$6</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="18">
-        <f>(B$4*B$8*B$3*B$6)/1024</f>
-        <v>22.125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="18">
-        <f>(B$4*B$8)</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="18">
-        <f>B$4*B$3*B6</f>
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="18">
-        <f>B5*B3</f>
-        <v>4130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="51" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="54">
-        <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"Recommend Adding Additional Volumes")</f>
-        <v>619.5</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="48" t="str">
+      <c r="G22" s="50" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure NetApp Files Calcuations'!B35:B36,'Azure NetApp Files Calcuations'!C35:C36,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F19" s="59" t="str">
+      <c r="H22" s="56" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes","Yes",definitions!$A$23)</f>
         <v>Yes</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="65" t="str">
-        <f>IF(B3&gt;E24,"Required bandwidth exceeds single ANF volume tested upper limit at selected read percentage","Yes")</f>
+      <c r="I22" s="62"/>
+      <c r="J22" s="61" t="str">
+        <f>IF(B5&gt;G27,"Required bandwidth exceeds single ANF volume tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="49">
-        <f>IF(E19="Yes",IF($E$21=definitions!A$23,B$19,B$19/B$3),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>5.25</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="52">
-        <f>IF('Azure NetApp Files Calcuations'!B35="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$31:$C$33,'Azure NetApp Files Calcuations'!$B$31:$B$33),"No")</f>
-        <v>4130</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-    </row>
-    <row r="21" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="50">
-        <f>IF(E29="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$46:C$48,'Azure NetApp Files Calcuations'!B$46:B$48),"N/A: User Count Exceeds Capability Of A Single Azure Files Storage Account")</f>
-        <v>1.972497745716862</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="52" t="str">
+    <row r="23" spans="1:10" s="49" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="92">
+        <f>IF(G22="Yes",IF($G$24=definitions!A$23,B$22,B$22/B$5),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
+        <v>3.7691428571428571</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="F23" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="50">
+        <f>IF('Azure NetApp Files Calcuations'!B35="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!$C$31:$C$33,'Azure NetApp Files Calcuations'!$B$31:$B$33),"No")</f>
+        <v>8000</v>
+      </c>
+      <c r="H23" s="51"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+    </row>
+    <row r="24" spans="1:10" s="49" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="81">
+        <f>IF(G32="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!C$54:C$56,'Azure NetApp Files Calcuations'!B$54:B$56),"N/A: User Count Exceeds Capability Of A Single Azure Files Storage Account")</f>
+        <v>1.2269345238095239</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="F24" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="50" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",(_xlfn.XLOOKUP(MIN('Azure NetApp Files Calcuations'!$B$38:$B$40),'Azure NetApp Files Calcuations'!$B$38:$B$40,'Azure NetApp Files Calcuations'!$C$38:$C$40)),"No")</f>
         <v>Standard</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-    </row>
-    <row r="22" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="50">
-        <f>IF(E37="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$50:C$52,'Azure NetApp Files Calcuations'!B$50:B$52),"N/A: User Count Exceeds Capability Of A Single Azure Premium Files Storage Account")</f>
-        <v>0.93749999999999989</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="E22" s="52" t="str">
-        <f>IF(E19="Configure more than one volume","No",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
-        <v>Capacity</v>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-    </row>
-    <row r="23" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="50"/>
-      <c r="D23" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="52">
-        <f>IF(E19="Yes",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$42:$C$44,'Azure NetApp Files Calcuations'!$B$42:$B$44,definitions!A$23)),"No")</f>
-        <v>35</v>
-      </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-    </row>
-    <row r="24" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="49"/>
-      <c r="D24" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="69">
-        <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
-        <v>11722</v>
-      </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-    </row>
-    <row r="25" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="49"/>
-      <c r="D25" s="64" t="s">
+      <c r="H24" s="51"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+    </row>
+    <row r="25" spans="1:10" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="81">
+        <f>IF(G40="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!C$58:C$60,'Azure NetApp Files Calcuations'!B$58:B$60),"N/A: User Count Exceeds Capability Of A Single Azure Premium Files Storage Account")</f>
+        <v>1.1778571428571429</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="F25" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E25" s="69">
+      <c r="G25" s="50" t="str">
+        <f>IF(G22="Configure more than one volume","No",(_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
+        <v>Bandwidth</v>
+      </c>
+      <c r="H25" s="51"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="F26" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="50">
+        <f>IF(G22="Yes",(_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!$C$50:$C$52,'Azure NetApp Files Calcuations'!$B$50:$B$52,definitions!A$23)),"No")</f>
+        <v>40</v>
+      </c>
+      <c r="H26" s="51"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+    </row>
+    <row r="27" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="F27" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="85">
+        <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B17)*(1/'FSLogix Calculator'!B8),1)</f>
+        <v>3516</v>
+      </c>
+      <c r="H27" s="64"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+    </row>
+    <row r="28" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="F28" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="85">
         <f>'Azure NetApp Files Calcuations'!B5</f>
-        <v>2925</v>
-      </c>
-      <c r="F25" s="68" t="str">
-        <f>IF(E26&gt;definitions!B30,definitions!$A$23,"Yes")</f>
+        <v>5120</v>
+      </c>
+      <c r="H28" s="64" t="str">
+        <f>IF(G29&gt;definitions!B30,definitions!$A$23,"Yes")</f>
         <v>Required capacity exceeds documented single ANF volume 100TiB upper limit</v>
       </c>
-      <c r="G25" s="68" t="str">
-        <f>IF(B9&gt;E28,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
+      <c r="I28" s="64" t="str">
+        <f>IF(B11&gt;G31,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="H25" s="68" t="str">
-        <f>IF(B9&gt;E28,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
+      <c r="J28" s="64" t="str">
+        <f>IF(B11&gt;G31,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="49"/>
-      <c r="D26" s="55" t="str">
-        <f>IF(E22="Capacity Pool Minimum Size","# Of Users At Min Capacity Pool Size ","Temporarily Empty Field")</f>
+    <row r="29" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="F29" s="53" t="str">
+        <f>IF(G25="Capacity Pool Minimum Size","# Of Users At Min Capacity Pool Size ","Temporarily Empty Field")</f>
         <v>Temporarily Empty Field</v>
       </c>
-      <c r="E26" s="56" t="str">
-        <f>IF(E22="Capacity Pool Minimum Size",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$15:$C$17,'Azure NetApp Files Calcuations'!$B$15:$B$17),"Temporarily Empty Field")</f>
+      <c r="G29" s="86" t="str">
+        <f>IF(G25="Capacity Pool Minimum Size",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!$C$15:$C$17,'Azure NetApp Files Calcuations'!$B$15:$B$17),"Temporarily Empty Field")</f>
         <v>Temporarily Empty Field</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="18" t="s">
+      <c r="H29" s="59"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="54">
-        <f>IF(E29="Yes",B$32+B$31,"Must Add Additional Storage Accounts")</f>
-        <v>314.06880000000001</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="35" t="str">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="F31" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="52">
+        <f>IF(G32="Yes",B$35+B$34,"Must Add Additional Storage Accounts")</f>
+        <v>614.4</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="F32" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="87" t="str">
         <f>_xlfn.XLOOKUP("No, must configure additional storage accounts",'Azure Files Calculations'!$C$2:$C$4,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F29" s="71" t="str">
+      <c r="H32" s="66" t="str">
         <f>'Azure Files Calculations'!$B$4</f>
         <v>Yes</v>
       </c>
-      <c r="G29" s="59" t="str">
+      <c r="I32" s="56" t="str">
         <f>'Azure Files Calculations'!$B$2</f>
         <v>Yes</v>
       </c>
-      <c r="H29" s="59" t="str">
+      <c r="J32" s="56" t="str">
         <f>'Azure Files Calculations'!$B$3</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="49">
-        <f>IF(E29="Yes",B$29/B$3,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>2.6616</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="18">
-        <f>IF(E29="Yes",$B$5*$B$3,"No")</f>
-        <v>4130</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="47">
+        <f>IF(G32="Yes",B$32/B$5,"N/A: User Count Exceeds Capability Of Azure Files")</f>
+        <v>3.0720000000000001</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="F33" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="76">
+        <f>IF(G32="Yes",$B$7*$B$5,"No")</f>
+        <v>4000</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="92">
+        <f>IF(G32="Yes",((B6*B5*B8*definitions!B$32*B$9*definitions!B$34)/definitions!B33)*definitions!B$40,"N/A: User Count Exceeds Capability Of A Single Azure Files Storage Account")</f>
+        <v>374.4</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="F34" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="76">
+        <f>IF(G32="Yes",G33/$B$5,"No")</f>
+        <v>20</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="92">
+        <f>IF(G32="Yes",B$7*B$5*B8*definitions!B$39,"N/A: User Count Exceeds Capability Of A Single Azure Files Storage Account")</f>
+        <v>240</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="F35" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="76">
+        <f>FLOOR(   (definitions!$B$42/$B$6)*(1/$B$8),1)</f>
+        <v>500</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="34"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="F36" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="76">
+        <f>FLOOR((   (1024*definitions!$B$43)   /   ('FSLogix Calculator'!$B$6*'FSLogix Calculator'!$B$10)  ) * (1/$B$8   ),1)</f>
+        <v>480</v>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="88">
+        <f>definitions!B45/'FSLogix Calculator'!B7</f>
+        <v>5120</v>
+      </c>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="F39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="49">
-        <f>IF(E29="Yes",((B4*B3*B6*definitions!B$32*B$7*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of A Single Azure Files Storage Account")</f>
-        <v>66.268799999999999</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="18">
-        <f>IF(E29="Yes",E30/$B$3,"No")</f>
-        <v>35</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="49">
-        <f>IF(E29="Yes",B$5*B$3*B6*definitions!B$35,"N/A: User Count Exceeds Capability Of A Single Azure Files Storage Account")</f>
-        <v>247.79999999999998</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="18">
-        <f>FLOOR(   (definitions!$B$38/$B$4)*(1/$B$6),1)</f>
-        <v>1666</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="49"/>
-      <c r="D33" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="18">
-        <f>FLOOR((   (1024*definitions!$B$39)   /   ('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$8)  ) * (1/$B$6   ),1)</f>
-        <v>1600</v>
-      </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="17">
-        <f>definitions!B41/'FSLogix Calculator'!B5</f>
-        <v>2925.7142857142858</v>
-      </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="54">
-        <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calculator'!B3*'FSLogix Calculator'!B4,definitions!B37*'FSLogix Calculator'!B5*'FSLogix Calculator'!B3),"Must Add Additional Storage Accounts")</f>
-        <v>660.80000000000007</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="35" t="str">
+      <c r="B40" s="52">
+        <f>IF(G40="Yes",IF(G43="I/O Need",definitions!B41*'FSLogix Calculator'!B5*'FSLogix Calculator'!B6,definitions!B41*'FSLogix Calculator'!B7*'FSLogix Calculator'!B5),"Must Add Additional Storage Accounts")</f>
+        <v>640</v>
+      </c>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="F40" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="87" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$5:$C$7,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F37" s="72" t="str">
+      <c r="H40" s="67" t="str">
         <f>'Azure Files Calculations'!$B$6</f>
         <v>Yes</v>
       </c>
-      <c r="G37" s="72" t="str">
+      <c r="I40" s="67" t="str">
         <f>'Azure Files Calculations'!$B$5</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="23">
-        <f>IF(E37="Yes",B$37/B$3,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>5.6000000000000005</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="18">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="22">
+        <f>IF(G40="Yes",B$40/B$5,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
+        <v>3.2</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="F41" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="76">
         <f>'Azure Files Calculations'!C14</f>
-        <v>4130</v>
-      </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="17">
-        <f>IF('Azure Files Calculations'!$C$6="Yes",E$38/$B$3,"No")</f>
-        <v>35</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="41"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" s="22" t="str">
+        <v>4000</v>
+      </c>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F42" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="88">
+        <f>IF('Azure Files Calculations'!$C$6="Yes",G$41/$B$5,"No")</f>
+        <v>20</v>
+      </c>
+      <c r="H42" s="32"/>
+      <c r="I42" s="40"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="90" t="str">
         <f>'Azure Files Calculations'!B14</f>
         <v>Profile Size</v>
       </c>
-      <c r="F40" s="40"/>
-      <c r="G40" s="39"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E41" s="18">
-        <f>FLOOR(( definitions!$B$40/$B$4) * (1/$B$6),1)</f>
-        <v>16666</v>
-      </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="45"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="8"/>
-      <c r="D42" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="E42" s="18">
-        <f>definitions!B42/'FSLogix Calculator'!B5</f>
-        <v>2925.7142857142858</v>
-      </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="45"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="60"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="7"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="60"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="29"/>
-    </row>
-    <row r="83" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="8"/>
-      <c r="C87"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="11"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="29"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="60"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="60"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="11"/>
-      <c r="B96" s="8"/>
-      <c r="C96"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="11"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="60"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="29"/>
-      <c r="D100"/>
-      <c r="E100"/>
-    </row>
-    <row r="101" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="11"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-    </row>
-    <row r="106" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="11"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="30"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="38"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="76">
+        <f>FLOOR(( definitions!$B$44/$B$6) * (1/$B$8),1)</f>
+        <v>5000</v>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="44"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E45" s="7"/>
+      <c r="F45" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" s="76">
+        <f>definitions!B46/'FSLogix Calculator'!B7</f>
+        <v>5120</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="44"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+    </row>
+    <row r="76" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="74"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="91"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="91"/>
+    </row>
+    <row r="83" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="74"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="84"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="91"/>
+    </row>
+    <row r="85" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="91"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
+    </row>
+    <row r="86" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="10"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="91"/>
+    </row>
+    <row r="87" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="74"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="84"/>
+    </row>
+    <row r="88" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="74"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="84"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="91"/>
+    </row>
+    <row r="90" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="10"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="91"/>
+    </row>
+    <row r="91" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="10"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="91"/>
+    </row>
+    <row r="92" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="10"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="91"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="91"/>
+    </row>
+    <row r="94" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="91"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="91"/>
+    </row>
+    <row r="96" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A96" s="74"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="84"/>
+    </row>
+    <row r="97" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="74"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="84"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="91"/>
+    </row>
+    <row r="99" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="10"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="91"/>
+    </row>
+    <row r="100" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="10"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="91"/>
+    </row>
+    <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="74"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="84"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="57"/>
+    </row>
+    <row r="103" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="10"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="57"/>
+      <c r="F103"/>
+      <c r="G103" s="82"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="57"/>
+    </row>
+    <row r="104" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="10"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="91"/>
+    </row>
+    <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="74"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="91"/>
+    </row>
+    <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="74"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="84"/>
+    </row>
+    <row r="109" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="10"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="57"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="91"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="57"/>
+      <c r="G110" s="91"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="91"/>
+    </row>
+    <row r="112" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="10"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="57"/>
+      <c r="G112" s="91"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="57"/>
+      <c r="J112" s="57"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="10"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="57"/>
+      <c r="G115" s="91"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zqOLMizsHerPpBZWYdkH2yFaFgfACad/SWbcZq/cpYQN2GRLeR2GbKiZNSFVWDRHQkPB3RYqCKO81d44RIqltA==" saltValue="kybqsSyWWq3YlB5qTChPOw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A17:H17"/>
-  </mergeCells>
+  <sheetProtection algorithmName="SHA-512" hashValue="rO+uHkaa7++kaFc/UgZfLLSEt/MERSXJJOvPJYzo8OmzY5ZYyK4tOA2A6RIPRXsCyVoWsPKJcitaAGoP7rgEPw==" saltValue="k3n26kcPekl09hD2er2O5g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A36:B39 A28:B28 A30:B34 A29">
-    <cfRule type="cellIs" dxfId="99" priority="110" operator="equal">
+  <conditionalFormatting sqref="A39:D42 A31:D31 A33:D37 A32">
+    <cfRule type="cellIs" dxfId="101" priority="110" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:H31">
-    <cfRule type="containsText" dxfId="98" priority="40" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",F29)))</formula>
+  <conditionalFormatting sqref="H32:J34">
+    <cfRule type="containsText" dxfId="100" priority="40" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",H32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="41" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",F29)))</formula>
+    <cfRule type="containsText" dxfId="99" priority="41" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
-    <cfRule type="cellIs" dxfId="96" priority="58" operator="equal">
+  <conditionalFormatting sqref="G25:G26">
+    <cfRule type="cellIs" dxfId="98" priority="58" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="95" priority="57" operator="equal">
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="97" priority="57" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="94" priority="56" operator="equal">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="96" priority="56" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="93" priority="46" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsText" dxfId="95" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G32)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="46" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="47" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="4" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",E29)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="90" priority="45" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="92" priority="45" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="89" priority="44" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="91" priority="44" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="88" priority="42" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="90" priority="42" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="43" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="86" priority="38" operator="equal">
+  <conditionalFormatting sqref="G40 G43">
+    <cfRule type="cellIs" dxfId="88" priority="38" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="39" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:G38 F40:G40">
-    <cfRule type="containsText" dxfId="84" priority="35" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",F37)))</formula>
+  <conditionalFormatting sqref="H40:I41 H43:I43">
+    <cfRule type="containsText" dxfId="86" priority="35" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",H40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="37" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",F37)))</formula>
+    <cfRule type="containsText" dxfId="85" priority="37" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",H40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="82" priority="36" operator="equal">
+  <conditionalFormatting sqref="G40 G43">
+    <cfRule type="cellIs" dxfId="84" priority="36" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31 E20:E23">
-    <cfRule type="cellIs" dxfId="81" priority="34" operator="equal">
+  <conditionalFormatting sqref="G34 G23:G26">
+    <cfRule type="cellIs" dxfId="83" priority="34" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="80" priority="30" operator="equal">
+  <conditionalFormatting sqref="G33">
+    <cfRule type="cellIs" dxfId="82" priority="30" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="79" priority="28" operator="equal">
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="81" priority="28" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="78" priority="26" operator="equal">
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="80" priority="26" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="77" priority="25" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B38)))</formula>
+  <conditionalFormatting sqref="B41:D41">
+    <cfRule type="containsText" dxfId="79" priority="25" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="76" priority="24" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B37)))</formula>
+  <conditionalFormatting sqref="B40:D40">
+    <cfRule type="containsText" dxfId="78" priority="2" operator="containsText" text="Must">
+      <formula>NOT(ISERROR(SEARCH("Must",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="2" operator="containsText" text="Must">
-      <formula>NOT(ISERROR(SEARCH("Must",B37)))</formula>
+    <cfRule type="containsText" dxfId="77" priority="24" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="74" priority="21" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B20)))</formula>
+  <conditionalFormatting sqref="B23:D23">
+    <cfRule type="containsText" dxfId="76" priority="21" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="73" priority="20" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B30)))</formula>
+  <conditionalFormatting sqref="B33:D33">
+    <cfRule type="containsText" dxfId="75" priority="20" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="74" priority="9" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",J22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="16" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",J22)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="72" priority="18" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",H19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Yes",J22)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="71" priority="19" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="16" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="9" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Required",J22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="68" priority="14" operator="containsText" text="Rec">
-      <formula>NOT(ISERROR(SEARCH("Rec",B19)))</formula>
+  <conditionalFormatting sqref="B22:D22">
+    <cfRule type="containsText" dxfId="70" priority="14" operator="containsText" text="Rec">
+      <formula>NOT(ISERROR(SEARCH("Rec",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="67" priority="12" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",F19)))</formula>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="69" priority="10" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",H22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="10" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",F19)))</formula>
+    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="containsText" dxfId="65" priority="8" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",E19)))</formula>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="More">
+      <formula>NOT(ISERROR(SEARCH("More",G22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="7" operator="containsText" text="More">
-      <formula>NOT(ISERROR(SEARCH("More",E19)))</formula>
+    <cfRule type="containsText" dxfId="66" priority="8" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="Rec">
-      <formula>NOT(ISERROR(SEARCH("Rec",B29)))</formula>
+  <conditionalFormatting sqref="B32:D32">
+    <cfRule type="containsText" dxfId="65" priority="3" operator="containsText" text="Must">
+      <formula>NOT(ISERROR(SEARCH("Must",B32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="Must">
-      <formula>NOT(ISERROR(SEARCH("Must",B29)))</formula>
+    <cfRule type="containsText" dxfId="64" priority="5" operator="containsText" text="Rec">
+      <formula>NOT(ISERROR(SEARCH("Rec",B32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",E37)))</formula>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 1024 in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B10" xr:uid="{CBED2FD9-9304-492F-812B-63234547D67B}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 1024 in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B13:D13" xr:uid="{CBED2FD9-9304-492F-812B-63234547D67B}">
       <formula1>1</formula1>
       <formula2>1024</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 95,000" promptTitle="Number Of User" prompt="Enter the number of users (100% Concurrency is assumed).  Valid values are between 1 and 95,000." sqref="B3" xr:uid="{838F7E3E-819B-4995-B75E-80FB4581AA29}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 95,000" promptTitle="Number Of User" prompt="Enter the number of users (100% Concurrency is assumed).  Valid values are between 1 and 95,000." sqref="B5:D5" xr:uid="{838F7E3E-819B-4995-B75E-80FB4581AA29}">
       <formula1>1</formula1>
       <formula2>95000</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 168" promptTitle="Enter Integer Value" prompt="Enter a value between 40 and 168 representing the working hours in a week.  Call centers for example that have 24X7 operations work 168 hours every week." sqref="B7" xr:uid="{83D3B009-08C9-4277-BCBC-7A1B2CBFC57A}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 168" promptTitle="Enter Integer Value" prompt="Enter a value between 40 and 168 representing the working hours in a week.  Call centers for example that have 24X7 operations work 168 hours every week." sqref="B9:D9" xr:uid="{83D3B009-08C9-4277-BCBC-7A1B2CBFC57A}">
       <formula1>40</formula1>
       <formula2>168</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 30  in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B7" xr:uid="{4AE96117-04AC-420D-AD6D-903EA3285EB4}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 30  in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B9:D9" xr:uid="{4AE96117-04AC-420D-AD6D-903EA3285EB4}">
       <formula1>36</formula1>
       <formula2>168</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" sqref="B7" xr:uid="{A1CCD0B8-6B2D-42A1-89B6-7ABA9C370E18}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" errorTitle="IOPS: Incorrect Input" error="Please enter a whole number between 1 and 200." promptTitle="Storage IOPS: Env Dependant" prompt="Suggested values for user profile containers_x000a_Without Office365: 5_x000a_With Office365: 15_x000a_With Offline Cache and Office365 Cache: 60 - 120" sqref="B4" xr:uid="{E2E3AE84-252F-4455-AC8B-A92442F4F96A}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" sqref="B9:D9" xr:uid="{A1CCD0B8-6B2D-42A1-89B6-7ABA9C370E18}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" errorTitle="IOPS: Incorrect Input" error="Please enter a whole number between 1 and 200." promptTitle="Storage IOPS: Env Dependant" prompt="Suggested values for user profile containers_x000a_Without Office365: 5_x000a_With Office365: 15_x000a_With Offline Cache and Office365 Cache: 60 - 120" sqref="B6:D6" xr:uid="{E2E3AE84-252F-4455-AC8B-A92442F4F96A}">
       <formula1>1</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -5134,60 +5497,66 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="If known, select the average storage I/O size.  If unknown, leave the value at the default of 32." promptTitle="Storage I/O Size (Advanced)" prompt="If known, select the average storage I/O size.  If unknown, leave the value at the default of 32." xr:uid="{86AD3042-EFBE-4769-8F55-A620876D83EA}">
           <x14:formula1>
             <xm:f>definitions!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B8</xm:sqref>
+          <xm:sqref>B10:D10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 30  in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" xr:uid="{F0468C29-122F-45A3-9E06-3D1D980A2EF8}">
           <x14:formula1>
             <xm:f>definitions!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B5:D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FACD4DE7-9021-4B74-81BF-F5019EF7DF83}">
           <x14:formula1>
             <xm:f>definitions!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B5:D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" xr:uid="{F9F9F9EE-077A-4B49-876B-20EE9C7EA975}">
           <x14:formula1>
             <xm:f>definitions!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B5:D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{FF3B58C7-0EEE-4B9C-AA0D-36F4BBCFA8FD}">
           <x14:formula1>
             <xm:f>definitions!$D$2:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B7</xm:sqref>
+          <xm:sqref>B8:D9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="VHD(X) Size" prompt="Select the desired VHD(X) Size, 40GiB has been idenitifed as the average Profile Size Industry wide" xr:uid="{97763830-AAD4-4BCB-B82D-4588199C19CD}">
           <x14:formula1>
             <xm:f>definitions!$C$4:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
+          <xm:sqref>B7:D7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="If known, select the average storage read %.  If unknown, leave the value at the default of 20%" promptTitle="Read % (Advanced)" prompt="If known, select the average storage read%  If unknown, leave the value at the default of 20%." xr:uid="{4F30BAC0-8570-455C-9ACF-B1BAC194BCB9}">
           <x14:formula1>
             <xm:f>'Throughput Test'!$G$6:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B9</xm:sqref>
+          <xm:sqref>B11:D12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B86BFC7-B959-49BD-A0CA-9D6F29B3BFCA}">
           <x14:formula1>
             <xm:f>definitions!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B9</xm:sqref>
+          <xm:sqref>B11:D12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D52C3E3B-D7C9-4CAB-B3CD-9E815BA071AA}">
           <x14:formula1>
             <xm:f>definitions!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B4 B8</xm:sqref>
+          <xm:sqref>B6:D6 B10:D10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FFFFEB35-BD9B-430F-9C7E-C79ED9C1795F}">
+          <x14:formula1>
+            <xm:f>definitions!$F$2:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5198,10 +5567,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E156B8-3DAB-4F24-8D0A-36FBCF57BCBD}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5214,84 +5583,84 @@
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="15">
-        <f>'FSLogix Calculator'!B$16</f>
-        <v>4130</v>
+        <v>59</v>
+      </c>
+      <c r="B2" s="14">
+        <f>'FSLogix Calculator'!B$19</f>
+        <v>4000</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="15">
-        <f>'FSLogix Calculator'!B$5</f>
-        <v>35</v>
+        <v>99</v>
+      </c>
+      <c r="B3" s="14">
+        <f>'FSLogix Calculator'!B$7</f>
+        <v>20</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2">
-        <f>_xlfn.XLOOKUP('FSLogix Calculator'!B$9,'Throughput Test'!G2:G12,'Throughput Test'!P$2:P$12)</f>
+        <f>_xlfn.XLOOKUP('FSLogix Calculator'!B$11,'Throughput Test'!G2:G12,'Throughput Test'!P$2:P$12)</f>
         <v>2198</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="57"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B5" s="2">
-        <f>FLOOR(definitions!B24/'FSLogix Calculator'!B$5,1)</f>
-        <v>2925</v>
-      </c>
-      <c r="C5" s="61"/>
+        <f>FLOOR(definitions!B24/'FSLogix Calculator'!B$7,1)</f>
+        <v>5120</v>
+      </c>
+      <c r="C5" s="57"/>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="15">
-        <f>('FSLogix Calculator'!B$13*1024)/definitions!B30</f>
-        <v>1416</v>
+      <c r="B7" s="14">
+        <f>('FSLogix Calculator'!B$16*1024)/definitions!B30</f>
+        <v>8000</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="15">
-        <f>('FSLogix Calculator'!B$13*1024)/definitions!B28</f>
-        <v>354</v>
+      <c r="B8" s="14">
+        <f>('FSLogix Calculator'!B$16*1024)/definitions!B28</f>
+        <v>2000</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="15">
-        <f>('FSLogix Calculator'!B$13*1024)/definitions!B26</f>
-        <v>177</v>
+      <c r="B9" s="14">
+        <f>('FSLogix Calculator'!B$16*1024)/definitions!B26</f>
+        <v>1000</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
@@ -5299,35 +5668,35 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2">
-        <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B$30</f>
-        <v>12</v>
+        <f>('FSLogix Calculator'!B$17*'FSLogix Calculator'!B$8)/definitions!B$30</f>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2">
-        <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B28</f>
-        <v>3</v>
+        <f>('FSLogix Calculator'!B$17*'FSLogix Calculator'!B$8)/definitions!B28</f>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2">
-        <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B26</f>
-        <v>1.5</v>
+        <f>('FSLogix Calculator'!B$17*'FSLogix Calculator'!B$8)/definitions!B26</f>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>39</v>
@@ -5344,10 +5713,10 @@
       </c>
       <c r="B15" s="2">
         <f>CEILING(IF(B11&gt;B$3,definitions!B$31/B11,definitions!B$31/B$3),1)</f>
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5356,10 +5725,10 @@
       </c>
       <c r="B16" s="2">
         <f>CEILING(IF(B12&gt;B$3,definitions!B$31/B12,definitions!B$31/B$3),1)</f>
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5368,7 +5737,7 @@
       </c>
       <c r="B17" s="2">
         <f>CEILING(IF(B13&gt;B$3,definitions!B$31/B13,definitions!B$31/B$3),1)</f>
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>39</v>
@@ -5381,33 +5750,33 @@
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="15" t="str">
+        <v>90</v>
+      </c>
+      <c r="B19" s="14" t="str">
         <f>IF(B$2&gt;B7,"Capacity","Bandwidth")</f>
-        <v>Capacity</v>
+        <v>Bandwidth</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="15" t="str">
+        <v>91</v>
+      </c>
+      <c r="B20" s="14" t="str">
         <f>IF(B$2&gt;B8,"Capacity","Bandwidth")</f>
         <v>Capacity</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="15" t="str">
+        <v>92</v>
+      </c>
+      <c r="B21" s="14" t="str">
         <f>IF(B$2&gt;B9,"Capacity","Bandwidth")</f>
         <v>Capacity</v>
       </c>
@@ -5422,35 +5791,35 @@
     </row>
     <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="15">
+        <v>93</v>
+      </c>
+      <c r="B23" s="14">
         <f>IF(B$2&gt;B7,B$2,B7)</f>
-        <v>4130</v>
+        <v>8000</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="15">
+        <v>94</v>
+      </c>
+      <c r="B24" s="14">
         <f>IF(B$2&gt;B8,B$2,B8)</f>
-        <v>4130</v>
+        <v>4000</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="15">
+        <v>95</v>
+      </c>
+      <c r="B25" s="14">
         <f>IF(B$2&gt;B9,B$2,B9)</f>
-        <v>4130</v>
+        <v>4000</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
@@ -5463,35 +5832,35 @@
     </row>
     <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="15" t="str">
+        <v>84</v>
+      </c>
+      <c r="B27" s="14" t="str">
         <f>IF(B23&gt;definitions!B$31,B19,"Capacity Pool Minimum Size")</f>
-        <v>Capacity</v>
+        <v>Bandwidth</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="15" t="str">
+        <v>85</v>
+      </c>
+      <c r="B28" s="14" t="str">
         <f>IF(B24&gt;definitions!B$31,B20,"Capacity Pool Minimum Size")</f>
-        <v>Capacity</v>
+        <v>Capacity Pool Minimum Size</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="15" t="str">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14" t="str">
         <f>IF(B25&gt;definitions!B$31,B21,"Capacity Pool Minimum Size")</f>
-        <v>Capacity</v>
+        <v>Capacity Pool Minimum Size</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>39</v>
@@ -5504,35 +5873,35 @@
     </row>
     <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="15">
+        <v>87</v>
+      </c>
+      <c r="B31" s="14">
         <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
-        <v>4130</v>
+        <v>8000</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="15">
+        <v>88</v>
+      </c>
+      <c r="B32" s="14">
         <f>IF(B24&gt;definitions!B$31,B24,definitions!B$31)</f>
-        <v>4130</v>
+        <v>4096</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="15">
+        <v>89</v>
+      </c>
+      <c r="B33" s="14">
         <f>IF(B25&gt;definitions!B$31,B25,definitions!B$31)</f>
-        <v>4130</v>
+        <v>4096</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>39</v>
@@ -5540,31 +5909,31 @@
     </row>
     <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="15" t="str">
+        <v>142</v>
+      </c>
+      <c r="B35" s="14" t="str">
         <f>IF(MIN(B31:B33)&gt;definitions!B24,"No","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f>IF('FSLogix Calculator'!B3&gt;('FSLogix Calculator'!E24),"No","Yes")</f>
+        <f>IF('FSLogix Calculator'!B5&gt;('FSLogix Calculator'!G27),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C36" s="61" t="s">
-        <v>170</v>
+      <c r="C36" s="57" t="s">
+        <v>167</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -5572,45 +5941,45 @@
     <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="24">
-        <f>IF((B31&gt;definitions!B24),99999,B31*definitions!B$29)</f>
-        <v>619.5</v>
+        <v>178</v>
+      </c>
+      <c r="B38" s="23">
+        <f>IF((B31&gt;definitions!B24),99999,B31*definitions!B$29)*(IF('FSLogix Calculator'!B2="yes",definitions!B37,1))</f>
+        <v>285.71428571428572</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="16">
-        <f>IF((B32&gt;definitions!B24),99999,B32*definitions!B$27)</f>
-        <v>1239</v>
+        <v>179</v>
+      </c>
+      <c r="B39" s="15">
+        <f>IF((B32&gt;definitions!B24),99999,B32*definitions!B$27)*(IF('FSLogix Calculator'!B2="yes",definitions!B37,1))</f>
+        <v>292.57142857142856</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="16">
-        <f>IF((B33&gt;definitions!B24),99999,(B33*definitions!B$25))</f>
-        <v>1652</v>
+        <v>180</v>
+      </c>
+      <c r="B40" s="15">
+        <f>IF((B33&gt;definitions!B24),99999,(B33*definitions!B$25))*(IF('FSLogix Calculator'!B2="yes",definitions!B37,1))</f>
+        <v>390.09523809523807</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>39</v>
@@ -5620,154 +5989,252 @@
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="16"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="B42" s="15">
-        <f>B31/'FSLogix Calculator'!B$3</f>
-        <v>35</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+        <f>(definitions!B29*(IF(B2&lt;definitions!B31,definitions!B31,B2)))*(IF('FSLogix Calculator'!B2="yes",definitions!B38,0))</f>
+        <v>468.11428571428564</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="B43" s="15">
-        <f>B32/'FSLogix Calculator'!B$3</f>
-        <v>35</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+        <f>(definitions!B27*(IF(B2&lt;definitions!B31,definitions!B31,B2)))*(IF('FSLogix Calculator'!B2="yes",definitions!B38,0))</f>
+        <v>936.22857142857129</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="B44" s="15">
-        <f>B33/'FSLogix Calculator'!B$3</f>
-        <v>35</v>
-      </c>
-      <c r="C44" s="3" t="s">
+        <f>(definitions!B25*(IF(B2&lt;definitions!B31,definitions!B31,B2)))*(IF('FSLogix Calculator'!B2="yes",definitions!B38,0))</f>
+        <v>1248.304761904762</v>
+      </c>
+      <c r="C44" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+    </row>
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="15"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
     </row>
     <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="15">
+        <f>B38+B42</f>
+        <v>753.82857142857142</v>
+      </c>
+      <c r="C46" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="26">
-        <f>IF(B38=definitions!A$23,B38, B38/'FSLogix Calculator'!B$29)</f>
-        <v>1.972497745716862</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="15">
+        <f>B43+B39</f>
+        <v>1228.7999999999997</v>
+      </c>
+      <c r="C47" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="26">
-        <f>IF(B39=definitions!A$23,B39, B39/'FSLogix Calculator'!B$29)</f>
-        <v>3.944995491433724</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="26">
-        <f>IF(B40=definitions!A$23,B40, B40/'FSLogix Calculator'!B$29)</f>
-        <v>5.2599939885782989</v>
-      </c>
-      <c r="C48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="15">
+        <f>B44+B40</f>
+        <v>1638.4</v>
+      </c>
+      <c r="C48" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+    </row>
+    <row r="49" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="26">
-        <f>IF(B38=definitions!A23,B38,B38/'FSLogix Calculator'!B$37)</f>
-        <v>0.93749999999999989</v>
+      <c r="B50" s="14">
+        <f>B31/'FSLogix Calculator'!B$5</f>
+        <v>40</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="26">
-        <f>IF(B39=definitions!A23,B39,B39/'FSLogix Calculator'!B$37)</f>
-        <v>1.8749999999999998</v>
+      <c r="B51" s="14">
+        <f>B32/'FSLogix Calculator'!B$5</f>
+        <v>20.48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="26">
-        <f>IF(B40=definitions!A23,B40,B40/'FSLogix Calculator'!B$37)</f>
-        <v>2.4999999999999996</v>
+      <c r="B52" s="14">
+        <f>B33/'FSLogix Calculator'!B$5</f>
+        <v>20.48</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54">
-        <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
-        <v>11722</v>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="25">
+        <f>IF(B46=definitions!A$23,B46, B46/'FSLogix Calculator'!B$32)</f>
+        <v>1.2269345238095239</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="25">
+        <f>IF(B47=definitions!A$23,B47, B47/'FSLogix Calculator'!B$32)</f>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="25">
+        <f>IF(B48=definitions!A$23,B48, B48/'FSLogix Calculator'!B$32)</f>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="25">
+        <f>IF(B46=definitions!A23,B46,B46/'FSLogix Calculator'!B$40)</f>
+        <v>1.1778571428571429</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="25">
+        <f>IF(B47=definitions!A23,B47,B47/'FSLogix Calculator'!B$40)</f>
+        <v>1.9199999999999995</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="25">
+        <f>IF(B48=definitions!A23,B48,B48/'FSLogix Calculator'!B$40)</f>
+        <v>2.56</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62">
+        <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B17)*(1/'FSLogix Calculator'!B8),1)</f>
+        <v>3516</v>
       </c>
     </row>
   </sheetData>
@@ -5793,22 +6260,22 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="36" t="str">
-        <f>IF('FSLogix Calculator'!B15&gt;definitions!B$38,"Required I/O rate exceeds documented single storage account 10,000 op rate upper limit","Yes")</f>
+      <c r="B2" s="35" t="str">
+        <f>IF('FSLogix Calculator'!B18&gt;definitions!B$42,"Required I/O rate exceeds documented single storage account 10,000 op rate upper limit","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C2" s="37" t="str">
-        <f>IF('FSLogix Calculator'!B$15&gt;definitions!B$38,"No, must configure additional storage accounts","Yes")</f>
+      <c r="C2" s="36" t="str">
+        <f>IF('FSLogix Calculator'!B$18&gt;definitions!B$42,"No, must configure additional storage accounts","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5816,12 +6283,12 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="38" t="str">
-        <f>IF(('FSLogix Calculator'!B13)&gt;definitions!B$39,"Required bandwidth exceeds documented single storage account 300MiB/s  upper limit","Yes")</f>
+      <c r="B3" s="37" t="str">
+        <f>IF(('FSLogix Calculator'!B16)&gt;definitions!B$43,"Required bandwidth exceeds documented single storage account 300MiB/s  upper limit","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C3" s="37" t="str">
-        <f>IF(('FSLogix Calculator'!B13)&gt;definitions!B$39,"No, must configure additional storage accounts","Yes")</f>
+      <c r="C3" s="36" t="str">
+        <f>IF(('FSLogix Calculator'!B16)&gt;definitions!B$43,"No, must configure additional storage accounts","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5829,12 +6296,12 @@
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="36" t="str">
-        <f>IF('FSLogix Calculator'!B16&gt;102400,"Required capacity exceeds documented single storage account 100TiB upper limit","Yes")</f>
+      <c r="B4" s="35" t="str">
+        <f>IF('FSLogix Calculator'!B19&gt;102400,"Required capacity exceeds documented single storage account 100TiB upper limit","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C4" s="37" t="str">
-        <f>IF('FSLogix Calculator'!B16&gt;102400,"No, must configure additional storage accounts","Yes")</f>
+      <c r="C4" s="36" t="str">
+        <f>IF('FSLogix Calculator'!B19&gt;102400,"No, must configure additional storage accounts","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5842,119 +6309,119 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="37" t="str">
-        <f>IF(('FSLogix Calculator'!B$4*'FSLogix Calculator'!B$3*'FSLogix Calculator'!B$6)&gt;definitions!B$40,"Required I/O rate exceeds documented single storage account 100,000 op rate upper limit","Yes")</f>
+      <c r="B5" s="36" t="str">
+        <f>IF(('FSLogix Calculator'!B$6*'FSLogix Calculator'!B$5*'FSLogix Calculator'!B$8)&gt;definitions!B$44,"Required I/O rate exceeds documented single storage account 100,000 op rate upper limit","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C5" s="37" t="str">
-        <f>IF(('FSLogix Calculator'!B$4*'FSLogix Calculator'!B$3*'FSLogix Calculator'!B$6)&gt;definitions!B$40,"No","Yes")</f>
+      <c r="C5" s="36" t="str">
+        <f>IF(('FSLogix Calculator'!B$6*'FSLogix Calculator'!B$5*'FSLogix Calculator'!B$8)&gt;definitions!B$44,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="37" t="str">
-        <f>IF(IF(('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6)&gt;('FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3),'FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6,'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3)&gt;definitions!B42,"Required capacity exceeds documented 100TiB upper limit","Yes")</f>
+        <v>105</v>
+      </c>
+      <c r="B6" s="36" t="str">
+        <f>IF(IF(('FSLogix Calculator'!$B$6*'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$8)&gt;('FSLogix Calculator'!$B$7*'FSLogix Calculator'!$B$5),'FSLogix Calculator'!$B$6*'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$8,'FSLogix Calculator'!$B$7*'FSLogix Calculator'!$B$5)&gt;definitions!B46,"Required capacity exceeds documented 100TiB upper limit","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C6" s="37" t="str">
-        <f>IF(IF(('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6)&gt;('FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3),'FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6,'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3)&gt;definitions!B42,"No","Yes")</f>
+      <c r="C6" s="36" t="str">
+        <f>IF(IF(('FSLogix Calculator'!$B$6*'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$8)&gt;('FSLogix Calculator'!$B$7*'FSLogix Calculator'!$B$5),'FSLogix Calculator'!$B$6*'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$8,'FSLogix Calculator'!$B$7*'FSLogix Calculator'!$B$5)&gt;definitions!B46,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="15">
-        <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*(1-'FSLogix Calculator'!B9)))-definitions!B43)/definitions!B44</f>
-        <v>-926.25000000000011</v>
+        <v>155</v>
+      </c>
+      <c r="B8" s="14">
+        <f>(('FSLogix Calculator'!B16-('FSLogix Calculator'!B16*(1-'FSLogix Calculator'!B11)))-definitions!B47)/definitions!B48</f>
+        <v>-583.33333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="15">
-        <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*'FSLogix Calculator'!B9))-definitions!B45)/definitions!B46</f>
-        <v>-557.5</v>
+        <v>156</v>
+      </c>
+      <c r="B9" s="14">
+        <f>(('FSLogix Calculator'!B16-('FSLogix Calculator'!B16*'FSLogix Calculator'!B11))-definitions!B49)/definitions!B50</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="15">
+        <v>158</v>
+      </c>
+      <c r="B10" s="14">
         <f>IF(B8&lt;100,100,B8)</f>
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="15">
+        <v>159</v>
+      </c>
+      <c r="B11" s="14">
         <f>IF(B9&lt;100,100,B9)</f>
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(MAX(B10:B11),B10:B11,C10:C11)</f>
-        <v>Read Bandwidth</v>
-      </c>
-      <c r="C12" s="15">
+        <v>Write Bandwidth</v>
+      </c>
+      <c r="C12" s="14">
         <f>MAX(B10:B11)</f>
-        <v>100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B13" t="str">
-        <f>IF(B9&gt;'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6,"Bandwidth Need","I/O Need")</f>
+        <f>IF(B9&gt;'FSLogix Calculator'!B5*'FSLogix Calculator'!B6*'FSLogix Calculator'!B8,"Bandwidth Need","I/O Need")</f>
         <v>I/O Need</v>
       </c>
-      <c r="C13" s="15">
-        <f>IF(B9&gt;'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6,C$12,'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6)</f>
-        <v>708</v>
+      <c r="C13" s="14">
+        <f>IF(B9&gt;'FSLogix Calculator'!B5*'FSLogix Calculator'!B6*'FSLogix Calculator'!B8,C$12,'FSLogix Calculator'!B5*'FSLogix Calculator'!B6*'FSLogix Calculator'!B8)</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B14" t="str">
-        <f>IF(C13&gt;'FSLogix Calculator'!B16,'Azure Files Calculations'!B13,"Profile Size")</f>
+        <f>IF(C13&gt;'FSLogix Calculator'!B19,'Azure Files Calculations'!B13,"Profile Size")</f>
         <v>Profile Size</v>
       </c>
-      <c r="C14" s="15">
-        <f>IF(C13&gt;'FSLogix Calculator'!B16,'Azure Files Calculations'!C13,'FSLogix Calculator'!B16)</f>
-        <v>4130</v>
+      <c r="C14" s="14">
+        <f>IF(C13&gt;'FSLogix Calculator'!B19,'Azure Files Calculations'!C13,'FSLogix Calculator'!B19)</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="74"/>
+      <c r="B17" s="69"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="74"/>
+      <c r="B18" s="69"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B4">
@@ -6036,10 +6503,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8274658-AC29-4B53-B5B1-54B6D412C541}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6048,9 +6515,10 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6058,16 +6526,19 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -6077,14 +6548,17 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="45">
         <v>0.25</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="45">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>32</v>
       </c>
@@ -6094,14 +6568,17 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>0.33</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>64</v>
       </c>
@@ -6111,115 +6588,115 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>0.5</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>0.66</v>
       </c>
-      <c r="E5" s="46"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="45"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>25</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>0.75</v>
       </c>
-      <c r="E6" s="46"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>60</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>1</v>
       </c>
-      <c r="E7" s="46"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>120</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>30</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>35</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>40</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>45</v>
       </c>
-      <c r="D12" s="46"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>50</v>
       </c>
-      <c r="D13" s="46"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="46"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="46"/>
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="45"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="45"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="46"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="46"/>
+      <c r="D18" s="45"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="46"/>
+      <c r="D19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="46"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="46"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -6228,216 +6705,252 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>167</v>
+      <c r="A23" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="D23" s="46"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="15">
+      <c r="A24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="14">
         <v>102400</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="45"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>0.4</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>128</v>
       </c>
-      <c r="D26" s="46"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>0.3</v>
       </c>
-      <c r="D27" s="46"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>64</v>
       </c>
-      <c r="D28" s="46"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>0.15</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="45"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>16</v>
       </c>
-      <c r="D30" s="46"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>4096</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="45"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <v>3600</v>
       </c>
-      <c r="D32" s="46"/>
+      <c r="D32" s="45"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>12</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="45"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="14">
+        <f>7*24</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B36" s="14">
+        <f>B35-'FSLogix Calculator'!B9</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="75">
+        <f>'FSLogix Calculator'!B9/B35</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="75">
+        <f>B36/B35</f>
+        <v>0.76190476190476186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B39" s="23">
         <v>0.06</v>
       </c>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B40" s="24">
         <f>0.0015/10000</f>
         <v>1.4999999999999999E-7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B41" s="23">
         <v>0.16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B42" s="14">
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B43" s="14">
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B44" s="14">
         <v>100000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="14">
         <v>102400</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="14">
         <v>102400</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="68">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B43" s="15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="73">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B45" s="15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="73">
+      <c r="B50" s="68">
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="26">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="25">
         <v>0.4</v>
       </c>
     </row>
@@ -6471,120 +6984,120 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
         <v>126</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>130</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>133</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>134</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>135</v>
       </c>
-      <c r="K1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" t="s">
-        <v>138</v>
-      </c>
       <c r="N1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" t="s">
         <v>128</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>129</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>131</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>132</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>133</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>134</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>135</v>
       </c>
-      <c r="V1" t="s">
-        <v>136</v>
-      </c>
-      <c r="W1" t="s">
-        <v>137</v>
-      </c>
-      <c r="X1" t="s">
-        <v>138</v>
-      </c>
       <c r="Y1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB1" t="s">
         <v>128</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>129</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>131</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>132</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>133</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>134</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>135</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2">
         <v>9027</v>
@@ -6595,7 +7108,7 @@
       <c r="F2">
         <v>65536</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="45">
         <v>1</v>
       </c>
       <c r="H2">
@@ -6617,7 +7130,7 @@
         <v>124</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O2">
         <v>60267</v>
@@ -6629,7 +7142,7 @@
         <v>65536</v>
       </c>
       <c r="R2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S2">
         <v>2.1063333333299998</v>
@@ -6650,7 +7163,7 @@
         <v>126</v>
       </c>
       <c r="Y2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Z2">
         <v>17027</v>
@@ -6662,7 +7175,7 @@
         <v>65536</v>
       </c>
       <c r="AC2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AD2">
         <v>7.4829999999999997</v>
@@ -6685,13 +7198,13 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>8997</v>
@@ -6702,7 +7215,7 @@
       <c r="F3">
         <v>65536</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <v>0.9</v>
       </c>
       <c r="H3">
@@ -6724,7 +7237,7 @@
         <v>125</v>
       </c>
       <c r="N3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O3">
         <v>57317</v>
@@ -6736,7 +7249,7 @@
         <v>65536</v>
       </c>
       <c r="R3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S3">
         <v>2.2126666666700001</v>
@@ -6757,7 +7270,7 @@
         <v>126</v>
       </c>
       <c r="Y3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Z3">
         <v>18481</v>
@@ -6769,7 +7282,7 @@
         <v>65536</v>
       </c>
       <c r="AC3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AD3">
         <v>6.8860000000000001</v>
@@ -6792,13 +7305,13 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>8570</v>
@@ -6809,7 +7322,7 @@
       <c r="F4">
         <v>65536</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>0.8</v>
       </c>
       <c r="H4">
@@ -6831,7 +7344,7 @@
         <v>125</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O4">
         <v>52732</v>
@@ -6843,7 +7356,7 @@
         <v>65536</v>
       </c>
       <c r="R4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S4">
         <v>2.4056666666700002</v>
@@ -6864,7 +7377,7 @@
         <v>126</v>
       </c>
       <c r="Y4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Z4">
         <v>19153</v>
@@ -6876,7 +7389,7 @@
         <v>65536</v>
       </c>
       <c r="AC4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AD4">
         <v>6.6449999999999996</v>
@@ -6899,13 +7412,13 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5">
         <v>7871</v>
@@ -6916,7 +7429,7 @@
       <c r="F5">
         <v>65536</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>0.7</v>
       </c>
       <c r="H5">
@@ -6938,7 +7451,7 @@
         <v>125</v>
       </c>
       <c r="N5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O5">
         <v>51478</v>
@@ -6950,7 +7463,7 @@
         <v>65536</v>
       </c>
       <c r="R5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S5">
         <v>2.4623333333300002</v>
@@ -6971,7 +7484,7 @@
         <v>126</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Z5">
         <v>19764</v>
@@ -6983,7 +7496,7 @@
         <v>65536</v>
       </c>
       <c r="AC5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AD5">
         <v>6.4393333333299996</v>
@@ -7006,13 +7519,13 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D6">
         <v>6853</v>
@@ -7023,7 +7536,7 @@
       <c r="F6">
         <v>65536</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>0.6</v>
       </c>
       <c r="H6">
@@ -7045,7 +7558,7 @@
         <v>124</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O6">
         <v>48993</v>
@@ -7057,7 +7570,7 @@
         <v>65536</v>
       </c>
       <c r="R6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S6">
         <v>2.5903333333299998</v>
@@ -7078,7 +7591,7 @@
         <v>126</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Z6">
         <v>19712</v>
@@ -7090,7 +7603,7 @@
         <v>65536</v>
       </c>
       <c r="AC6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AD6">
         <v>6.4546666666699997</v>
@@ -7113,13 +7626,13 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7">
         <v>9303</v>
@@ -7130,7 +7643,7 @@
       <c r="F7">
         <v>65536</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>0.5</v>
       </c>
       <c r="H7">
@@ -7152,7 +7665,7 @@
         <v>123</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O7">
         <v>47054</v>
@@ -7164,7 +7677,7 @@
         <v>65536</v>
       </c>
       <c r="R7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S7">
         <v>2.6956666666700002</v>
@@ -7185,7 +7698,7 @@
         <v>126</v>
       </c>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Z7">
         <v>19788</v>
@@ -7197,7 +7710,7 @@
         <v>65536</v>
       </c>
       <c r="AC7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AD7">
         <v>6.4283333333300003</v>
@@ -7220,13 +7733,13 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D8">
         <v>7216</v>
@@ -7237,7 +7750,7 @@
       <c r="F8">
         <v>65536</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>0.4</v>
       </c>
       <c r="H8">
@@ -7259,7 +7772,7 @@
         <v>125</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O8">
         <v>42934</v>
@@ -7271,7 +7784,7 @@
         <v>65536</v>
       </c>
       <c r="R8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S8">
         <v>2.9540000000000002</v>
@@ -7292,7 +7805,7 @@
         <v>126</v>
       </c>
       <c r="Y8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Z8">
         <v>18790</v>
@@ -7304,7 +7817,7 @@
         <v>65536</v>
       </c>
       <c r="AC8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AD8">
         <v>6.7686666666699997</v>
@@ -7327,13 +7840,13 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D9">
         <v>8643</v>
@@ -7344,7 +7857,7 @@
       <c r="F9">
         <v>65536</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <v>0.3</v>
       </c>
       <c r="H9">
@@ -7366,7 +7879,7 @@
         <v>125</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O9">
         <v>38865</v>
@@ -7378,7 +7891,7 @@
         <v>65536</v>
       </c>
       <c r="R9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S9">
         <v>3.26633333333</v>
@@ -7399,7 +7912,7 @@
         <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Z9">
         <v>17559</v>
@@ -7411,7 +7924,7 @@
         <v>65536</v>
       </c>
       <c r="AC9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AD9">
         <v>7.2423333333300004</v>
@@ -7434,13 +7947,13 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10">
         <v>8431</v>
@@ -7451,7 +7964,7 @@
       <c r="F10">
         <v>65536</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>0.2</v>
       </c>
       <c r="H10">
@@ -7473,7 +7986,7 @@
         <v>126</v>
       </c>
       <c r="N10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O10">
         <v>35170</v>
@@ -7485,7 +7998,7 @@
         <v>65536</v>
       </c>
       <c r="R10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S10">
         <v>3.6153333333300002</v>
@@ -7506,7 +8019,7 @@
         <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Z10">
         <v>16162</v>
@@ -7518,7 +8031,7 @@
         <v>65536</v>
       </c>
       <c r="AC10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AD10">
         <v>7.8673333333300004</v>
@@ -7541,13 +8054,13 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11">
         <v>10134</v>
@@ -7558,7 +8071,7 @@
       <c r="F11">
         <v>65536</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <v>0.1</v>
       </c>
       <c r="H11">
@@ -7580,7 +8093,7 @@
         <v>125</v>
       </c>
       <c r="N11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O11">
         <v>31849</v>
@@ -7592,7 +8105,7 @@
         <v>65536</v>
       </c>
       <c r="R11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="S11">
         <v>3.99633333333</v>
@@ -7613,7 +8126,7 @@
         <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Z11">
         <v>15215</v>
@@ -7625,7 +8138,7 @@
         <v>65536</v>
       </c>
       <c r="AC11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AD11">
         <v>8.3573333333300006</v>
@@ -7648,13 +8161,13 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D12">
         <v>9700</v>
@@ -7665,7 +8178,7 @@
       <c r="F12">
         <v>65536</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <v>0</v>
       </c>
       <c r="H12">
@@ -7687,7 +8200,7 @@
         <v>127</v>
       </c>
       <c r="N12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O12">
         <v>29482</v>
@@ -7699,7 +8212,7 @@
         <v>65536</v>
       </c>
       <c r="R12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S12">
         <v>4.3016666666700001</v>
@@ -7720,7 +8233,7 @@
         <v>126</v>
       </c>
       <c r="Y12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Z12">
         <v>14265</v>
@@ -7732,7 +8245,7 @@
         <v>65536</v>
       </c>
       <c r="AC12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AD12">
         <v>8.9133333333299998</v>
@@ -7760,6 +8273,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100050FBA8A9F0AFB4BB2D0148D6A234C38" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74183e733b66e5e9a3cd5553bd4bd9ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4a052287-e6d5-446a-afc6-58987b850d5f" xmlns:ns4="943a090e-7b96-4eb7-abc0-264fa36c6c5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b903754823e47922d1d3c75b6236d24" ns3:_="" ns4:_="">
     <xsd:import namespace="4a052287-e6d5-446a-afc6-58987b850d5f"/>
@@ -7982,22 +8510,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="943a090e-7b96-4eb7-abc0-264fa36c6c5d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4a052287-e6d5-446a-afc6-58987b850d5f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097D0541-97F4-46BE-8711-51CFA8DE5931}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8014,29 +8552,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="4a052287-e6d5-446a-afc6-58987b850d5f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="943a090e-7b96-4eb7-abc0-264fa36c6c5d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>